--- a/NewProject/nodes_loc.xlsx
+++ b/NewProject/nodes_loc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\OneDrive\Documents\MSc Aerospace Engineering\Q1\Operations Optimization\VRP_assignment\NewProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108AAD5B-4120-405E-A4C0-42CCD69FE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206EF77B-F26E-4099-920C-58873F8E50E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loc" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B49"/>
     </sheetView>
   </sheetViews>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A608E6D-4040-41DB-BA7C-18DF6A15DFD9}">
   <dimension ref="A1:AV48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AV48"/>
     </sheetView>
   </sheetViews>
@@ -786,7004 +786,7004 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>10594831.396418801</v>
+        <v>1454277.37550964</v>
       </c>
       <c r="C1">
-        <v>7933191.9740762599</v>
+        <v>623534.47852940205</v>
       </c>
       <c r="D1">
-        <v>3882760.1046871399</v>
+        <v>576274.26094958105</v>
       </c>
       <c r="E1">
-        <v>11520854.2310955</v>
+        <v>444763.74260988203</v>
       </c>
       <c r="F1">
-        <v>9500263.0428228807</v>
+        <v>156285.357614448</v>
       </c>
       <c r="G1">
-        <v>7606765.97575003</v>
+        <v>1399012.2769750201</v>
       </c>
       <c r="H1">
-        <v>9038360.1046365295</v>
+        <v>1546509.2471770099</v>
       </c>
       <c r="I1">
-        <v>11332623.328276601</v>
+        <v>454570.44558701199</v>
       </c>
       <c r="J1">
-        <v>3649116.98221394</v>
+        <v>1031202.15771445</v>
       </c>
       <c r="K1">
-        <v>4834276.8341481602</v>
+        <v>771567.46598534705</v>
       </c>
       <c r="L1">
-        <v>8141514.25327852</v>
+        <v>1067516.2006739201</v>
       </c>
       <c r="M1">
-        <v>17098721.2883026</v>
+        <v>238130.45954346401</v>
       </c>
       <c r="N1">
-        <v>4470649.1610368602</v>
+        <v>1062189.1699298201</v>
       </c>
       <c r="O1">
-        <v>4337542.2545620296</v>
+        <v>1096054.6307653</v>
       </c>
       <c r="P1">
-        <v>10013416.002452699</v>
+        <v>675134.85930627806</v>
       </c>
       <c r="Q1">
-        <v>13923098.762898199</v>
+        <v>531022.12039213197</v>
       </c>
       <c r="R1">
-        <v>9420803.5059159491</v>
+        <v>1479086.7940004801</v>
       </c>
       <c r="S1">
-        <v>9230976.3059443291</v>
+        <v>788968.80505129101</v>
       </c>
       <c r="T1">
-        <v>10595230.6543693</v>
+        <v>617180.141939561</v>
       </c>
       <c r="U1">
-        <v>5673644.64201889</v>
+        <v>1410760.2173838699</v>
       </c>
       <c r="V1">
-        <v>8857100.1738338806</v>
+        <v>158778.74436146699</v>
       </c>
       <c r="W1">
-        <v>3556169.7567213401</v>
+        <v>1232992.98111076</v>
       </c>
       <c r="X1">
-        <v>10472307.2889097</v>
+        <v>514800.57486040803</v>
       </c>
       <c r="Y1">
-        <v>17803523.904479101</v>
+        <v>384854.76424291701</v>
       </c>
       <c r="Z1">
-        <v>6546761.7689249702</v>
+        <v>752887.58282906399</v>
       </c>
       <c r="AA1">
-        <v>16234151.222166801</v>
+        <v>1016402.70905398</v>
       </c>
       <c r="AB1">
-        <v>15064248.570695899</v>
+        <v>951329.35162399698</v>
       </c>
       <c r="AC1">
-        <v>8522076.2434354704</v>
+        <v>886607.36757757002</v>
       </c>
       <c r="AD1">
-        <v>8127953.2163598305</v>
+        <v>913546.96433873801</v>
       </c>
       <c r="AE1">
-        <v>17284590.161612999</v>
+        <v>864207.40883816604</v>
       </c>
       <c r="AF1">
-        <v>13861105.9552419</v>
+        <v>759585.232864619</v>
       </c>
       <c r="AG1">
-        <v>12520783.301382501</v>
+        <v>979723.44255132996</v>
       </c>
       <c r="AH1">
-        <v>16763133.174484299</v>
+        <v>1504227.09060573</v>
       </c>
       <c r="AI1">
-        <v>12608989.091461301</v>
+        <v>1349415.5114534099</v>
       </c>
       <c r="AJ1">
-        <v>10976153.619883601</v>
+        <v>847791.25643026095</v>
       </c>
       <c r="AK1">
-        <v>4484892.0527599398</v>
+        <v>734404.71251734695</v>
       </c>
       <c r="AL1">
-        <v>13227381.789160499</v>
+        <v>352110.680914091</v>
       </c>
       <c r="AM1">
-        <v>13105750.795531699</v>
+        <v>233089.07526294299</v>
       </c>
       <c r="AN1">
-        <v>13490148.0964543</v>
+        <v>934704.71283354796</v>
       </c>
       <c r="AO1">
-        <v>5425050.6347125201</v>
+        <v>317480.30968575901</v>
       </c>
       <c r="AP1">
-        <v>5634861.0638670297</v>
+        <v>709764.76295650704</v>
       </c>
       <c r="AQ1">
-        <v>12885679.714406701</v>
+        <v>233923.751762097</v>
       </c>
       <c r="AR1">
-        <v>7979671.1556611098</v>
+        <v>1330182.02642473</v>
       </c>
       <c r="AS1">
-        <v>2403574.66404439</v>
+        <v>549556.07929547597</v>
       </c>
       <c r="AT1">
-        <v>7901992.7402714901</v>
+        <v>295686.865609659</v>
       </c>
       <c r="AU1">
-        <v>4072440.9657594999</v>
+        <v>807387.56264993304</v>
       </c>
       <c r="AV1">
-        <v>12542904.010066699</v>
+        <v>1073512.4701020501</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10594831.396418801</v>
+        <v>1454277.37550964</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6641475.3761881301</v>
+        <v>950639.93394557503</v>
       </c>
       <c r="D2">
-        <v>11542019.386964301</v>
+        <v>1003732.84893727</v>
       </c>
       <c r="E2">
-        <v>4496150.2742525302</v>
+        <v>1815403.3775988601</v>
       </c>
       <c r="F2">
-        <v>8002973.8251972897</v>
+        <v>1301049.7482267299</v>
       </c>
       <c r="G2">
-        <v>16044246.074045699</v>
+        <v>257138.79488842899</v>
       </c>
       <c r="H2">
-        <v>13346212.7940538</v>
+        <v>706565.43669642997</v>
       </c>
       <c r="I2">
-        <v>15065773.089479299</v>
+        <v>1000945.560793</v>
       </c>
       <c r="J2">
-        <v>10024008.9120083</v>
+        <v>1147281.5917452299</v>
       </c>
       <c r="K2">
-        <v>14618905.147585699</v>
+        <v>808715.02210629499</v>
       </c>
       <c r="L2">
-        <v>15568149.747853</v>
+        <v>396032.35701082001</v>
       </c>
       <c r="M2">
-        <v>11047917.4642125</v>
+        <v>1325049.06033831</v>
       </c>
       <c r="N2">
-        <v>8352962.9307382097</v>
+        <v>1181392.2912814701</v>
       </c>
       <c r="O2">
-        <v>8354239.0086255902</v>
+        <v>1477265.0711204901</v>
       </c>
       <c r="P2">
-        <v>8936161.1100459993</v>
+        <v>810802.73134194396</v>
       </c>
       <c r="Q2">
-        <v>11027298.896264199</v>
+        <v>1933246.66003842</v>
       </c>
       <c r="R2">
-        <v>19226935.3982279</v>
+        <v>247739.66388915601</v>
       </c>
       <c r="S2">
-        <v>3391823.7581722699</v>
+        <v>665675.01270078495</v>
       </c>
       <c r="T2">
-        <v>8142685.4927577302</v>
+        <v>1368082.5218092101</v>
       </c>
       <c r="U2">
-        <v>4921204.1215199102</v>
+        <v>69433.679749718198</v>
       </c>
       <c r="V2">
-        <v>11104678.8543358</v>
+        <v>1539721.48379102</v>
       </c>
       <c r="W2">
-        <v>7886397.5079706404</v>
+        <v>290011.53489252098</v>
       </c>
       <c r="X2">
-        <v>9697557.5549242906</v>
+        <v>941636.14633023099</v>
       </c>
       <c r="Y2">
-        <v>8306222.2617337704</v>
+        <v>1073121.1652597</v>
       </c>
       <c r="Z2">
-        <v>6188787.1006326498</v>
+        <v>1224842.07345398</v>
       </c>
       <c r="AA2">
-        <v>5986592.4753209101</v>
+        <v>1105709.7986143699</v>
       </c>
       <c r="AB2">
-        <v>10178356.2167348</v>
+        <v>1089702.09817766</v>
       </c>
       <c r="AC2">
-        <v>10037107.264371401</v>
+        <v>1023187.13877577</v>
       </c>
       <c r="AD2">
-        <v>11125128.544245999</v>
+        <v>1043306.26330576</v>
       </c>
       <c r="AE2">
-        <v>12051492.6241716</v>
+        <v>636231.12822779</v>
       </c>
       <c r="AF2">
-        <v>7479212.7701241001</v>
+        <v>1350314.8253699201</v>
       </c>
       <c r="AG2">
-        <v>8552290.6177984104</v>
+        <v>554688.27292360098</v>
       </c>
       <c r="AH2">
-        <v>6235310.4555069199</v>
+        <v>85058.755030123299</v>
       </c>
       <c r="AI2">
-        <v>2088726.3599942499</v>
+        <v>831152.98165332503</v>
       </c>
       <c r="AJ2">
-        <v>15427482.9207479</v>
+        <v>645591.96065481997</v>
       </c>
       <c r="AK2">
-        <v>13964232.327062299</v>
+        <v>1082393.6327803901</v>
       </c>
       <c r="AL2">
-        <v>3784840.8634137399</v>
+        <v>1804904.33299636</v>
       </c>
       <c r="AM2">
-        <v>10519153.985291401</v>
+        <v>1684643.6137709201</v>
       </c>
       <c r="AN2">
-        <v>10450100.2868795</v>
+        <v>522313.16904774902</v>
       </c>
       <c r="AO2">
-        <v>5948864.3553647902</v>
+        <v>1656255.1479602</v>
       </c>
       <c r="AP2">
-        <v>15127205.878699699</v>
+        <v>2163944.9247919298</v>
       </c>
       <c r="AQ2">
-        <v>6686791.5505967196</v>
+        <v>1688199.2760038699</v>
       </c>
       <c r="AR2">
-        <v>7589831.3441473497</v>
+        <v>133284.90082025001</v>
       </c>
       <c r="AS2">
-        <v>11510581.7786017</v>
+        <v>1018952.6496619</v>
       </c>
       <c r="AT2">
-        <v>2791545.80256083</v>
+        <v>1503584.28299143</v>
       </c>
       <c r="AU2">
-        <v>13148093.605406901</v>
+        <v>1020912.82686576</v>
       </c>
       <c r="AV2">
-        <v>16860792.595873199</v>
+        <v>380797.07141910202</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7933191.9740762599</v>
+        <v>623534.47852940205</v>
       </c>
       <c r="B3">
-        <v>6641475.3761881301</v>
+        <v>950639.93394557503</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5881871.6403902797</v>
+        <v>592513.43378379697</v>
       </c>
       <c r="E3">
-        <v>11078860.199314401</v>
+        <v>887748.02195852494</v>
       </c>
       <c r="F3">
-        <v>13662012.276494</v>
+        <v>476741.825335634</v>
       </c>
       <c r="G3">
-        <v>9415060.1098044999</v>
+        <v>987843.565123062</v>
       </c>
       <c r="H3">
-        <v>6976949.4365284797</v>
+        <v>923112.16517990397</v>
       </c>
       <c r="I3">
-        <v>9731196.2971559707</v>
+        <v>283152.37130474101</v>
       </c>
       <c r="J3">
-        <v>4807798.4382212302</v>
+        <v>523663.75309358898</v>
       </c>
       <c r="K3">
-        <v>8867897.9381414596</v>
+        <v>157559.772526671</v>
       </c>
       <c r="L3">
-        <v>15679246.4582312</v>
+        <v>560290.62670822896</v>
       </c>
       <c r="M3">
-        <v>14973122.679513</v>
+        <v>632987.06264767202</v>
       </c>
       <c r="N3">
-        <v>3479408.5765897199</v>
+        <v>565317.73496421403</v>
       </c>
       <c r="O3">
-        <v>9970752.0568524394</v>
+        <v>749688.59545846505</v>
       </c>
       <c r="P3">
-        <v>3412926.7680355501</v>
+        <v>178231.53115478001</v>
       </c>
       <c r="Q3">
-        <v>17361786.885166399</v>
+        <v>1011065.92772993</v>
       </c>
       <c r="R3">
-        <v>14061175.992941599</v>
+        <v>1057666.11212281</v>
       </c>
       <c r="S3">
-        <v>9084381.6243757997</v>
+        <v>366343.09723659698</v>
       </c>
       <c r="T3">
-        <v>14312663.4238673</v>
+        <v>936031.01641042298</v>
       </c>
       <c r="U3">
-        <v>5755653.8326771799</v>
+        <v>927108.23383347597</v>
       </c>
       <c r="V3">
-        <v>4765573.4837386897</v>
+        <v>763056.749762194</v>
       </c>
       <c r="W3">
-        <v>4562489.0077816499</v>
+        <v>681564.86713665002</v>
       </c>
       <c r="X3">
-        <v>4330992.1782583799</v>
+        <v>334148.27812945802</v>
       </c>
       <c r="Y3">
-        <v>9873199.3224347699</v>
+        <v>379118.725318918</v>
       </c>
       <c r="Z3">
-        <v>9827132.8138722591</v>
+        <v>370170.11655331199</v>
       </c>
       <c r="AA3">
-        <v>8853377.9453023393</v>
+        <v>1072920.6226985401</v>
       </c>
       <c r="AB3">
-        <v>8301364.7295646798</v>
+        <v>1011629.5177542201</v>
       </c>
       <c r="AC3">
-        <v>3619285.53492236</v>
+        <v>334856.95983329299</v>
       </c>
       <c r="AD3">
-        <v>4584996.1599563099</v>
+        <v>370216.24441494403</v>
       </c>
       <c r="AE3">
-        <v>13945883.6552807</v>
+        <v>314954.40298166999</v>
       </c>
       <c r="AF3">
-        <v>14017759.103637001</v>
+        <v>477358.08027238102</v>
       </c>
       <c r="AG3">
-        <v>15182258.9163971</v>
+        <v>663749.28106387402</v>
       </c>
       <c r="AH3">
-        <v>9687067.1642203592</v>
+        <v>978249.85535886895</v>
       </c>
       <c r="AI3">
-        <v>7193972.2194470698</v>
+        <v>732806.32116749999</v>
       </c>
       <c r="AJ3">
-        <v>17887574.2023293</v>
+        <v>541256.10310058203</v>
       </c>
       <c r="AK3">
-        <v>8224837.5099664396</v>
+        <v>239017.89252004001</v>
       </c>
       <c r="AL3">
-        <v>10204272.6139639</v>
+        <v>958580.91564357595</v>
       </c>
       <c r="AM3">
-        <v>6906969.6834695498</v>
+        <v>820557.64209922601</v>
       </c>
       <c r="AN3">
-        <v>17002778.360410899</v>
+        <v>510685.52852668602</v>
       </c>
       <c r="AO3">
-        <v>3559496.2716129902</v>
+        <v>731924.12474557303</v>
       </c>
       <c r="AP3">
-        <v>9005147.5223043598</v>
+        <v>1289868.5825427901</v>
       </c>
       <c r="AQ3">
-        <v>4968947.6507116901</v>
+        <v>837368.50584814604</v>
       </c>
       <c r="AR3">
-        <v>999860.96993021795</v>
+        <v>817485.06415910297</v>
       </c>
       <c r="AS3">
-        <v>6809920.2281368999</v>
+        <v>577824.30698099604</v>
       </c>
       <c r="AT3">
-        <v>5125245.5720070396</v>
+        <v>820019.97916146996</v>
       </c>
       <c r="AU3">
-        <v>7474994.7326899199</v>
+        <v>844419.24679415603</v>
       </c>
       <c r="AV3">
-        <v>14428411.763114501</v>
+        <v>602454.41291616799</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3882760.1046871399</v>
+        <v>576274.26094958105</v>
       </c>
       <c r="B4">
-        <v>11542019.386964301</v>
+        <v>1003732.84893727</v>
       </c>
       <c r="C4">
-        <v>5881871.6403902797</v>
+        <v>592513.43378379697</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14588282.054351799</v>
+        <v>1017556.21498524</v>
       </c>
       <c r="F4">
-        <v>13380649.128286101</v>
+        <v>471064.254783282</v>
       </c>
       <c r="G4">
-        <v>5014140.2442952702</v>
+        <v>883520.90610858798</v>
       </c>
       <c r="H4">
-        <v>5282865.3317531496</v>
+        <v>1333788.5820462501</v>
       </c>
       <c r="I4">
-        <v>8035688.5898085404</v>
+        <v>326226.247980165</v>
       </c>
       <c r="J4">
-        <v>1532823.7554138701</v>
+        <v>1115336.7519251399</v>
       </c>
       <c r="K4">
-        <v>3158088.3957717498</v>
+        <v>641589.71310300601</v>
       </c>
       <c r="L4">
-        <v>9830271.3789640907</v>
+        <v>679013.45734743599</v>
       </c>
       <c r="M4">
-        <v>17056281.071248401</v>
+        <v>367089.69289760099</v>
       </c>
       <c r="N4">
-        <v>3189989.4380089301</v>
+        <v>1157379.5285076499</v>
       </c>
       <c r="O4">
-        <v>8139713.9565957403</v>
+        <v>1326253.97345303</v>
       </c>
       <c r="P4">
-        <v>6578548.6315097502</v>
+        <v>476714.79366209102</v>
       </c>
       <c r="Q4">
-        <v>16724250.8307341</v>
+        <v>1107233.08770873</v>
       </c>
       <c r="R4">
-        <v>8912989.8160377908</v>
+        <v>964120.44354983699</v>
       </c>
       <c r="S4">
-        <v>11945224.202705299</v>
+        <v>428700.43675802398</v>
       </c>
       <c r="T4">
-        <v>14477929.451182701</v>
+        <v>399118.63882987702</v>
       </c>
       <c r="U4">
-        <v>7459968.4838185897</v>
+        <v>946201.29534686205</v>
       </c>
       <c r="V4">
-        <v>5017692.3456625296</v>
+        <v>595254.84378314402</v>
       </c>
       <c r="W4">
-        <v>3937272.71917903</v>
+        <v>863911.69372737501</v>
       </c>
       <c r="X4">
-        <v>6817557.2852042401</v>
+        <v>258467.66836252299</v>
       </c>
       <c r="Y4">
-        <v>14436780.3039444</v>
+        <v>274161.30969879898</v>
       </c>
       <c r="Z4">
-        <v>10032436.882798299</v>
+        <v>935065.95899090404</v>
       </c>
       <c r="AA4">
-        <v>14476444.602669399</v>
+        <v>505313.90155887901</v>
       </c>
       <c r="AB4">
-        <v>11212574.699551299</v>
+        <v>439614.84073846298</v>
       </c>
       <c r="AC4">
-        <v>4882994.3429504205</v>
+        <v>924314.41442552197</v>
       </c>
       <c r="AD4">
-        <v>4295447.2569215801</v>
+        <v>960170.38374255795</v>
       </c>
       <c r="AE4">
-        <v>15232707.5732188</v>
+        <v>592815.23800891498</v>
       </c>
       <c r="AF4">
-        <v>17673905.179826599</v>
+        <v>1014607.92282026</v>
       </c>
       <c r="AG4">
-        <v>16382250.333674099</v>
+        <v>460404.79965117498</v>
       </c>
       <c r="AH4">
-        <v>15343151.241443999</v>
+        <v>1071896.1705374001</v>
       </c>
       <c r="AI4">
-        <v>12838263.543808701</v>
+        <v>1225397.03527808</v>
       </c>
       <c r="AJ4">
-        <v>12199437.042206099</v>
+        <v>359294.43290770199</v>
       </c>
       <c r="AK4">
-        <v>2482585.1859381902</v>
+        <v>825605.32458420401</v>
       </c>
       <c r="AL4">
-        <v>15269980.625085801</v>
+        <v>883773.89907051902</v>
       </c>
       <c r="AM4">
-        <v>9258486.9032300208</v>
+        <v>797733.24220334506</v>
       </c>
       <c r="AN4">
-        <v>16735701.8124534</v>
+        <v>506418.711372016</v>
       </c>
       <c r="AO4">
-        <v>5647743.8184023304</v>
+        <v>875611.81573232997</v>
       </c>
       <c r="AP4">
-        <v>3585434.1706132502</v>
+        <v>1243242.0299757901</v>
       </c>
       <c r="AQ4">
-        <v>10062740.040996</v>
+        <v>785801.93323044397</v>
       </c>
       <c r="AR4">
-        <v>5386990.5542693902</v>
+        <v>901841.85135163798</v>
       </c>
       <c r="AS4">
-        <v>1524424.8440679801</v>
+        <v>27033.447518168701</v>
       </c>
       <c r="AT4">
-        <v>8900479.8305984996</v>
+        <v>514829.642567623</v>
       </c>
       <c r="AU4">
-        <v>1666264.3027530699</v>
+        <v>271553.13833226397</v>
       </c>
       <c r="AV4">
-        <v>11179338.1670417</v>
+        <v>647820.16531063104</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11520854.2310955</v>
+        <v>444763.74260988203</v>
       </c>
       <c r="B5">
-        <v>4496150.2742525302</v>
+        <v>1815403.3775988601</v>
       </c>
       <c r="C5">
-        <v>11078860.199314401</v>
+        <v>887748.02195852494</v>
       </c>
       <c r="D5">
-        <v>14588282.054351799</v>
+        <v>1017556.21498524</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3992785.0558631802</v>
+        <v>556189.04215383204</v>
       </c>
       <c r="G5">
-        <v>18825703.2637305</v>
+        <v>1796964.9884550101</v>
       </c>
       <c r="H5">
-        <v>17742229.839816701</v>
+        <v>1762964.7500064501</v>
       </c>
       <c r="I5">
-        <v>17149706.008710001</v>
+        <v>833853.00861825701</v>
       </c>
       <c r="J5">
-        <v>13187973.241395799</v>
+        <v>1105360.5553858101</v>
       </c>
       <c r="K5">
-        <v>16223650.3695712</v>
+        <v>1044686.14965999</v>
       </c>
       <c r="L5">
-        <v>11552798.9299953</v>
+        <v>1419515.92755605</v>
       </c>
       <c r="M5">
-        <v>8351958.9852170302</v>
+        <v>679077.42084381101</v>
       </c>
       <c r="N5">
-        <v>11844848.652545501</v>
+        <v>1121630.2247361899</v>
       </c>
       <c r="O5">
-        <v>7398276.6061221799</v>
+        <v>1031746.36458694</v>
       </c>
       <c r="P5">
-        <v>13291117.6882174</v>
+        <v>1005154.11562483</v>
       </c>
       <c r="Q5">
-        <v>6880364.9411880895</v>
+        <v>125420.795227553</v>
       </c>
       <c r="R5">
-        <v>14751655.7099701</v>
+        <v>1874992.83975396</v>
       </c>
       <c r="S5">
-        <v>2656366.7575853402</v>
+        <v>1159461.2674706201</v>
       </c>
       <c r="T5">
-        <v>3775249.99477856</v>
+        <v>1028039.234228</v>
       </c>
       <c r="U5">
-        <v>7188949.0721101398</v>
+        <v>1781032.82945413</v>
       </c>
       <c r="V5">
-        <v>15573600.321875701</v>
+        <v>498590.31828544498</v>
       </c>
       <c r="W5">
-        <v>10713606.7617858</v>
+        <v>1562982.69318303</v>
       </c>
       <c r="X5">
-        <v>13918240.3423524</v>
+        <v>912217.52344096696</v>
       </c>
       <c r="Y5">
-        <v>8901042.4507823996</v>
+        <v>794326.00268403196</v>
       </c>
       <c r="Z5">
-        <v>4991965.8948735101</v>
+        <v>818763.49720497197</v>
       </c>
       <c r="AA5">
-        <v>7080599.1672427999</v>
+        <v>1457187.0755964301</v>
       </c>
       <c r="AB5">
-        <v>12187100.9075647</v>
+        <v>1392886.9843907901</v>
       </c>
       <c r="AC5">
-        <v>14531363.6680908</v>
+        <v>1027418.51772356</v>
       </c>
       <c r="AD5">
-        <v>15619469.1484411</v>
+        <v>1041468.4026831799</v>
       </c>
       <c r="AE5">
-        <v>10155226.5093462</v>
+        <v>1187346.8565486199</v>
       </c>
       <c r="AF5">
-        <v>3488162.8373210002</v>
+        <v>755178.24029035994</v>
       </c>
       <c r="AG5">
-        <v>4109512.2224021801</v>
+        <v>1391740.8611425399</v>
       </c>
       <c r="AH5">
-        <v>6639412.9560010601</v>
+        <v>1853406.35401308</v>
       </c>
       <c r="AI5">
-        <v>4880926.54706496</v>
+        <v>1525722.39936103</v>
       </c>
       <c r="AJ5">
-        <v>10941812.5401388</v>
+        <v>1255450.66409211</v>
       </c>
       <c r="AK5">
-        <v>15997687.3819847</v>
+        <v>879881.21062237502</v>
       </c>
       <c r="AL5">
-        <v>2256458.0098268702</v>
+        <v>324503.75162644399</v>
       </c>
       <c r="AM5">
-        <v>13564223.295354901</v>
+        <v>272836.91385143599</v>
       </c>
       <c r="AN5">
-        <v>6180933.3164182398</v>
+        <v>1314474.19304988</v>
       </c>
       <c r="AO5">
-        <v>9335301.6502779704</v>
+        <v>159190.18918394999</v>
       </c>
       <c r="AP5">
-        <v>17010029.410553999</v>
+        <v>461162.19467659399</v>
       </c>
       <c r="AQ5">
-        <v>10264233.271791499</v>
+        <v>307785.658502904</v>
       </c>
       <c r="AR5">
-        <v>12054428.1189606</v>
+        <v>1684837.0084830199</v>
       </c>
       <c r="AS5">
-        <v>13646715.727562301</v>
+        <v>990604.05885173799</v>
       </c>
       <c r="AT5">
-        <v>6283532.7521688798</v>
+        <v>664405.58654234698</v>
       </c>
       <c r="AU5">
-        <v>15543631.8220284</v>
+        <v>1251880.79999161</v>
       </c>
       <c r="AV5">
-        <v>13883898.906929599</v>
+        <v>1441731.7858567501</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9500263.0428228807</v>
+        <v>156285.357614448</v>
       </c>
       <c r="B6">
-        <v>8002973.8251972897</v>
+        <v>1301049.7482267299</v>
       </c>
       <c r="C6">
-        <v>13662012.276494</v>
+        <v>476741.825335634</v>
       </c>
       <c r="D6">
-        <v>13380649.128286101</v>
+        <v>471064.254783282</v>
       </c>
       <c r="E6">
-        <v>3992785.0558631802</v>
+        <v>556189.04215383204</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>14894839.736903001</v>
+        <v>1254256.37476974</v>
       </c>
       <c r="H6">
-        <v>18088981.3276808</v>
+        <v>1397364.46238221</v>
       </c>
       <c r="I6">
-        <v>16572365.283526801</v>
+        <v>300167.292533795</v>
       </c>
       <c r="J6">
-        <v>12744804.8852759</v>
+        <v>919265.90977792302</v>
       </c>
       <c r="K6">
-        <v>13005434.402745999</v>
+        <v>620265.91519780003</v>
       </c>
       <c r="L6">
-        <v>7677258.9724437799</v>
+        <v>912514.69278374396</v>
       </c>
       <c r="M6">
-        <v>8755778.4200112801</v>
+        <v>219955.522809516</v>
       </c>
       <c r="N6">
-        <v>12354448.853313901</v>
+        <v>953449.83811173204</v>
       </c>
       <c r="O6">
-        <v>5302320.4406118598</v>
+        <v>1023715.22936051</v>
       </c>
       <c r="P6">
-        <v>16836091.936333802</v>
+        <v>519015.14731360099</v>
       </c>
       <c r="Q6">
-        <v>5658979.2004979001</v>
+        <v>657824.44447002502</v>
       </c>
       <c r="R6">
-        <v>11229796.7120691</v>
+        <v>1333765.8014376401</v>
       </c>
       <c r="S6">
-        <v>4808162.5380418496</v>
+        <v>635377.42763821897</v>
       </c>
       <c r="T6">
-        <v>1122194.3161684901</v>
+        <v>611329.88039386203</v>
       </c>
       <c r="U6">
-        <v>8096928.7070267303</v>
+        <v>1258910.16211925</v>
       </c>
       <c r="V6">
-        <v>18055130.799477901</v>
+        <v>286400.269487435</v>
       </c>
       <c r="W6">
-        <v>10800381.6983335</v>
+        <v>1076899.1047815599</v>
       </c>
       <c r="X6">
-        <v>17684276.1430372</v>
+        <v>366051.302042989</v>
       </c>
       <c r="Y6">
-        <v>11882387.9621299</v>
+        <v>240535.83592307501</v>
       </c>
       <c r="Z6">
-        <v>4103415.0611624802</v>
+        <v>655884.80048456695</v>
       </c>
       <c r="AA6">
-        <v>10675215.9160654</v>
+        <v>948816.45814496896</v>
       </c>
       <c r="AB6">
-        <v>15322067.051452599</v>
+        <v>882297.40457629401</v>
       </c>
       <c r="AC6">
-        <v>17078335.767978001</v>
+        <v>761157.85151226597</v>
       </c>
       <c r="AD6">
-        <v>17404953.993447699</v>
+        <v>790637.04689011502</v>
       </c>
       <c r="AE6">
-        <v>10700396.601164101</v>
+        <v>707987.87330954999</v>
       </c>
       <c r="AF6">
-        <v>4397749.5240474101</v>
+        <v>685388.88888783695</v>
       </c>
       <c r="AG6">
-        <v>3105623.55467078</v>
+        <v>840177.38229692704</v>
       </c>
       <c r="AH6">
-        <v>10024391.7108879</v>
+        <v>1349655.07660653</v>
       </c>
       <c r="AI6">
-        <v>8844761.4607224595</v>
+        <v>1207983.9520993701</v>
       </c>
       <c r="AJ6">
-        <v>7869226.4938725503</v>
+        <v>705594.60211439198</v>
       </c>
       <c r="AK6">
-        <v>13154290.7923516</v>
+        <v>613856.56235459598</v>
       </c>
       <c r="AL6">
-        <v>6122856.0816326002</v>
+        <v>508001.984068666</v>
       </c>
       <c r="AM6">
-        <v>17176037.841809001</v>
+        <v>383594.28296404902</v>
       </c>
       <c r="AN6">
-        <v>4884779.8996665804</v>
+        <v>783490.93614981999</v>
       </c>
       <c r="AO6">
-        <v>10534353.9493313</v>
+        <v>407255.58214848902</v>
       </c>
       <c r="AP6">
-        <v>13600442.101570699</v>
+        <v>863294.59479698597</v>
       </c>
       <c r="AQ6">
-        <v>14256527.4991623</v>
+        <v>388638.32882532099</v>
       </c>
       <c r="AR6">
-        <v>14611092.2204949</v>
+        <v>1175938.3962456</v>
       </c>
       <c r="AS6">
-        <v>11893499.953883</v>
+        <v>444107.693782705</v>
       </c>
       <c r="AT6">
-        <v>8594992.1067232806</v>
+        <v>367896.48931544297</v>
       </c>
       <c r="AU6">
-        <v>13202073.6271681</v>
+        <v>725754.80701535405</v>
       </c>
       <c r="AV6">
-        <v>11905082.226278</v>
+        <v>920557.66169622703</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7606765.97575003</v>
+        <v>1399012.2769750201</v>
       </c>
       <c r="B7">
-        <v>16044246.074045699</v>
+        <v>257138.79488842899</v>
       </c>
       <c r="C7">
-        <v>9415060.1098044999</v>
+        <v>987843.565123062</v>
       </c>
       <c r="D7">
-        <v>5014140.2442952702</v>
+        <v>883520.90610858798</v>
       </c>
       <c r="E7">
-        <v>18825703.2637305</v>
+        <v>1796964.9884550101</v>
       </c>
       <c r="F7">
-        <v>14894839.736903001</v>
+        <v>1254256.37476974</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3274927.5743387099</v>
+        <v>948180.74755259301</v>
       </c>
       <c r="I7">
-        <v>3836212.9689188502</v>
+        <v>963321.15983434196</v>
       </c>
       <c r="J7">
-        <v>6517110.3103236696</v>
+        <v>1287064.9211957201</v>
       </c>
       <c r="K7">
-        <v>2786974.6212702198</v>
+        <v>870531.18128211703</v>
       </c>
       <c r="L7">
-        <v>7495533.0019180402</v>
+        <v>446267.23553726502</v>
       </c>
       <c r="M7">
-        <v>12066154.6635636</v>
+        <v>1235334.7527926399</v>
       </c>
       <c r="N7">
-        <v>8038443.8080180502</v>
+        <v>1325307.4329836799</v>
       </c>
       <c r="O7">
-        <v>11561510.018144401</v>
+        <v>1609822.9170605601</v>
       </c>
       <c r="P7">
-        <v>7622466.4048075601</v>
+        <v>822263.68818775006</v>
       </c>
       <c r="Q7">
-        <v>12903930.5252888</v>
+        <v>1907684.9746819499</v>
       </c>
       <c r="R7">
-        <v>4646643.3484061696</v>
+        <v>80884.954530217001</v>
       </c>
       <c r="S7">
-        <v>16795393.787799802</v>
+        <v>644286.32921143703</v>
       </c>
       <c r="T7">
-        <v>15252664.3220092</v>
+        <v>1208898.3634355201</v>
       </c>
       <c r="U7">
-        <v>12459496.661312399</v>
+        <v>194833.26677176799</v>
       </c>
       <c r="V7">
-        <v>5266025.2561456496</v>
+        <v>1460382.0748151899</v>
       </c>
       <c r="W7">
-        <v>8950506.8104232606</v>
+        <v>446225.71349252202</v>
       </c>
       <c r="X7">
-        <v>7083346.9565423103</v>
+        <v>888564.41772578296</v>
       </c>
       <c r="Y7">
-        <v>12196092.297236299</v>
+        <v>1015059.139393</v>
       </c>
       <c r="Z7">
-        <v>14028742.793635201</v>
+        <v>1310948.5392364201</v>
       </c>
       <c r="AA7">
-        <v>14088148.7848628</v>
+        <v>887306.05227848305</v>
       </c>
       <c r="AB7">
-        <v>8971398.3496776596</v>
+        <v>880875.98425446101</v>
       </c>
       <c r="AC7">
-        <v>6201671.1242319699</v>
+        <v>1136559.5477605299</v>
       </c>
       <c r="AD7">
-        <v>5072132.9299082803</v>
+        <v>1162505.3828276501</v>
       </c>
       <c r="AE7">
-        <v>10428400.443523301</v>
+        <v>683533.68845164601</v>
       </c>
       <c r="AF7">
-        <v>16453374.9895269</v>
+        <v>1434305.17474042</v>
       </c>
       <c r="AG7">
-        <v>15353941.501780201</v>
+        <v>426023.508364807</v>
       </c>
       <c r="AH7">
-        <v>14495042.4939676</v>
+        <v>339289.07342201797</v>
       </c>
       <c r="AI7">
-        <v>16113538.571844701</v>
+        <v>1038674.16239012</v>
       </c>
       <c r="AJ7">
-        <v>8492584.9655629992</v>
+        <v>551777.35993593303</v>
       </c>
       <c r="AK7">
-        <v>3148600.9150755201</v>
+        <v>1163478.3169749801</v>
       </c>
       <c r="AL7">
-        <v>18920853.389211301</v>
+        <v>1740097.8448048299</v>
       </c>
       <c r="AM7">
-        <v>7613753.88347222</v>
+        <v>1632083.81786787</v>
       </c>
       <c r="AN7">
-        <v>13508328.540708</v>
+        <v>487830.99170436402</v>
       </c>
       <c r="AO7">
-        <v>10573347.6070533</v>
+        <v>1639071.1931393</v>
       </c>
       <c r="AP7">
-        <v>1980822.42839755</v>
+        <v>2102880.7348523899</v>
       </c>
       <c r="AQ7">
-        <v>10832099.9670121</v>
+        <v>1629612.0141637099</v>
       </c>
       <c r="AR7">
-        <v>8490547.5753135793</v>
+        <v>295961.26584082103</v>
       </c>
       <c r="AS7">
-        <v>5681110.5598772299</v>
+        <v>903650.24009039905</v>
       </c>
       <c r="AT7">
-        <v>13787580.8442153</v>
+        <v>1397881.69383538</v>
       </c>
       <c r="AU7">
-        <v>3755802.3209867501</v>
+        <v>840271.26996230194</v>
       </c>
       <c r="AV7">
-        <v>6198222.5634201998</v>
+        <v>388121.91555242502</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9038360.1046365295</v>
+        <v>1546509.2471770099</v>
       </c>
       <c r="B8">
-        <v>13346212.7940538</v>
+        <v>706565.43669642997</v>
       </c>
       <c r="C8">
-        <v>6976949.4365284797</v>
+        <v>923112.16517990397</v>
       </c>
       <c r="D8">
-        <v>5282865.3317531496</v>
+        <v>1333788.5820462501</v>
       </c>
       <c r="E8">
-        <v>17742229.839816701</v>
+        <v>1762964.7500064501</v>
       </c>
       <c r="F8">
-        <v>18088981.3276808</v>
+        <v>1397364.46238221</v>
       </c>
       <c r="G8">
-        <v>3274927.5743387099</v>
+        <v>948180.74755259301</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3122331.3758950699</v>
+        <v>1144821.6090272099</v>
       </c>
       <c r="J8">
-        <v>6284866.0745690204</v>
+        <v>743299.72712242103</v>
       </c>
       <c r="K8">
-        <v>5112926.6343767596</v>
+        <v>777835.91631107999</v>
       </c>
       <c r="L8">
-        <v>10708644.994839899</v>
+        <v>703909.36840950197</v>
       </c>
       <c r="M8">
-        <v>12116111.8569743</v>
+        <v>1524703.6402519799</v>
       </c>
       <c r="N8">
-        <v>7158756.9764323104</v>
+        <v>755371.81148983701</v>
       </c>
       <c r="O8">
-        <v>13373469.180997699</v>
+        <v>1036043.92478505</v>
       </c>
       <c r="P8">
-        <v>4458610.8153840201</v>
+        <v>906959.28496764204</v>
       </c>
       <c r="Q8">
-        <v>14572737.230761699</v>
+        <v>1888287.4880569</v>
       </c>
       <c r="R8">
-        <v>7427513.7154308902</v>
+        <v>953611.09251813695</v>
       </c>
       <c r="S8">
-        <v>16026174.607927199</v>
+        <v>905405.10148687696</v>
       </c>
       <c r="T8">
-        <v>18486386.550017599</v>
+        <v>1732441.75655036</v>
       </c>
       <c r="U8">
-        <v>11838929.098669</v>
+        <v>756573.11530061497</v>
       </c>
       <c r="V8">
-        <v>2257871.39019365</v>
+        <v>1682212.6381021501</v>
       </c>
       <c r="W8">
-        <v>8587184.4699175395</v>
+        <v>553650.335772019</v>
       </c>
       <c r="X8">
-        <v>3829083.5575500499</v>
+        <v>1139073.5440760599</v>
       </c>
       <c r="Y8">
-        <v>9872787.5931386407</v>
+        <v>1246237.9999851999</v>
       </c>
       <c r="Z8">
-        <v>15262078.542316699</v>
+        <v>972268.75903908</v>
       </c>
       <c r="AA8">
-        <v>11230113.822280999</v>
+        <v>1640700.44323783</v>
       </c>
       <c r="AB8">
-        <v>6410285.17108138</v>
+        <v>1602938.98237643</v>
       </c>
       <c r="AC8">
-        <v>3377727.6202672902</v>
+        <v>744166.73725608899</v>
       </c>
       <c r="AD8">
-        <v>2420143.0105325701</v>
+        <v>738364.53397982195</v>
       </c>
       <c r="AE8">
-        <v>10138249.021014299</v>
+        <v>745487.85965187696</v>
       </c>
       <c r="AF8">
-        <v>17048129.820769899</v>
+        <v>1077000.5584795601</v>
       </c>
       <c r="AG8">
-        <v>17550294.624665901</v>
+        <v>1030417.70748243</v>
       </c>
       <c r="AH8">
-        <v>11853910.3556618</v>
+        <v>644369.065484536</v>
       </c>
       <c r="AI8">
-        <v>12876395.190866601</v>
+        <v>267434.04310317303</v>
       </c>
       <c r="AJ8">
-        <v>11137923.7024188</v>
+        <v>1029501.93390932</v>
       </c>
       <c r="AK8">
-        <v>5023488.2841017097</v>
+        <v>884166.02484180895</v>
       </c>
       <c r="AL8">
-        <v>15759042.8962713</v>
+        <v>1878647.3697563801</v>
       </c>
       <c r="AM8">
-        <v>4679340.9724203302</v>
+        <v>1738910.4777897401</v>
       </c>
       <c r="AN8">
-        <v>15361182.9784941</v>
+        <v>868769.87239185302</v>
       </c>
       <c r="AO8">
-        <v>9428929.3665598594</v>
+        <v>1619129.0859894201</v>
       </c>
       <c r="AP8">
-        <v>4492991.1617840501</v>
+        <v>2196398.5209908099</v>
       </c>
       <c r="AQ8">
-        <v>7562806.4587446405</v>
+        <v>1758067.41642465</v>
       </c>
       <c r="AR8">
-        <v>5977454.4781273603</v>
+        <v>658153.10204184195</v>
       </c>
       <c r="AS8">
-        <v>6648787.3605955299</v>
+        <v>1335069.21459139</v>
       </c>
       <c r="AT8">
-        <v>12049676.319416201</v>
+        <v>1718233.2388128201</v>
       </c>
       <c r="AU8">
-        <v>5092776.8594402401</v>
+        <v>1478468.19622215</v>
       </c>
       <c r="AV8">
-        <v>7611179.57875532</v>
+        <v>770486.14974067803</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11332623.328276601</v>
+        <v>454570.44558701199</v>
       </c>
       <c r="B9">
-        <v>15065773.089479299</v>
+        <v>1000945.560793</v>
       </c>
       <c r="C9">
-        <v>9731196.2971559707</v>
+        <v>283152.37130474101</v>
       </c>
       <c r="D9">
-        <v>8035688.5898085404</v>
+        <v>326226.247980165</v>
       </c>
       <c r="E9">
-        <v>17149706.008710001</v>
+        <v>833853.00861825701</v>
       </c>
       <c r="F9">
-        <v>16572365.283526801</v>
+        <v>300167.292533795</v>
       </c>
       <c r="G9">
-        <v>3836212.9689188502</v>
+        <v>963321.15983434196</v>
       </c>
       <c r="H9">
-        <v>3122331.3758950699</v>
+        <v>1144821.6090272099</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9261028.0724766608</v>
+        <v>803970.10717480804</v>
       </c>
       <c r="K9">
-        <v>6599086.0024552401</v>
+        <v>378846.28878453001</v>
       </c>
       <c r="L9">
-        <v>9366240.8982802406</v>
+        <v>612967.47219854</v>
       </c>
       <c r="M9">
-        <v>9137917.9344338998</v>
+        <v>379942.79740037699</v>
       </c>
       <c r="N9">
-        <v>10272507.746443899</v>
+        <v>844778.02449157403</v>
       </c>
       <c r="O9">
-        <v>15395170.5161335</v>
+        <v>1000469.40214876</v>
       </c>
       <c r="P9">
-        <v>6579901.9820688097</v>
+        <v>238972.54525921299</v>
       </c>
       <c r="Q9">
-        <v>11467634.968472499</v>
+        <v>944673.567658126</v>
       </c>
       <c r="R9">
-        <v>5653182.3813128304</v>
+        <v>1041732.0831681</v>
       </c>
       <c r="S9">
-        <v>18457507.322614599</v>
+        <v>335282.15910735697</v>
       </c>
       <c r="T9">
-        <v>15927020.375366401</v>
+        <v>652965.48996598704</v>
       </c>
       <c r="U9">
-        <v>14959082.319181399</v>
+        <v>959483.68925946194</v>
       </c>
       <c r="V9">
-        <v>5034527.0854895897</v>
+        <v>558153.88284653099</v>
       </c>
       <c r="W9">
-        <v>11657038.243764101</v>
+        <v>780696.44755832804</v>
       </c>
       <c r="X9">
-        <v>5690983.2741404204</v>
+        <v>88865.800775756506</v>
       </c>
       <c r="Y9">
-        <v>8382571.10917293</v>
+        <v>102719.22550206901</v>
       </c>
       <c r="Z9">
-        <v>17856888.179146498</v>
+        <v>609070.09342909302</v>
       </c>
       <c r="AA9">
-        <v>10434794.6996284</v>
+        <v>827244.87718525401</v>
       </c>
       <c r="AB9">
-        <v>5374135.08977977</v>
+        <v>762676.73171860003</v>
       </c>
       <c r="AC9">
-        <v>6164991.5442458903</v>
+        <v>617458.97947991104</v>
       </c>
       <c r="AD9">
-        <v>5427515.5103482697</v>
+        <v>652503.21256828494</v>
       </c>
       <c r="AE9">
-        <v>7209161.3660688903</v>
+        <v>420559.62986207497</v>
       </c>
       <c r="AF9">
-        <v>14187535.456280001</v>
+        <v>689544.62709904602</v>
       </c>
       <c r="AG9">
-        <v>14434835.328980399</v>
+        <v>562564.47102106095</v>
       </c>
       <c r="AH9">
-        <v>10715771.7298423</v>
+        <v>1049724.0609446899</v>
       </c>
       <c r="AI9">
-        <v>13612116.6869477</v>
+        <v>987349.46519639599</v>
       </c>
       <c r="AJ9">
-        <v>8715027.3637671992</v>
+        <v>425263.19002441398</v>
       </c>
       <c r="AK9">
-        <v>6857390.0357883004</v>
+        <v>504900.57857242197</v>
       </c>
       <c r="AL9">
-        <v>15159473.349698801</v>
+        <v>806516.42116938101</v>
       </c>
       <c r="AM9">
-        <v>4577880.3506255802</v>
+        <v>683728.90262761398</v>
       </c>
       <c r="AN9">
-        <v>12263031.391211599</v>
+        <v>485197.65724390798</v>
       </c>
       <c r="AO9">
-        <v>12533060.778073801</v>
+        <v>676544.44257444504</v>
       </c>
       <c r="AP9">
-        <v>5797645.6686595296</v>
+        <v>1163412.4912016301</v>
       </c>
       <c r="AQ9">
-        <v>8387705.52829237</v>
+        <v>688242.03147762106</v>
       </c>
       <c r="AR9">
-        <v>8754795.0648991093</v>
+        <v>875846.54194187105</v>
       </c>
       <c r="AS9">
-        <v>9147062.2707223091</v>
+        <v>307148.00294713501</v>
       </c>
       <c r="AT9">
-        <v>14833596.5232217</v>
+        <v>573648.20021016395</v>
       </c>
       <c r="AU9">
-        <v>7287246.0386749199</v>
+        <v>593479.37030974706</v>
       </c>
       <c r="AV9">
-        <v>4698703.8905510502</v>
+        <v>620617.92935454298</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3649116.98221394</v>
+        <v>1031202.15771445</v>
       </c>
       <c r="B10">
-        <v>10024008.9120083</v>
+        <v>1147281.5917452299</v>
       </c>
       <c r="C10">
-        <v>4807798.4382212302</v>
+        <v>523663.75309358898</v>
       </c>
       <c r="D10">
-        <v>1532823.7554138701</v>
+        <v>1115336.7519251399</v>
       </c>
       <c r="E10">
-        <v>13187973.241395799</v>
+        <v>1105360.5553858101</v>
       </c>
       <c r="F10">
-        <v>12744804.8852759</v>
+        <v>919265.90977792302</v>
       </c>
       <c r="G10">
-        <v>6517110.3103236696</v>
+        <v>1287064.9211957201</v>
       </c>
       <c r="H10">
-        <v>6284866.0745690204</v>
+        <v>743299.72712242103</v>
       </c>
       <c r="I10">
-        <v>9261028.0724766608</v>
+        <v>803970.10717480804</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4627227.2462060703</v>
+        <v>504854.820724466</v>
       </c>
       <c r="L10">
-        <v>10882214.873865699</v>
+        <v>850356.02356824104</v>
       </c>
       <c r="M10">
-        <v>18395163.947478101</v>
+        <v>1116816.0590842401</v>
       </c>
       <c r="N10">
-        <v>1695928.3468210499</v>
+        <v>43315.2946766651</v>
       </c>
       <c r="O10">
-        <v>7456327.3728766404</v>
+        <v>330505.620910978</v>
       </c>
       <c r="P10">
-        <v>6366041.8150708703</v>
+        <v>658183.41139011201</v>
       </c>
       <c r="Q10">
-        <v>17510984.4356235</v>
+        <v>1226007.7289040301</v>
       </c>
       <c r="R10">
-        <v>10401764.5844696</v>
+        <v>1336675.5678900899</v>
       </c>
       <c r="S10">
-        <v>10531642.352884101</v>
+        <v>807650.86550652399</v>
       </c>
       <c r="T10">
-        <v>13865544.803128401</v>
+        <v>1453181.47295771</v>
       </c>
       <c r="U10">
-        <v>6004168.6023135101</v>
+        <v>1155637.22352077</v>
       </c>
       <c r="V10">
-        <v>5410722.1235490199</v>
+        <v>1188607.7179107899</v>
       </c>
       <c r="W10">
-        <v>2474435.3984462498</v>
+        <v>861609.17541600903</v>
       </c>
       <c r="X10">
-        <v>6841836.1189849405</v>
+        <v>857428.33099892398</v>
       </c>
       <c r="Y10">
-        <v>14276567.046089901</v>
+        <v>893673.64182132401</v>
       </c>
       <c r="Z10">
-        <v>8981552.7361566294</v>
+        <v>291528.31661859102</v>
       </c>
       <c r="AA10">
-        <v>13655384.8605105</v>
+        <v>1583244.1601674701</v>
       </c>
       <c r="AB10">
-        <v>11507969.735301699</v>
+        <v>1524510.8840749699</v>
       </c>
       <c r="AC10">
-        <v>4909126.9855877496</v>
+        <v>192628.88648685001</v>
       </c>
       <c r="AD10">
-        <v>4695618.1476447396</v>
+        <v>156692.45652276301</v>
       </c>
       <c r="AE10">
-        <v>16423113.9579877</v>
+        <v>659829.53886442597</v>
       </c>
       <c r="AF10">
-        <v>16553958.135472</v>
+        <v>357987.73842917097</v>
       </c>
       <c r="AG10">
-        <v>15846905.689540399</v>
+        <v>1089954.71168742</v>
       </c>
       <c r="AH10">
-        <v>14494575.747909101</v>
+        <v>1134925.2875733899</v>
       </c>
       <c r="AI10">
-        <v>11424937.8401714</v>
+        <v>476810.33119708201</v>
       </c>
       <c r="AJ10">
-        <v>13471340.591017799</v>
+        <v>997050.94066623203</v>
       </c>
       <c r="AK10">
-        <v>3956970.0176886399</v>
+        <v>308987.998736971</v>
       </c>
       <c r="AL10">
-        <v>13737375.3150078</v>
+        <v>1300303.86313244</v>
       </c>
       <c r="AM10">
-        <v>9576725.6592962798</v>
+        <v>1161026.77937867</v>
       </c>
       <c r="AN10">
-        <v>17139255.217730999</v>
+        <v>902060.76207653095</v>
       </c>
       <c r="AO10">
-        <v>4114963.2755076699</v>
+        <v>985989.61297417898</v>
       </c>
       <c r="AP10">
-        <v>5108504.3063014103</v>
+        <v>1563383.57200107</v>
       </c>
       <c r="AQ10">
-        <v>9478742.7280161493</v>
+        <v>1190419.7266714899</v>
       </c>
       <c r="AR10">
-        <v>4553416.2930384502</v>
+        <v>1027621.4005749699</v>
       </c>
       <c r="AS10">
-        <v>2002284.9268448499</v>
+        <v>1101280.52501522</v>
       </c>
       <c r="AT10">
-        <v>7367656.9084648304</v>
+        <v>1286672.8292940201</v>
       </c>
       <c r="AU10">
-        <v>3134199.9846398602</v>
+        <v>1360137.99451526</v>
       </c>
       <c r="AV10">
-        <v>12702729.613393201</v>
+        <v>922181.71887404204</v>
       </c>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4834276.8341481602</v>
+        <v>771567.46598534705</v>
       </c>
       <c r="B11">
-        <v>14618905.147585699</v>
+        <v>808715.02210629499</v>
       </c>
       <c r="C11">
-        <v>8867897.9381414596</v>
+        <v>157559.772526671</v>
       </c>
       <c r="D11">
-        <v>3158088.3957717498</v>
+        <v>641589.71310300601</v>
       </c>
       <c r="E11">
-        <v>16223650.3695712</v>
+        <v>1044686.14965999</v>
       </c>
       <c r="F11">
-        <v>13005434.402745999</v>
+        <v>620265.91519780003</v>
       </c>
       <c r="G11">
-        <v>2786974.6212702198</v>
+        <v>870531.18128211703</v>
       </c>
       <c r="H11">
-        <v>5112926.6343767596</v>
+        <v>777835.91631107999</v>
       </c>
       <c r="I11">
-        <v>6599086.0024552401</v>
+        <v>378846.28878453001</v>
       </c>
       <c r="J11">
-        <v>4627227.2462060703</v>
+        <v>504854.820724466</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7040642.4725615103</v>
+        <v>429093.33029868</v>
       </c>
       <c r="M11">
-        <v>14311295.862896901</v>
+        <v>753909.63676888298</v>
       </c>
       <c r="N11">
-        <v>6320542.9688245999</v>
+        <v>548164.48542639101</v>
       </c>
       <c r="O11">
-        <v>8825592.0346388109</v>
+        <v>783821.45289609302</v>
       </c>
       <c r="P11">
-        <v>8496306.5711965598</v>
+        <v>165010.564370704</v>
       </c>
       <c r="Q11">
-        <v>13772201.5792688</v>
+        <v>1168270.7330215401</v>
       </c>
       <c r="R11">
-        <v>5774597.55857829</v>
+        <v>935589.17527484498</v>
       </c>
       <c r="S11">
-        <v>14063078.1858608</v>
+        <v>304647.82985652803</v>
       </c>
       <c r="T11">
-        <v>13789027.8091098</v>
+        <v>1016716.7507758701</v>
       </c>
       <c r="U11">
-        <v>10057976.1090363</v>
+        <v>790846.83029444597</v>
       </c>
       <c r="V11">
-        <v>6264011.6518885596</v>
+        <v>904441.60605085699</v>
       </c>
       <c r="W11">
-        <v>6760732.1864392301</v>
+        <v>531763.32093714201</v>
       </c>
       <c r="X11">
-        <v>8320321.3607321596</v>
+        <v>397922.21682016097</v>
       </c>
       <c r="Y11">
-        <v>14846283.878945701</v>
+        <v>481501.27305816603</v>
       </c>
       <c r="Z11">
-        <v>11258313.911230899</v>
+        <v>443108.15262941498</v>
       </c>
       <c r="AA11">
-        <v>16310116.7158143</v>
+        <v>1083638.63815776</v>
       </c>
       <c r="AB11">
-        <v>11447215.660832301</v>
+        <v>1026985.16756235</v>
       </c>
       <c r="AC11">
-        <v>6750865.5301805399</v>
+        <v>315550.21844143799</v>
       </c>
       <c r="AD11">
-        <v>5732400.6701186197</v>
+        <v>350214.56961820298</v>
       </c>
       <c r="AE11">
-        <v>12983726.789068799</v>
+        <v>187342.33101366501</v>
       </c>
       <c r="AF11">
-        <v>16703941.278993299</v>
+        <v>564694.70860560902</v>
       </c>
       <c r="AG11">
-        <v>14945903.7562185</v>
+        <v>596603.248049377</v>
       </c>
       <c r="AH11">
-        <v>16966533.3472852</v>
+        <v>830646.72312046005</v>
       </c>
       <c r="AI11">
-        <v>15984673.8418412</v>
+        <v>608503.95314668596</v>
       </c>
       <c r="AJ11">
-        <v>9109448.0652004108</v>
+        <v>494038.02934682003</v>
       </c>
       <c r="AK11">
-        <v>675512.61449054501</v>
+        <v>295437.10819863097</v>
       </c>
       <c r="AL11">
-        <v>18034479.478781901</v>
+        <v>1111926.7763922999</v>
       </c>
       <c r="AM11">
-        <v>9792220.9170021396</v>
+        <v>975048.11006583495</v>
       </c>
       <c r="AN11">
-        <v>14050868.9042159</v>
+        <v>419250.14650635899</v>
       </c>
       <c r="AO11">
-        <v>8670046.8492399603</v>
+        <v>889281.52829022997</v>
       </c>
       <c r="AP11">
-        <v>806163.37347634195</v>
+        <v>1446482.8016658199</v>
       </c>
       <c r="AQ11">
-        <v>12133939.132628901</v>
+        <v>990500.46650175995</v>
       </c>
       <c r="AR11">
-        <v>8194890.8084856402</v>
+        <v>675541.16155520803</v>
       </c>
       <c r="AS11">
-        <v>3176147.7766798702</v>
+        <v>632831.81572082895</v>
       </c>
       <c r="AT11">
-        <v>11872964.5296894</v>
+        <v>945849.82471744705</v>
       </c>
       <c r="AU11">
-        <v>1496880.2047967999</v>
+        <v>866491.97526941902</v>
       </c>
       <c r="AV11">
-        <v>8333497.2626861297</v>
+        <v>482565.27447113598</v>
       </c>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8141514.25327852</v>
+        <v>1067516.2006739201</v>
       </c>
       <c r="B12">
-        <v>15568149.747853</v>
+        <v>396032.35701082001</v>
       </c>
       <c r="C12">
-        <v>15679246.4582312</v>
+        <v>560290.62670822896</v>
       </c>
       <c r="D12">
-        <v>9830271.3789640907</v>
+        <v>679013.45734743599</v>
       </c>
       <c r="E12">
-        <v>11552798.9299953</v>
+        <v>1419515.92755605</v>
       </c>
       <c r="F12">
-        <v>7677258.9724437799</v>
+        <v>912514.69278374396</v>
       </c>
       <c r="G12">
-        <v>7495533.0019180402</v>
+        <v>446267.23553726502</v>
       </c>
       <c r="H12">
-        <v>10708644.994839899</v>
+        <v>703909.36840950197</v>
       </c>
       <c r="I12">
-        <v>9366240.8982802406</v>
+        <v>612967.47219854</v>
       </c>
       <c r="J12">
-        <v>10882214.873865699</v>
+        <v>850356.02356824104</v>
       </c>
       <c r="K12">
-        <v>7040642.4725615103</v>
+        <v>429093.33029868</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9070714.8857878707</v>
+        <v>959071.54905682895</v>
       </c>
       <c r="N12">
-        <v>12346149.844637901</v>
+        <v>890275.54094523005</v>
       </c>
       <c r="O12">
-        <v>8044388.7653107401</v>
+        <v>1167852.1719514099</v>
       </c>
       <c r="P12">
-        <v>15117175.502837701</v>
+        <v>414775.56339333003</v>
       </c>
       <c r="Q12">
-        <v>6894618.2049086997</v>
+        <v>1537766.4413380099</v>
       </c>
       <c r="R12">
-        <v>3716004.4090672098</v>
+        <v>507642.114183228</v>
       </c>
       <c r="S12">
-        <v>12180643.580769701</v>
+        <v>282000.19044338702</v>
       </c>
       <c r="T12">
-        <v>7783460.2466297904</v>
+        <v>1072130.3411469001</v>
       </c>
       <c r="U12">
-        <v>12609876.557617299</v>
+        <v>367158.12880285003</v>
       </c>
       <c r="V12">
-        <v>12749954.4107747</v>
+        <v>1163592.3572508499</v>
       </c>
       <c r="W12">
-        <v>11697362.947548499</v>
+        <v>184902.17977512901</v>
       </c>
       <c r="X12">
-        <v>14532546.924628399</v>
+        <v>562690.32854587701</v>
       </c>
       <c r="Y12">
-        <v>13913013.930831401</v>
+        <v>693166.89064113796</v>
       </c>
       <c r="Z12">
-        <v>9670453.3142140899</v>
+        <v>865787.43452136999</v>
       </c>
       <c r="AA12">
-        <v>15417187.36069</v>
+        <v>936867.08740968804</v>
       </c>
       <c r="AB12">
-        <v>13738662.1485822</v>
+        <v>899361.56688690395</v>
       </c>
       <c r="AC12">
-        <v>13578364.9485787</v>
+        <v>691996.66453493002</v>
       </c>
       <c r="AD12">
-        <v>12455817.465644</v>
+        <v>719159.93438051397</v>
       </c>
       <c r="AE12">
-        <v>9396140.8023251593</v>
+        <v>246018.62724889899</v>
       </c>
       <c r="AF12">
-        <v>9743313.9451316297</v>
+        <v>989810.019522983</v>
       </c>
       <c r="AG12">
-        <v>8113377.68838879</v>
+        <v>327833.02367654297</v>
       </c>
       <c r="AH12">
-        <v>14612931.410955099</v>
+        <v>437576.17240469501</v>
       </c>
       <c r="AI12">
-        <v>16395560.708443901</v>
+        <v>689163.28293139394</v>
       </c>
       <c r="AJ12">
-        <v>2834798.19240337</v>
+        <v>336322.866881961</v>
       </c>
       <c r="AK12">
-        <v>7626828.0897760596</v>
+        <v>718732.343943313</v>
       </c>
       <c r="AL12">
-        <v>13293897.4002616</v>
+        <v>1419479.6493214101</v>
       </c>
       <c r="AM12">
-        <v>13858587.948796701</v>
+        <v>1295398.7915139401</v>
       </c>
       <c r="AN12">
-        <v>7037281.5828900896</v>
+        <v>175197.15498274501</v>
       </c>
       <c r="AO12">
-        <v>13482912.4679772</v>
+        <v>1260399.4436435001</v>
       </c>
       <c r="AP12">
-        <v>7117689.5820592297</v>
+        <v>1775585.0255706699</v>
       </c>
       <c r="AQ12">
-        <v>17672371.760973699</v>
+        <v>1301039.54023227</v>
       </c>
       <c r="AR12">
-        <v>15191248.072058501</v>
+        <v>265660.27042667801</v>
       </c>
       <c r="AS12">
-        <v>8881623.9272918794</v>
+        <v>687759.84420075105</v>
       </c>
       <c r="AT12">
-        <v>14695251.210670499</v>
+        <v>1146042.4413051601</v>
       </c>
       <c r="AU12">
-        <v>8307445.97090887</v>
+        <v>780966.385940162</v>
       </c>
       <c r="AV12">
-        <v>5976531.0825358396</v>
+        <v>77792.525840058399</v>
       </c>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>17098721.2883026</v>
+        <v>238130.45954346401</v>
       </c>
       <c r="B13">
-        <v>11047917.4642125</v>
+        <v>1325049.06033831</v>
       </c>
       <c r="C13">
-        <v>14973122.679513</v>
+        <v>632987.06264767202</v>
       </c>
       <c r="D13">
-        <v>17056281.071248401</v>
+        <v>367089.69289760099</v>
       </c>
       <c r="E13">
-        <v>8351958.9852170302</v>
+        <v>679077.42084381101</v>
       </c>
       <c r="F13">
-        <v>8755778.4200112801</v>
+        <v>219955.522809516</v>
       </c>
       <c r="G13">
-        <v>12066154.6635636</v>
+        <v>1235334.7527926399</v>
       </c>
       <c r="H13">
-        <v>12116111.8569743</v>
+        <v>1524703.6402519799</v>
       </c>
       <c r="I13">
-        <v>9137917.9344338998</v>
+        <v>379942.79740037699</v>
       </c>
       <c r="J13">
-        <v>18395163.947478101</v>
+        <v>1116816.0590842401</v>
       </c>
       <c r="K13">
-        <v>14311295.862896901</v>
+        <v>753909.63676888298</v>
       </c>
       <c r="L13">
-        <v>9070714.8857878707</v>
+        <v>959071.54905682895</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18419861.601403601</v>
+        <v>1153297.52252332</v>
       </c>
       <c r="O13">
-        <v>13972049.4497428</v>
+        <v>1240767.60593627</v>
       </c>
       <c r="P13">
-        <v>12610342.424373999</v>
+        <v>618602.46490389598</v>
       </c>
       <c r="Q13">
-        <v>3428085.2502327999</v>
+        <v>755409.47306580795</v>
       </c>
       <c r="R13">
-        <v>8667916.6025127303</v>
+        <v>1316213.2514108999</v>
       </c>
       <c r="S13">
-        <v>11001418.275519799</v>
+        <v>678225.06159644504</v>
       </c>
       <c r="T13">
-        <v>7645917.1554749999</v>
+        <v>395022.72172327701</v>
       </c>
       <c r="U13">
-        <v>15478995.979614301</v>
+        <v>1274121.32934816</v>
       </c>
       <c r="V13">
-        <v>13152383.809807699</v>
+        <v>228398.491640933</v>
       </c>
       <c r="W13">
-        <v>18932486.116458301</v>
+        <v>1137536.60476772</v>
       </c>
       <c r="X13">
-        <v>11983126.1702173</v>
+        <v>400720.077456092</v>
       </c>
       <c r="Y13">
-        <v>5101052.4772358797</v>
+        <v>279664.60373780498</v>
       </c>
       <c r="Z13">
-        <v>12615057.314188</v>
+        <v>866157.49990316597</v>
       </c>
       <c r="AA13">
-        <v>6377710.6337093199</v>
+        <v>778863.56689552602</v>
       </c>
       <c r="AB13">
-        <v>7296204.8852139497</v>
+        <v>714129.342156681</v>
       </c>
       <c r="AC13">
-        <v>13820988.068927901</v>
+        <v>947016.78764645196</v>
       </c>
       <c r="AD13">
-        <v>13840901.729033399</v>
+        <v>978996.10372480995</v>
       </c>
       <c r="AE13">
-        <v>1983313.9853910001</v>
+        <v>794983.39454823104</v>
       </c>
       <c r="AF13">
-        <v>5049720.5150651997</v>
+        <v>903187.21670712798</v>
       </c>
       <c r="AG13">
-        <v>5685034.2643815</v>
+        <v>809398.77382389596</v>
       </c>
       <c r="AH13">
-        <v>5646418.5060577104</v>
+        <v>1384404.5092889599</v>
       </c>
       <c r="AI13">
-        <v>9359446.7594032809</v>
+        <v>1360324.82194817</v>
       </c>
       <c r="AJ13">
-        <v>6267195.2120081</v>
+        <v>688254.17029489798</v>
       </c>
       <c r="AK13">
-        <v>14934240.3323987</v>
+        <v>808001.26061054994</v>
       </c>
       <c r="AL13">
-        <v>7525286.6844581198</v>
+        <v>516698.66823373298</v>
       </c>
       <c r="AM13">
-        <v>9147809.2905979604</v>
+        <v>437301.40081111499</v>
       </c>
       <c r="AN13">
-        <v>4045892.6219923701</v>
+        <v>804435.38109236397</v>
       </c>
       <c r="AO13">
-        <v>16949441.4005646</v>
+        <v>555535.011685248</v>
       </c>
       <c r="AP13">
-        <v>13690851.5763673</v>
+        <v>876574.72643536504</v>
       </c>
       <c r="AQ13">
-        <v>10015528.2117971</v>
+        <v>421687.19278374</v>
       </c>
       <c r="AR13">
-        <v>14877041.7179945</v>
+        <v>1209888.3780764299</v>
       </c>
       <c r="AS13">
-        <v>17442263.665530901</v>
+        <v>342323.99383405002</v>
       </c>
       <c r="AT13">
-        <v>13818554.477031199</v>
+        <v>193823.243783212</v>
       </c>
       <c r="AU13">
-        <v>15711183.5427333</v>
+        <v>574592.07589552295</v>
       </c>
       <c r="AV13">
-        <v>5995191.2720060796</v>
+        <v>949022.16056999797</v>
       </c>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4470649.1610368602</v>
+        <v>1062189.1699298201</v>
       </c>
       <c r="B14">
-        <v>8352962.9307382097</v>
+        <v>1181392.2912814701</v>
       </c>
       <c r="C14">
-        <v>3479408.5765897199</v>
+        <v>565317.73496421403</v>
       </c>
       <c r="D14">
-        <v>3189989.4380089301</v>
+        <v>1157379.5285076499</v>
       </c>
       <c r="E14">
-        <v>11844848.652545501</v>
+        <v>1121630.2247361899</v>
       </c>
       <c r="F14">
-        <v>12354448.853313901</v>
+        <v>953449.83811173204</v>
       </c>
       <c r="G14">
-        <v>8038443.8080180502</v>
+        <v>1325307.4329836799</v>
       </c>
       <c r="H14">
-        <v>7158756.9764323104</v>
+        <v>755371.81148983701</v>
       </c>
       <c r="I14">
-        <v>10272507.746443899</v>
+        <v>844778.02449157403</v>
       </c>
       <c r="J14">
-        <v>1695928.3468210499</v>
+        <v>43315.2946766651</v>
       </c>
       <c r="K14">
-        <v>6320542.9688245999</v>
+        <v>548164.48542639101</v>
       </c>
       <c r="L14">
-        <v>12346149.844637901</v>
+        <v>890275.54094523005</v>
       </c>
       <c r="M14">
-        <v>18419861.601403601</v>
+        <v>1153297.52252332</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7361257.8368951399</v>
+        <v>299916.39430139097</v>
       </c>
       <c r="P14">
-        <v>5890604.6077157697</v>
+        <v>701337.12875481194</v>
       </c>
       <c r="Q14">
-        <v>17972391.4415945</v>
+        <v>1241017.1449762899</v>
       </c>
       <c r="R14">
-        <v>12093674.9060423</v>
+        <v>1373883.0885244899</v>
       </c>
       <c r="S14">
-        <v>9229798.0341565106</v>
+        <v>850867.11640899105</v>
       </c>
       <c r="T14">
-        <v>13411047.3297583</v>
+        <v>1492906.79073301</v>
       </c>
       <c r="U14">
-        <v>4731817.63592856</v>
+        <v>1191268.49073061</v>
       </c>
       <c r="V14">
-        <v>5700864.4428859297</v>
+        <v>1220097.6783421801</v>
       </c>
       <c r="W14">
-        <v>1565303.9104240499</v>
+        <v>897092.15825242305</v>
       </c>
       <c r="X14">
-        <v>6585365.4413169799</v>
+        <v>899302.50521548605</v>
       </c>
       <c r="Y14">
-        <v>13333032.7463829</v>
+        <v>933557.40758026903</v>
       </c>
       <c r="Z14">
-        <v>8298595.9665432302</v>
+        <v>315491.633128824</v>
       </c>
       <c r="AA14">
-        <v>12241683.431784499</v>
+        <v>1626336.63397169</v>
       </c>
       <c r="AB14">
-        <v>11221235.103883401</v>
+        <v>1567505.9000184501</v>
       </c>
       <c r="AC14">
-        <v>4864471.2068702504</v>
+        <v>235646.120647376</v>
       </c>
       <c r="AD14">
-        <v>5081672.5107652498</v>
+        <v>199771.83083489799</v>
       </c>
       <c r="AE14">
-        <v>16853897.327909101</v>
+        <v>702336.53772086999</v>
       </c>
       <c r="AF14">
-        <v>15330869.598718701</v>
+        <v>368813.49650221202</v>
       </c>
       <c r="AG14">
-        <v>15246477.332523201</v>
+        <v>1132636.9910923899</v>
       </c>
       <c r="AH14">
-        <v>13034028.2248664</v>
+        <v>1166998.4498485399</v>
       </c>
       <c r="AI14">
-        <v>9733711.8455884606</v>
+        <v>487966.06084255001</v>
       </c>
       <c r="AJ14">
-        <v>15062416.0388333</v>
+        <v>1040243.16380823</v>
       </c>
       <c r="AK14">
-        <v>5648470.1802872801</v>
+        <v>346632.03641447797</v>
       </c>
       <c r="AL14">
-        <v>12103804.920816001</v>
+        <v>1324716.3107136199</v>
       </c>
       <c r="AM14">
-        <v>9443824.3196906894</v>
+        <v>1186181.96379958</v>
       </c>
       <c r="AN14">
-        <v>17234210.6718117</v>
+        <v>944412.20618959598</v>
       </c>
       <c r="AO14">
-        <v>2536870.5407230901</v>
+        <v>1006286.00125271</v>
       </c>
       <c r="AP14">
-        <v>6774289.9575581905</v>
+        <v>1581071.80459412</v>
       </c>
       <c r="AQ14">
-        <v>8415036.0593088605</v>
+        <v>1216337.6923051099</v>
       </c>
       <c r="AR14">
-        <v>3544898.8899106402</v>
+        <v>1063142.2712965</v>
       </c>
       <c r="AS14">
-        <v>3553480.8183240201</v>
+        <v>1143100.8359412299</v>
       </c>
       <c r="AT14">
-        <v>5764305.0802717302</v>
+        <v>1321206.1954773699</v>
       </c>
       <c r="AU14">
-        <v>4825188.1936111096</v>
+        <v>1402972.0381823201</v>
       </c>
       <c r="AV14">
-        <v>14225801.008071</v>
+        <v>962624.88196361798</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4337542.2545620296</v>
+        <v>1096054.6307653</v>
       </c>
       <c r="B15">
-        <v>8354239.0086255902</v>
+        <v>1477265.0711204901</v>
       </c>
       <c r="C15">
-        <v>9970752.0568524394</v>
+        <v>749688.59545846505</v>
       </c>
       <c r="D15">
-        <v>8139713.9565957403</v>
+        <v>1326253.97345303</v>
       </c>
       <c r="E15">
-        <v>7398276.6061221799</v>
+        <v>1031746.36458694</v>
       </c>
       <c r="F15">
-        <v>5302320.4406118598</v>
+        <v>1023715.22936051</v>
       </c>
       <c r="G15">
-        <v>11561510.018144401</v>
+        <v>1609822.9170605601</v>
       </c>
       <c r="H15">
-        <v>13373469.180997699</v>
+        <v>1036043.92478505</v>
       </c>
       <c r="I15">
-        <v>15395170.5161335</v>
+        <v>1000469.40214876</v>
       </c>
       <c r="J15">
-        <v>7456327.3728766404</v>
+        <v>330505.620910978</v>
       </c>
       <c r="K15">
-        <v>8825592.0346388109</v>
+        <v>783821.45289609302</v>
       </c>
       <c r="L15">
-        <v>8044388.7653107401</v>
+        <v>1167852.1719514099</v>
       </c>
       <c r="M15">
-        <v>13972049.4497428</v>
+        <v>1240767.60593627</v>
       </c>
       <c r="N15">
-        <v>7361257.8368951399</v>
+        <v>299916.39430139097</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13156673.9228324</v>
+        <v>914531.57144404994</v>
       </c>
       <c r="Q15">
-        <v>10620821.5950894</v>
+        <v>1137704.80793108</v>
       </c>
       <c r="R15">
-        <v>11217109.3730602</v>
+        <v>1662207.00874085</v>
       </c>
       <c r="S15">
-        <v>5639515.18352996</v>
+        <v>1086205.2367638999</v>
       </c>
       <c r="T15">
-        <v>6424113.9790750397</v>
+        <v>1614740.1663671799</v>
       </c>
       <c r="U15">
-        <v>4662574.7525891503</v>
+        <v>1484165.1883189599</v>
       </c>
       <c r="V15">
-        <v>12859770.079394801</v>
+        <v>1252918.82998269</v>
       </c>
       <c r="W15">
-        <v>5819880.3770117797</v>
+        <v>1190554.6927998699</v>
       </c>
       <c r="X15">
-        <v>13930179.5430474</v>
+        <v>1071525.5934826301</v>
       </c>
       <c r="Y15">
-        <v>16211870.1037497</v>
+        <v>1071927.1127255301</v>
       </c>
       <c r="Z15">
-        <v>2502924.1634735502</v>
+        <v>391536.52377328102</v>
       </c>
       <c r="AA15">
-        <v>14025443.577613899</v>
+        <v>1819780.41334919</v>
       </c>
       <c r="AB15">
-        <v>18153257.7229634</v>
+        <v>1757181.3910944599</v>
       </c>
       <c r="AC15">
-        <v>12197218.202044001</v>
+        <v>478034.979629045</v>
       </c>
       <c r="AD15">
-        <v>12150855.812960999</v>
+        <v>448971.69435373798</v>
       </c>
       <c r="AE15">
-        <v>15788298.0618515</v>
+        <v>958494.15163369803</v>
       </c>
       <c r="AF15">
-        <v>9552236.2983903997</v>
+        <v>338664.13221114001</v>
       </c>
       <c r="AG15">
-        <v>8406344.2683427297</v>
+        <v>1380416.7785469501</v>
       </c>
       <c r="AH15">
-        <v>13863340.8990374</v>
+        <v>1465416.85487623</v>
       </c>
       <c r="AI15">
-        <v>10336186.5144029</v>
+        <v>770711.89311705495</v>
       </c>
       <c r="AJ15">
-        <v>10256265.134120001</v>
+        <v>1273883.72504899</v>
       </c>
       <c r="AK15">
-        <v>8646045.8379121404</v>
+        <v>511045.58631312998</v>
       </c>
       <c r="AL15">
-        <v>9446204.2493037395</v>
+        <v>1291023.0965807301</v>
       </c>
       <c r="AM15">
-        <v>16779238.052556001</v>
+        <v>1163244.2052299001</v>
       </c>
       <c r="AN15">
-        <v>9940465.8453623094</v>
+        <v>1199735.33837296</v>
       </c>
       <c r="AO15">
-        <v>6422932.4847609904</v>
+        <v>952020.86900644505</v>
       </c>
       <c r="AP15">
-        <v>9617662.8975953609</v>
+        <v>1488524.19180111</v>
       </c>
       <c r="AQ15">
-        <v>14129423.767084001</v>
+        <v>1198782.80200224</v>
       </c>
       <c r="AR15">
-        <v>10560934.1934695</v>
+        <v>1356380.9475599199</v>
       </c>
       <c r="AS15">
-        <v>6725745.5707259905</v>
+        <v>1307617.34837712</v>
       </c>
       <c r="AT15">
-        <v>6654738.7170238104</v>
+        <v>1382107.8714918301</v>
       </c>
       <c r="AU15">
-        <v>8366927.69623248</v>
+        <v>1588582.91911129</v>
       </c>
       <c r="AV15">
-        <v>14013940.7901826</v>
+        <v>1236541.04596099</v>
       </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>10013416.002452699</v>
+        <v>675134.85930627806</v>
       </c>
       <c r="B16">
-        <v>8936161.1100459993</v>
+        <v>810802.73134194396</v>
       </c>
       <c r="C16">
-        <v>3412926.7680355501</v>
+        <v>178231.53115478001</v>
       </c>
       <c r="D16">
-        <v>6578548.6315097502</v>
+        <v>476714.79366209102</v>
       </c>
       <c r="E16">
-        <v>13291117.6882174</v>
+        <v>1005154.11562483</v>
       </c>
       <c r="F16">
-        <v>16836091.936333802</v>
+        <v>519015.14731360099</v>
       </c>
       <c r="G16">
-        <v>7622466.4048075601</v>
+        <v>822263.68818775006</v>
       </c>
       <c r="H16">
-        <v>4458610.8153840201</v>
+        <v>906959.28496764204</v>
       </c>
       <c r="I16">
-        <v>6579901.9820688097</v>
+        <v>238972.54525921299</v>
       </c>
       <c r="J16">
-        <v>6366041.8150708703</v>
+        <v>658183.41139011201</v>
       </c>
       <c r="K16">
-        <v>8496306.5711965598</v>
+        <v>165010.564370704</v>
       </c>
       <c r="L16">
-        <v>15117175.502837701</v>
+        <v>414775.56339333003</v>
       </c>
       <c r="M16">
-        <v>12610342.424373999</v>
+        <v>618602.46490389598</v>
       </c>
       <c r="N16">
-        <v>5890604.6077157697</v>
+        <v>701337.12875481194</v>
       </c>
       <c r="O16">
-        <v>13156673.9228324</v>
+        <v>914531.57144404994</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16024870.958543099</v>
+        <v>1124228.6483211999</v>
       </c>
       <c r="R16">
-        <v>11841941.667470699</v>
+        <v>894925.35757030104</v>
       </c>
       <c r="S16">
-        <v>12030531.1729245</v>
+        <v>188749.511806366</v>
       </c>
       <c r="T16">
-        <v>17057795.9413573</v>
+        <v>855790.02101465804</v>
       </c>
       <c r="U16">
-        <v>9168451.2426665593</v>
+        <v>779478.39636354102</v>
       </c>
       <c r="V16">
-        <v>2374833.20424387</v>
+        <v>792049.20457701804</v>
       </c>
       <c r="W16">
-        <v>7372774.76697056</v>
+        <v>563395.52306707902</v>
       </c>
       <c r="X16">
-        <v>927636.43094227603</v>
+        <v>238792.83405903401</v>
       </c>
       <c r="Y16">
-        <v>7952693.4554096796</v>
+        <v>339410.690416503</v>
       </c>
       <c r="Z16">
-        <v>13236777.7754215</v>
+        <v>544658.29455207195</v>
       </c>
       <c r="AA16">
-        <v>8060499.8282276504</v>
+        <v>925164.59183822596</v>
       </c>
       <c r="AB16">
-        <v>5330748.05395287</v>
+        <v>866997.97517594404</v>
       </c>
       <c r="AC16">
-        <v>1771499.9495588299</v>
+        <v>465779.70926286298</v>
       </c>
       <c r="AD16">
-        <v>2774528.9057800202</v>
+        <v>501575.93341305101</v>
       </c>
       <c r="AE16">
-        <v>11020140.043800799</v>
+        <v>189377.64614039799</v>
       </c>
       <c r="AF16">
-        <v>14790850.1421453</v>
+        <v>655013.76314854203</v>
       </c>
       <c r="AG16">
-        <v>16562644.1860089</v>
+        <v>485517.76122942002</v>
       </c>
       <c r="AH16">
-        <v>8899587.4103717301</v>
+        <v>848672.90332998196</v>
       </c>
       <c r="AI16">
-        <v>8492241.3783790693</v>
+        <v>761447.75946485996</v>
       </c>
       <c r="AJ16">
-        <v>15294639.2931062</v>
+        <v>364441.91000374203</v>
       </c>
       <c r="AK16">
-        <v>8057269.8356290096</v>
+        <v>405588.17666260101</v>
       </c>
       <c r="AL16">
-        <v>11569769.6763604</v>
+        <v>1025414.3768280901</v>
       </c>
       <c r="AM16">
-        <v>3625988.9696328598</v>
+        <v>894943.61513925204</v>
       </c>
       <c r="AN16">
-        <v>16497563.8676122</v>
+        <v>337921.05592473701</v>
       </c>
       <c r="AO16">
-        <v>6899820.3989293696</v>
+        <v>846149.22014626605</v>
       </c>
       <c r="AP16">
-        <v>8205247.3329354199</v>
+        <v>1374237.30725766</v>
       </c>
       <c r="AQ16">
-        <v>3652180.5427312502</v>
+        <v>904719.91344972304</v>
       </c>
       <c r="AR16">
-        <v>2633770.5592703898</v>
+        <v>679740.26126368204</v>
       </c>
       <c r="AS16">
-        <v>8022726.6009285999</v>
+        <v>468450.67788074398</v>
       </c>
       <c r="AT16">
-        <v>8290216.7442103401</v>
+        <v>812402.830927826</v>
       </c>
       <c r="AU16">
-        <v>7609013.3099883404</v>
+        <v>704408.79043633095</v>
       </c>
       <c r="AV16">
-        <v>11170445.5290471</v>
+        <v>444128.14599213598</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13923098.762898199</v>
+        <v>531022.12039213197</v>
       </c>
       <c r="B17">
-        <v>11027298.896264199</v>
+        <v>1933246.66003842</v>
       </c>
       <c r="C17">
-        <v>17361786.885166399</v>
+        <v>1011065.92772993</v>
       </c>
       <c r="D17">
-        <v>16724250.8307341</v>
+        <v>1107233.08770873</v>
       </c>
       <c r="E17">
-        <v>6880364.9411880895</v>
+        <v>125420.795227553</v>
       </c>
       <c r="F17">
-        <v>5658979.2004979001</v>
+        <v>657824.44447002502</v>
       </c>
       <c r="G17">
-        <v>12903930.5252888</v>
+        <v>1907684.9746819499</v>
       </c>
       <c r="H17">
-        <v>14572737.230761699</v>
+        <v>1888287.4880569</v>
       </c>
       <c r="I17">
-        <v>11467634.968472499</v>
+        <v>944673.567658126</v>
       </c>
       <c r="J17">
-        <v>17510984.4356235</v>
+        <v>1226007.7289040301</v>
       </c>
       <c r="K17">
-        <v>13772201.5792688</v>
+        <v>1168270.7330215401</v>
       </c>
       <c r="L17">
-        <v>6894618.2049086997</v>
+        <v>1537766.4413380099</v>
       </c>
       <c r="M17">
-        <v>3428085.2502327999</v>
+        <v>755409.47306580795</v>
       </c>
       <c r="N17">
-        <v>17972391.4415945</v>
+        <v>1241017.1449762899</v>
       </c>
       <c r="O17">
-        <v>10620821.5950894</v>
+        <v>1137704.80793108</v>
       </c>
       <c r="P17">
-        <v>16024870.958543099</v>
+        <v>1124228.6483211999</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>8354646.0766276103</v>
+        <v>1986341.67387349</v>
       </c>
       <c r="S17">
-        <v>9308091.7022523992</v>
+        <v>1274065.11514742</v>
       </c>
       <c r="T17">
-        <v>4642785.5746841403</v>
+        <v>1078635.93612085</v>
       </c>
       <c r="U17">
-        <v>13571803.001791701</v>
+        <v>1897407.4134498299</v>
       </c>
       <c r="V17">
-        <v>16285782.403779101</v>
+        <v>553362.15446020302</v>
       </c>
       <c r="W17">
-        <v>16408761.672583699</v>
+        <v>1684031.4934398199</v>
       </c>
       <c r="X17">
-        <v>15407049.960287999</v>
+        <v>1020075.9830692901</v>
       </c>
       <c r="Y17">
-        <v>8206783.5681519303</v>
+        <v>898163.31772698602</v>
       </c>
       <c r="Z17">
-        <v>9751385.6026168093</v>
+        <v>941178.01620603597</v>
       </c>
       <c r="AA17">
-        <v>8725709.2434107792</v>
+        <v>1526286.8166477999</v>
       </c>
       <c r="AB17">
-        <v>10724257.649039401</v>
+        <v>1463427.42671591</v>
       </c>
       <c r="AC17">
-        <v>17167923.827521302</v>
+        <v>1151959.48332509</v>
       </c>
       <c r="AD17">
-        <v>16847529.584082998</v>
+        <v>1165498.8305287999</v>
       </c>
       <c r="AE17">
-        <v>5174964.7427247604</v>
+        <v>1307989.9509134199</v>
       </c>
       <c r="AF17">
-        <v>3552131.8298065802</v>
+        <v>873150.45808309002</v>
       </c>
       <c r="AG17">
-        <v>2978823.0860815998</v>
+        <v>1497639.0048655099</v>
       </c>
       <c r="AH17">
-        <v>7864746.9464653796</v>
+        <v>1972894.49830209</v>
       </c>
       <c r="AI17">
-        <v>10202012.9703927</v>
+        <v>1650349.2745393501</v>
       </c>
       <c r="AJ17">
-        <v>4684163.9605285702</v>
+        <v>1362330.69357662</v>
       </c>
       <c r="AK17">
-        <v>14418179.424474301</v>
+        <v>1004982.83010062</v>
       </c>
       <c r="AL17">
-        <v>7300805.9342117002</v>
+        <v>318714.28953701898</v>
       </c>
       <c r="AM17">
-        <v>12558239.7670548</v>
+        <v>322595.99493034999</v>
       </c>
       <c r="AN17">
-        <v>799158.80561164895</v>
+        <v>1428059.8034153499</v>
       </c>
       <c r="AO17">
-        <v>16002340.040780099</v>
+        <v>279490.710285938</v>
       </c>
       <c r="AP17">
-        <v>13593718.7209254</v>
+        <v>351093.12717559998</v>
       </c>
       <c r="AQ17">
-        <v>13006818.091395</v>
+        <v>348394.411645238</v>
       </c>
       <c r="AR17">
-        <v>17877427.185970299</v>
+        <v>1803347.3318439701</v>
       </c>
       <c r="AS17">
-        <v>15601648.589687699</v>
+        <v>1080551.4772604101</v>
       </c>
       <c r="AT17">
-        <v>13162912.822406201</v>
+        <v>710915.85148936196</v>
       </c>
       <c r="AU17">
-        <v>15164861.0110496</v>
+        <v>1329830.6927811599</v>
       </c>
       <c r="AV17">
-        <v>7055969.6497127898</v>
+        <v>1557707.72469273</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>9420803.5059159491</v>
+        <v>1479086.7940004801</v>
       </c>
       <c r="B18">
-        <v>19226935.3982279</v>
+        <v>247739.66388915601</v>
       </c>
       <c r="C18">
-        <v>14061175.992941599</v>
+        <v>1057666.11212281</v>
       </c>
       <c r="D18">
-        <v>8912989.8160377908</v>
+        <v>964120.44354983699</v>
       </c>
       <c r="E18">
-        <v>14751655.7099701</v>
+        <v>1874992.83975396</v>
       </c>
       <c r="F18">
-        <v>11229796.7120691</v>
+        <v>1333765.8014376401</v>
       </c>
       <c r="G18">
-        <v>4646643.3484061696</v>
+        <v>80884.954530217001</v>
       </c>
       <c r="H18">
-        <v>7427513.7154308902</v>
+        <v>953611.09251813695</v>
       </c>
       <c r="I18">
-        <v>5653182.3813128304</v>
+        <v>1041732.0831681</v>
       </c>
       <c r="J18">
-        <v>10401764.5844696</v>
+        <v>1336675.5678900899</v>
       </c>
       <c r="K18">
-        <v>5774597.55857829</v>
+        <v>935589.17527484498</v>
       </c>
       <c r="L18">
-        <v>3716004.4090672098</v>
+        <v>507642.114183228</v>
       </c>
       <c r="M18">
-        <v>8667916.6025127303</v>
+        <v>1316213.2514108999</v>
       </c>
       <c r="N18">
-        <v>12093674.9060423</v>
+        <v>1373883.0885244899</v>
       </c>
       <c r="O18">
-        <v>11217109.3730602</v>
+        <v>1662207.00874085</v>
       </c>
       <c r="P18">
-        <v>11841941.667470699</v>
+        <v>894925.35757030104</v>
       </c>
       <c r="Q18">
-        <v>8354646.0766276103</v>
+        <v>1986341.67387349</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>15891470.991733201</v>
+        <v>719771.99594190402</v>
       </c>
       <c r="T18">
-        <v>11085531.688766399</v>
+        <v>1286094.9156808699</v>
       </c>
       <c r="U18">
-        <v>15043673.968419099</v>
+        <v>200436.286109712</v>
       </c>
       <c r="V18">
-        <v>9664231.1408333704</v>
+        <v>1541198.4824496701</v>
       </c>
       <c r="W18">
-        <v>12387999.8470977</v>
+        <v>482570.54696905997</v>
       </c>
       <c r="X18">
-        <v>11077966.789189599</v>
+        <v>967881.72079470195</v>
       </c>
       <c r="Y18">
-        <v>11907902.137503801</v>
+        <v>1094889.91755448</v>
       </c>
       <c r="Z18">
-        <v>13245342.102918999</v>
+        <v>1373334.72256009</v>
       </c>
       <c r="AA18">
-        <v>14181189.1712166</v>
+        <v>952103.70488655998</v>
       </c>
       <c r="AB18">
-        <v>10356089.4775647</v>
+        <v>949024.58137237001</v>
       </c>
       <c r="AC18">
-        <v>10721961.0716024</v>
+        <v>1192357.35409516</v>
       </c>
       <c r="AD18">
-        <v>9624993.8106245995</v>
+        <v>1217008.75473161</v>
       </c>
       <c r="AE18">
-        <v>7880416.2811466902</v>
+        <v>749589.37246580201</v>
       </c>
       <c r="AF18">
-        <v>11881401.2399722</v>
+        <v>1497449.8522542501</v>
       </c>
       <c r="AG18">
-        <v>10727048.682995901</v>
+        <v>506908.068173623</v>
       </c>
       <c r="AH18">
-        <v>13812601.889399899</v>
+        <v>320722.56952748803</v>
       </c>
       <c r="AI18">
-        <v>17965658.253730498</v>
+        <v>1063867.46351607</v>
       </c>
       <c r="AJ18">
-        <v>3849618.9712086902</v>
+        <v>632231.21254340699</v>
       </c>
       <c r="AK18">
-        <v>6445386.7526882598</v>
+        <v>1226369.35692264</v>
       </c>
       <c r="AL18">
-        <v>15650967.7832174</v>
+        <v>1820676.2717534101</v>
       </c>
       <c r="AM18">
-        <v>10160169.289752699</v>
+        <v>1712173.1151563399</v>
       </c>
       <c r="AN18">
-        <v>8892047.4884948302</v>
+        <v>563231.15920716699</v>
       </c>
       <c r="AO18">
-        <v>14383600.3103854</v>
+        <v>1716857.0635878299</v>
       </c>
       <c r="AP18">
-        <v>5355416.2657951498</v>
+        <v>2183437.58145562</v>
       </c>
       <c r="AQ18">
-        <v>13996523.5888159</v>
+        <v>1709947.95872971</v>
       </c>
       <c r="AR18">
-        <v>13132125.186543001</v>
+        <v>321339.66120366799</v>
       </c>
       <c r="AS18">
-        <v>8778384.7227527108</v>
+        <v>984365.99820135406</v>
       </c>
       <c r="AT18">
-        <v>17322610.841577299</v>
+        <v>1478590.29450473</v>
       </c>
       <c r="AU18">
-        <v>7268613.68127649</v>
+        <v>915277.90616749797</v>
       </c>
       <c r="AV18">
-        <v>3171754.8201721702</v>
+        <v>455479.93776768999</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9230976.3059443291</v>
+        <v>788968.80505129101</v>
       </c>
       <c r="B19">
-        <v>3391823.7581722699</v>
+        <v>665675.01270078495</v>
       </c>
       <c r="C19">
-        <v>9084381.6243757997</v>
+        <v>366343.09723659698</v>
       </c>
       <c r="D19">
-        <v>11945224.202705299</v>
+        <v>428700.43675802398</v>
       </c>
       <c r="E19">
-        <v>2656366.7575853402</v>
+        <v>1159461.2674706201</v>
       </c>
       <c r="F19">
-        <v>4808162.5380418496</v>
+        <v>635377.42763821897</v>
       </c>
       <c r="G19">
-        <v>16795393.787799802</v>
+        <v>644286.32921143703</v>
       </c>
       <c r="H19">
-        <v>16026174.607927199</v>
+        <v>905405.10148687696</v>
       </c>
       <c r="I19">
-        <v>18457507.322614599</v>
+        <v>335282.15910735697</v>
       </c>
       <c r="J19">
-        <v>10531642.352884101</v>
+        <v>807650.86550652399</v>
       </c>
       <c r="K19">
-        <v>14063078.1858608</v>
+        <v>304647.82985652803</v>
       </c>
       <c r="L19">
-        <v>12180643.580769701</v>
+        <v>282000.19044338702</v>
       </c>
       <c r="M19">
-        <v>11001418.275519799</v>
+        <v>678225.06159644504</v>
       </c>
       <c r="N19">
-        <v>9229798.0341565106</v>
+        <v>850867.11640899105</v>
       </c>
       <c r="O19">
-        <v>5639515.18352996</v>
+        <v>1086205.2367638999</v>
       </c>
       <c r="P19">
-        <v>12030531.1729245</v>
+        <v>188749.511806366</v>
       </c>
       <c r="Q19">
-        <v>9308091.7022523992</v>
+        <v>1274065.11514742</v>
       </c>
       <c r="R19">
-        <v>15891470.991733201</v>
+        <v>719771.99594190402</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5242513.4820037298</v>
+        <v>827763.48752337601</v>
       </c>
       <c r="U19">
-        <v>4536394.6173075801</v>
+        <v>624850.48827647197</v>
       </c>
       <c r="V19">
-        <v>13849873.3084081</v>
+        <v>881670.812485595</v>
       </c>
       <c r="W19">
-        <v>8057341.4404627504</v>
+        <v>459495.135464255</v>
       </c>
       <c r="X19">
-        <v>12883788.8186321</v>
+        <v>280694.919034252</v>
       </c>
       <c r="Y19">
-        <v>10599315.859708499</v>
+        <v>411386.921964715</v>
       </c>
       <c r="Z19">
-        <v>3166410.41797707</v>
+        <v>727655.81881135702</v>
       </c>
       <c r="AA19">
-        <v>8390144.2413108703</v>
+        <v>799369.80671096698</v>
       </c>
       <c r="AB19">
-        <v>13279951.307322299</v>
+        <v>747695.55130002601</v>
       </c>
       <c r="AC19">
-        <v>12703637.5381588</v>
+        <v>620002.59960560896</v>
       </c>
       <c r="AD19">
-        <v>13606151.5650697</v>
+        <v>654348.50918380497</v>
       </c>
       <c r="AE19">
-        <v>12751980.022288701</v>
+        <v>175617.80362884601</v>
       </c>
       <c r="AF19">
-        <v>6107723.6806443902</v>
+        <v>841212.543070363</v>
       </c>
       <c r="AG19">
-        <v>6359491.1819674997</v>
+        <v>298890.45760407601</v>
       </c>
       <c r="AH19">
-        <v>8253613.3583376501</v>
+        <v>715824.51057428098</v>
       </c>
       <c r="AI19">
-        <v>4936740.3379510501</v>
+        <v>813015.80108925595</v>
       </c>
       <c r="AJ19">
-        <v>12655925.992578501</v>
+        <v>189521.67014907699</v>
       </c>
       <c r="AK19">
-        <v>13649998.193140799</v>
+        <v>584418.87258284399</v>
       </c>
       <c r="AL19">
-        <v>4002890.6589732501</v>
+        <v>1140271.1133873099</v>
       </c>
       <c r="AM19">
-        <v>13894379.749780901</v>
+        <v>1018970.01229884</v>
       </c>
       <c r="AN19">
-        <v>8547407.1297407001</v>
+        <v>156554.633180184</v>
       </c>
       <c r="AO19">
-        <v>6764371.6455241702</v>
+        <v>1000569.38706018</v>
       </c>
       <c r="AP19">
-        <v>14857815.259067399</v>
+        <v>1498420.8588890701</v>
       </c>
       <c r="AQ19">
-        <v>10073269.6450043</v>
+        <v>1022868.1522909499</v>
       </c>
       <c r="AR19">
-        <v>10082487.393058799</v>
+        <v>541416.18703210098</v>
       </c>
       <c r="AS19">
-        <v>11124556.6396548</v>
+        <v>431411.44094792899</v>
       </c>
       <c r="AT19">
-        <v>3978621.6350571802</v>
+        <v>866952.04787588795</v>
       </c>
       <c r="AU19">
-        <v>13051056.7084186</v>
+        <v>598472.72613771097</v>
       </c>
       <c r="AV19">
-        <v>16352030.1217902</v>
+        <v>285444.042292025</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10595230.6543693</v>
+        <v>617180.141939561</v>
       </c>
       <c r="B20">
-        <v>8142685.4927577302</v>
+        <v>1368082.5218092101</v>
       </c>
       <c r="C20">
-        <v>14312663.4238673</v>
+        <v>936031.01641042298</v>
       </c>
       <c r="D20">
-        <v>14477929.451182701</v>
+        <v>399118.63882987702</v>
       </c>
       <c r="E20">
-        <v>3775249.99477856</v>
+        <v>1028039.234228</v>
       </c>
       <c r="F20">
-        <v>1122194.3161684901</v>
+        <v>611329.88039386203</v>
       </c>
       <c r="G20">
-        <v>15252664.3220092</v>
+        <v>1208898.3634355201</v>
       </c>
       <c r="H20">
-        <v>18486386.550017599</v>
+        <v>1732441.75655036</v>
       </c>
       <c r="I20">
-        <v>15927020.375366401</v>
+        <v>652965.48996598704</v>
       </c>
       <c r="J20">
-        <v>13865544.803128401</v>
+        <v>1453181.47295771</v>
       </c>
       <c r="K20">
-        <v>13789027.8091098</v>
+        <v>1016716.7507758701</v>
       </c>
       <c r="L20">
-        <v>7783460.2466297904</v>
+        <v>1072130.3411469001</v>
       </c>
       <c r="M20">
-        <v>7645917.1554749999</v>
+        <v>395022.72172327701</v>
       </c>
       <c r="N20">
-        <v>13411047.3297583</v>
+        <v>1492906.79073301</v>
       </c>
       <c r="O20">
-        <v>6424113.9790750397</v>
+        <v>1614740.1663671799</v>
       </c>
       <c r="P20">
-        <v>17057795.9413573</v>
+        <v>855790.02101465804</v>
       </c>
       <c r="Q20">
-        <v>4642785.5746841403</v>
+        <v>1078635.93612085</v>
       </c>
       <c r="R20">
-        <v>11085531.688766399</v>
+        <v>1286094.9156808699</v>
       </c>
       <c r="S20">
-        <v>5242513.4820037298</v>
+        <v>827763.48752337601</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>8992161.9765172508</v>
+        <v>1305431.8135319001</v>
       </c>
       <c r="V20">
-        <v>19037704.678168301</v>
+        <v>529619.46855120198</v>
       </c>
       <c r="W20">
-        <v>11870904.439327201</v>
+        <v>1256414.95283287</v>
       </c>
       <c r="X20">
-        <v>17668949.081281699</v>
+        <v>618795.3672786</v>
       </c>
       <c r="Y20">
-        <v>10889689.368411601</v>
+        <v>559546.25391244795</v>
       </c>
       <c r="Z20">
-        <v>5116578.5440782104</v>
+        <v>1229345.6189107699</v>
       </c>
       <c r="AA20">
-        <v>9902118.7999043595</v>
+        <v>486159.65065788699</v>
       </c>
       <c r="AB20">
-        <v>14281816.509288</v>
+        <v>435739.75717701699</v>
       </c>
       <c r="AC20">
-        <v>17912049.569008101</v>
+        <v>1269515.48439249</v>
       </c>
       <c r="AD20">
-        <v>18491899.009296801</v>
+        <v>1304185.0870886999</v>
       </c>
       <c r="AE20">
-        <v>9601837.1715092696</v>
+        <v>989339.29904672795</v>
       </c>
       <c r="AF20">
-        <v>3359063.2716074102</v>
+        <v>1281447.9751482899</v>
       </c>
       <c r="AG20">
-        <v>1983495.54469984</v>
+        <v>813399.27994414803</v>
       </c>
       <c r="AH20">
-        <v>9186126.7369157095</v>
+        <v>1442265.93088032</v>
       </c>
       <c r="AI20">
-        <v>8626170.7026861496</v>
+        <v>1615260.6701927599</v>
       </c>
       <c r="AJ20">
-        <v>7451723.1767107705</v>
+        <v>740954.47458810499</v>
       </c>
       <c r="AK20">
-        <v>14027868.945372799</v>
+        <v>1147762.9117654699</v>
       </c>
       <c r="AL20">
-        <v>5659475.7774915202</v>
+        <v>782216.81994805299</v>
       </c>
       <c r="AM20">
-        <v>16201183.189191399</v>
+        <v>759685.41150658403</v>
       </c>
       <c r="AN20">
-        <v>3851902.8636380201</v>
+        <v>897413.30799037404</v>
       </c>
       <c r="AO20">
-        <v>11445697.7052924</v>
+        <v>927690.73612227396</v>
       </c>
       <c r="AP20">
-        <v>14290616.1790145</v>
+        <v>1096155.66201707</v>
       </c>
       <c r="AQ20">
-        <v>13859156.026665701</v>
+        <v>730601.89317835495</v>
       </c>
       <c r="AR20">
-        <v>15303536.799138101</v>
+        <v>1278430.0115757899</v>
       </c>
       <c r="AS20">
-        <v>12976503.2462343</v>
+        <v>397536.85863048403</v>
       </c>
       <c r="AT20">
-        <v>9187474.5969731007</v>
+        <v>367752.90553761099</v>
       </c>
       <c r="AU20">
-        <v>14172771.649419</v>
+        <v>379112.85273730301</v>
       </c>
       <c r="AV20">
-        <v>11240126.038205599</v>
+        <v>1033813.41998316</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5673644.64201889</v>
+        <v>1410760.2173838699</v>
       </c>
       <c r="B21">
-        <v>4921204.1215199102</v>
+        <v>69433.679749718198</v>
       </c>
       <c r="C21">
-        <v>5755653.8326771799</v>
+        <v>927108.23383347597</v>
       </c>
       <c r="D21">
-        <v>7459968.4838185897</v>
+        <v>946201.29534686205</v>
       </c>
       <c r="E21">
-        <v>7188949.0721101398</v>
+        <v>1781032.82945413</v>
       </c>
       <c r="F21">
-        <v>8096928.7070267303</v>
+        <v>1258910.16211925</v>
       </c>
       <c r="G21">
-        <v>12459496.661312399</v>
+        <v>194833.26677176799</v>
       </c>
       <c r="H21">
-        <v>11838929.098669</v>
+        <v>756573.11530061497</v>
       </c>
       <c r="I21">
-        <v>14959082.319181399</v>
+        <v>959483.68925946194</v>
       </c>
       <c r="J21">
-        <v>6004168.6023135101</v>
+        <v>1155637.22352077</v>
       </c>
       <c r="K21">
-        <v>10057976.1090363</v>
+        <v>790846.83029444597</v>
       </c>
       <c r="L21">
-        <v>12609876.557617299</v>
+        <v>367158.12880285003</v>
       </c>
       <c r="M21">
-        <v>15478995.979614301</v>
+        <v>1274121.32934816</v>
       </c>
       <c r="N21">
-        <v>4731817.63592856</v>
+        <v>1191268.49073061</v>
       </c>
       <c r="O21">
-        <v>4662574.7525891503</v>
+        <v>1484165.1883189599</v>
       </c>
       <c r="P21">
-        <v>9168451.2426665593</v>
+        <v>779478.39636354102</v>
       </c>
       <c r="Q21">
-        <v>13571803.001791701</v>
+        <v>1897407.4134498299</v>
       </c>
       <c r="R21">
-        <v>15043673.968419099</v>
+        <v>200436.286109712</v>
       </c>
       <c r="S21">
-        <v>4536394.6173075801</v>
+        <v>624850.48827647197</v>
       </c>
       <c r="T21">
-        <v>8992161.9765172508</v>
+        <v>1305431.8135319001</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>10050166.605720799</v>
+        <v>1491382.24837698</v>
       </c>
       <c r="W21">
-        <v>3532314.2742975699</v>
+        <v>294186.66130485799</v>
       </c>
       <c r="X21">
-        <v>10083201.9635507</v>
+        <v>896475.99280404299</v>
       </c>
       <c r="Y21">
-        <v>13000644.874069801</v>
+        <v>1027641.60761908</v>
       </c>
       <c r="Z21">
-        <v>4082802.1622313899</v>
+        <v>1216518.0040854299</v>
       </c>
       <c r="AA21">
-        <v>10773962.529311299</v>
+        <v>1036634.34907315</v>
       </c>
       <c r="AB21">
-        <v>13492281.972252799</v>
+        <v>1021187.67359448</v>
       </c>
       <c r="AC21">
-        <v>8986274.7835197002</v>
+        <v>1022345.17312072</v>
       </c>
       <c r="AD21">
-        <v>9569079.5374681093</v>
+        <v>1044431.92527069</v>
       </c>
       <c r="AE21">
-        <v>16928861.748532798</v>
+        <v>612265.26222246804</v>
       </c>
       <c r="AF21">
-        <v>10635595.4248817</v>
+        <v>1341809.6365159701</v>
       </c>
       <c r="AG21">
-        <v>10611106.277704</v>
+        <v>492690.63471416099</v>
       </c>
       <c r="AH21">
-        <v>11132433.451698599</v>
+        <v>154333.463298185</v>
       </c>
       <c r="AI21">
-        <v>6955129.0837903097</v>
+        <v>864206.53388729901</v>
       </c>
       <c r="AJ21">
-        <v>14903061.254880199</v>
+        <v>590043.00106086198</v>
       </c>
       <c r="AK21">
-        <v>9493696.7925499994</v>
+        <v>1071959.17480824</v>
       </c>
       <c r="AL21">
-        <v>8020022.7326222798</v>
+        <v>1760091.89547471</v>
       </c>
       <c r="AM21">
-        <v>12555587.2802031</v>
+        <v>1642247.3379462501</v>
       </c>
       <c r="AN21">
-        <v>12773702.6952498</v>
+        <v>476143.10980874201</v>
       </c>
       <c r="AO21">
-        <v>2453650.8546506702</v>
+        <v>1621855.29386825</v>
       </c>
       <c r="AP21">
-        <v>10756478.007072</v>
+        <v>2120447.9165542498</v>
       </c>
       <c r="AQ21">
-        <v>9472696.1230081897</v>
+        <v>1644503.3339100699</v>
       </c>
       <c r="AR21">
-        <v>6599240.3529589903</v>
+        <v>128173.645079371</v>
       </c>
       <c r="AS21">
-        <v>6892935.0364369797</v>
+        <v>962310.86171994905</v>
       </c>
       <c r="AT21">
-        <v>2317029.5160042602</v>
+        <v>1450047.7343354099</v>
       </c>
       <c r="AU21">
-        <v>8765578.9320737291</v>
+        <v>954911.26324349095</v>
       </c>
       <c r="AV21">
-        <v>18209014.650068499</v>
+        <v>339817.63072788803</v>
       </c>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>8857100.1738338806</v>
+        <v>158778.74436146699</v>
       </c>
       <c r="B22">
-        <v>11104678.8543358</v>
+        <v>1539721.48379102</v>
       </c>
       <c r="C22">
-        <v>4765573.4837386897</v>
+        <v>763056.749762194</v>
       </c>
       <c r="D22">
-        <v>5017692.3456625296</v>
+        <v>595254.84378314402</v>
       </c>
       <c r="E22">
-        <v>15573600.321875701</v>
+        <v>498590.31828544498</v>
       </c>
       <c r="F22">
-        <v>18055130.799477901</v>
+        <v>286400.269487435</v>
       </c>
       <c r="G22">
-        <v>5266025.2561456496</v>
+        <v>1460382.0748151899</v>
       </c>
       <c r="H22">
-        <v>2257871.39019365</v>
+        <v>1682212.6381021501</v>
       </c>
       <c r="I22">
-        <v>5034527.0854895897</v>
+        <v>558153.88284653099</v>
       </c>
       <c r="J22">
-        <v>5410722.1235490199</v>
+        <v>1188607.7179107899</v>
       </c>
       <c r="K22">
-        <v>6264011.6518885596</v>
+        <v>904441.60605085699</v>
       </c>
       <c r="L22">
-        <v>12749954.4107747</v>
+        <v>1163592.3572508499</v>
       </c>
       <c r="M22">
-        <v>13152383.809807699</v>
+        <v>228398.491640933</v>
       </c>
       <c r="N22">
-        <v>5700864.4428859297</v>
+        <v>1220097.6783421801</v>
       </c>
       <c r="O22">
-        <v>12859770.079394801</v>
+        <v>1252918.82998269</v>
       </c>
       <c r="P22">
-        <v>2374833.20424387</v>
+        <v>792049.20457701804</v>
       </c>
       <c r="Q22">
-        <v>16285782.403779101</v>
+        <v>553362.15446020302</v>
       </c>
       <c r="R22">
-        <v>9664231.1408333704</v>
+        <v>1541198.4824496701</v>
       </c>
       <c r="S22">
-        <v>13849873.3084081</v>
+        <v>881670.812485595</v>
       </c>
       <c r="T22">
-        <v>19037704.678168301</v>
+        <v>529619.46855120198</v>
       </c>
       <c r="U22">
-        <v>10050166.605720799</v>
+        <v>1491382.24837698</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>7256688.3360890802</v>
+        <v>1336726.0791472101</v>
       </c>
       <c r="X22">
-        <v>2056778.2627347</v>
+        <v>601049.00107560004</v>
       </c>
       <c r="Y22">
-        <v>9459349.2469979394</v>
+        <v>470508.61470861698</v>
       </c>
       <c r="Z22">
-        <v>13967172.532687301</v>
+        <v>911548.208929613</v>
       </c>
       <c r="AA22">
-        <v>10124907.5520753</v>
+        <v>974529.32922227704</v>
       </c>
       <c r="AB22">
-        <v>6208681.9510180904</v>
+        <v>912619.59216766397</v>
       </c>
       <c r="AC22">
-        <v>1146887.06301465</v>
+        <v>1040309.32453318</v>
       </c>
       <c r="AD22">
-        <v>729402.957464115</v>
+        <v>1068162.6252152801</v>
       </c>
       <c r="AE22">
-        <v>11231504.8322889</v>
+        <v>978008.74904328003</v>
       </c>
       <c r="AF22">
-        <v>16897293.387494698</v>
+        <v>917356.75726619095</v>
       </c>
       <c r="AG22">
-        <v>18596053.170710199</v>
+        <v>1034982.7137828</v>
       </c>
       <c r="AH22">
-        <v>10906531.210906601</v>
+        <v>1595496.1920589099</v>
       </c>
       <c r="AI22">
-        <v>10856446.2727137</v>
+        <v>1494262.74466928</v>
       </c>
       <c r="AJ22">
-        <v>13395274.003396001</v>
+        <v>910656.19077273703</v>
       </c>
       <c r="AK22">
-        <v>5912743.9148226297</v>
+        <v>889418.91303537996</v>
       </c>
       <c r="AL22">
-        <v>13944547.145517301</v>
+        <v>289276.00503038598</v>
       </c>
       <c r="AM22">
-        <v>4249986.3069324</v>
+        <v>231334.79746182301</v>
       </c>
       <c r="AN22">
-        <v>17064568.075871501</v>
+        <v>1017433.10583951</v>
       </c>
       <c r="AO22">
-        <v>7597296.4608309697</v>
+        <v>410740.97208031802</v>
       </c>
       <c r="AP22">
-        <v>5887590.6298060203</v>
+        <v>648176.27140786999</v>
       </c>
       <c r="AQ22">
-        <v>5894265.2260829099</v>
+        <v>206156.409803224</v>
       </c>
       <c r="AR22">
-        <v>3768301.5244070799</v>
+        <v>1420676.93994041</v>
       </c>
       <c r="AS22">
-        <v>6541997.0974755501</v>
+        <v>570672.65355325001</v>
       </c>
       <c r="AT22">
-        <v>9884184.8979086503</v>
+        <v>168075.66768227</v>
       </c>
       <c r="AU22">
-        <v>5618091.5353325997</v>
+        <v>787136.91484102397</v>
       </c>
       <c r="AV22">
-        <v>9711090.6641269997</v>
+        <v>1160497.5813957499</v>
       </c>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3556169.7567213401</v>
+        <v>1232992.98111076</v>
       </c>
       <c r="B23">
-        <v>7886397.5079706404</v>
+        <v>290011.53489252098</v>
       </c>
       <c r="C23">
-        <v>4562489.0077816499</v>
+        <v>681564.86713665002</v>
       </c>
       <c r="D23">
-        <v>3937272.71917903</v>
+        <v>863911.69372737501</v>
       </c>
       <c r="E23">
-        <v>10713606.7617858</v>
+        <v>1562982.69318303</v>
       </c>
       <c r="F23">
-        <v>10800381.6983335</v>
+        <v>1076899.1047815599</v>
       </c>
       <c r="G23">
-        <v>8950506.8104232606</v>
+        <v>446225.71349252202</v>
       </c>
       <c r="H23">
-        <v>8587184.4699175395</v>
+        <v>553650.335772019</v>
       </c>
       <c r="I23">
-        <v>11657038.243764101</v>
+        <v>780696.44755832804</v>
       </c>
       <c r="J23">
-        <v>2474435.3984462498</v>
+        <v>861609.17541600903</v>
       </c>
       <c r="K23">
-        <v>6760732.1864392301</v>
+        <v>531763.32093714201</v>
       </c>
       <c r="L23">
-        <v>11697362.947548499</v>
+        <v>184902.17977512901</v>
       </c>
       <c r="M23">
-        <v>18932486.116458301</v>
+        <v>1137536.60476772</v>
       </c>
       <c r="N23">
-        <v>1565303.9104240499</v>
+        <v>897092.15825242305</v>
       </c>
       <c r="O23">
-        <v>5819880.3770117797</v>
+        <v>1190554.6927998699</v>
       </c>
       <c r="P23">
-        <v>7372774.76697056</v>
+        <v>563395.52306707902</v>
       </c>
       <c r="Q23">
-        <v>16408761.672583699</v>
+        <v>1684031.4934398199</v>
       </c>
       <c r="R23">
-        <v>12387999.8470977</v>
+        <v>482570.54696905997</v>
       </c>
       <c r="S23">
-        <v>8057341.4404627504</v>
+        <v>459495.135464255</v>
       </c>
       <c r="T23">
-        <v>11870904.439327201</v>
+        <v>1256414.95283287</v>
       </c>
       <c r="U23">
-        <v>3532314.2742975699</v>
+        <v>294186.66130485799</v>
       </c>
       <c r="V23">
-        <v>7256688.3360890802</v>
+        <v>1336726.0791472101</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>8111873.5908605801</v>
+        <v>738166.21041826904</v>
       </c>
       <c r="Y23">
-        <v>14325014.497600401</v>
+        <v>866734.52504551003</v>
       </c>
       <c r="Z23">
-        <v>6776072.8522256296</v>
+        <v>936326.26866590697</v>
       </c>
       <c r="AA23">
-        <v>12769698.1607951</v>
+        <v>1097848.5864679201</v>
       </c>
       <c r="AB23">
-        <v>12679873.286641801</v>
+        <v>1065277.7129500001</v>
       </c>
       <c r="AC23">
-        <v>6428308.1235956596</v>
+        <v>733211.42449602205</v>
       </c>
       <c r="AD23">
-        <v>6621261.5947195003</v>
+        <v>753653.70092028903</v>
       </c>
       <c r="AE23">
-        <v>18391452.610304099</v>
+        <v>376251.73841834703</v>
       </c>
       <c r="AF23">
-        <v>14115977.0042796</v>
+        <v>1061755.55549366</v>
       </c>
       <c r="AG23">
-        <v>13755081.437415101</v>
+        <v>488026.69348798698</v>
       </c>
       <c r="AH23">
-        <v>13444515.2181668</v>
+        <v>299587.90596626501</v>
       </c>
       <c r="AI23">
-        <v>9606354.1274424195</v>
+        <v>596840.58839627402</v>
       </c>
       <c r="AJ23">
-        <v>14531560.845695401</v>
+        <v>517962.31896703702</v>
       </c>
       <c r="AK23">
-        <v>6134710.4901359696</v>
+        <v>795373.45218892395</v>
       </c>
       <c r="AL23">
-        <v>11420819.493114499</v>
+        <v>1584894.43982259</v>
       </c>
       <c r="AM23">
-        <v>10968293.409692099</v>
+        <v>1456945.3981548799</v>
       </c>
       <c r="AN23">
-        <v>15671560.073760999</v>
+        <v>359001.697642226</v>
       </c>
       <c r="AO23">
-        <v>2021135.3570016101</v>
+        <v>1404817.9347198401</v>
       </c>
       <c r="AP23">
-        <v>7373071.9053820902</v>
+        <v>1936863.49681645</v>
       </c>
       <c r="AQ23">
-        <v>9503774.9566627499</v>
+        <v>1465072.70053913</v>
       </c>
       <c r="AR23">
-        <v>4880868.7645903397</v>
+        <v>166051.58614273201</v>
       </c>
       <c r="AS23">
-        <v>3625138.9657492698</v>
+        <v>872595.75722240203</v>
       </c>
       <c r="AT23">
-        <v>5113932.3015594697</v>
+        <v>1326379.7114452799</v>
       </c>
       <c r="AU23">
-        <v>5351063.6311282096</v>
+        <v>956465.07295912004</v>
       </c>
       <c r="AV23">
-        <v>15067784.344481301</v>
+        <v>230136.67787909601</v>
       </c>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10472307.2889097</v>
+        <v>514800.57486040803</v>
       </c>
       <c r="B24">
-        <v>9697557.5549242906</v>
+        <v>941636.14633023099</v>
       </c>
       <c r="C24">
-        <v>4330992.1782583799</v>
+        <v>334148.27812945802</v>
       </c>
       <c r="D24">
-        <v>6817557.2852042401</v>
+        <v>258467.66836252299</v>
       </c>
       <c r="E24">
-        <v>13918240.3423524</v>
+        <v>912217.52344096696</v>
       </c>
       <c r="F24">
-        <v>17684276.1430372</v>
+        <v>366051.302042989</v>
       </c>
       <c r="G24">
-        <v>7083346.9565423103</v>
+        <v>888564.41772578296</v>
       </c>
       <c r="H24">
-        <v>3829083.5575500499</v>
+        <v>1139073.5440760599</v>
       </c>
       <c r="I24">
-        <v>5690983.2741404204</v>
+        <v>88865.800775756506</v>
       </c>
       <c r="J24">
-        <v>6841836.1189849405</v>
+        <v>857428.33099892398</v>
       </c>
       <c r="K24">
-        <v>8320321.3607321596</v>
+        <v>397922.21682016097</v>
       </c>
       <c r="L24">
-        <v>14532546.924628399</v>
+        <v>562690.32854587701</v>
       </c>
       <c r="M24">
-        <v>11983126.1702173</v>
+        <v>400720.077456092</v>
       </c>
       <c r="N24">
-        <v>6585365.4413169799</v>
+        <v>899302.50521548605</v>
       </c>
       <c r="O24">
-        <v>13930179.5430474</v>
+        <v>1071525.5934826301</v>
       </c>
       <c r="P24">
-        <v>927636.43094227603</v>
+        <v>238792.83405903401</v>
       </c>
       <c r="Q24">
-        <v>15407049.960287999</v>
+        <v>1020075.9830692901</v>
       </c>
       <c r="R24">
-        <v>11077966.789189599</v>
+        <v>967881.72079470195</v>
       </c>
       <c r="S24">
-        <v>12883788.8186321</v>
+        <v>280694.919034252</v>
       </c>
       <c r="T24">
-        <v>17668949.081281699</v>
+        <v>618795.3672786</v>
       </c>
       <c r="U24">
-        <v>10083201.9635507</v>
+        <v>896475.99280404299</v>
       </c>
       <c r="V24">
-        <v>2056778.2627347</v>
+        <v>601049.00107560004</v>
       </c>
       <c r="W24">
-        <v>8111873.5908605801</v>
+        <v>738166.21041826904</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>7623810.1768588005</v>
+        <v>131507.04406632399</v>
       </c>
       <c r="Z24">
-        <v>14158056.0193097</v>
+        <v>681600.89607683301</v>
       </c>
       <c r="AA24">
-        <v>8079555.1221347703</v>
+        <v>749700.20536683197</v>
       </c>
       <c r="AB24">
-        <v>4695887.8690336104</v>
+        <v>686226.94689558295</v>
       </c>
       <c r="AC24">
-        <v>1956518.3684179401</v>
+        <v>667057.72938076896</v>
       </c>
       <c r="AD24">
-        <v>2653825.3824328501</v>
+        <v>702800.42990962602</v>
       </c>
       <c r="AE24">
-        <v>10281447.689234201</v>
+        <v>398129.50252947002</v>
       </c>
       <c r="AF24">
-        <v>14869597.036134399</v>
+        <v>768403.42690563796</v>
       </c>
       <c r="AG24">
-        <v>16634204.672575399</v>
+        <v>480012.32497835398</v>
       </c>
       <c r="AH24">
-        <v>8876709.3534940407</v>
+        <v>995084.97083717899</v>
       </c>
       <c r="AI24">
-        <v>9048032.6997087691</v>
+        <v>1000237.73337932</v>
       </c>
       <c r="AJ24">
-        <v>14400370.6686175</v>
+        <v>343302.77817369002</v>
       </c>
       <c r="AK24">
-        <v>7962956.82555624</v>
+        <v>567697.78060591104</v>
       </c>
       <c r="AL24">
-        <v>12022175.491926299</v>
+        <v>863669.40168278897</v>
       </c>
       <c r="AM24">
-        <v>2858818.0238764999</v>
+        <v>747230.21252842597</v>
       </c>
       <c r="AN24">
-        <v>15996987.4323867</v>
+        <v>420345.26826188498</v>
       </c>
       <c r="AO24">
-        <v>7782549.3426670097</v>
+        <v>756370.24612967705</v>
       </c>
       <c r="AP24">
-        <v>7922482.3012408596</v>
+        <v>1224132.2540305399</v>
       </c>
       <c r="AQ24">
-        <v>3860505.9762010998</v>
+        <v>748232.35258460802</v>
       </c>
       <c r="AR24">
-        <v>3511869.9280773099</v>
+        <v>820336.238457812</v>
       </c>
       <c r="AS24">
-        <v>8319038.1864469303</v>
+        <v>243875.66602040001</v>
       </c>
       <c r="AT24">
-        <v>9203966.0129254591</v>
+        <v>592446.63141215197</v>
       </c>
       <c r="AU24">
-        <v>7626360.5811272003</v>
+        <v>517283.59490592201</v>
       </c>
       <c r="AV24">
-        <v>10248540.1178433</v>
+        <v>561112.40002996905</v>
       </c>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>17803523.904479101</v>
+        <v>384854.76424291701</v>
       </c>
       <c r="B25">
-        <v>8306222.2617337704</v>
+        <v>1073121.1652597</v>
       </c>
       <c r="C25">
-        <v>9873199.3224347699</v>
+        <v>379118.725318918</v>
       </c>
       <c r="D25">
-        <v>14436780.3039444</v>
+        <v>274161.30969879898</v>
       </c>
       <c r="E25">
-        <v>8901042.4507823996</v>
+        <v>794326.00268403196</v>
       </c>
       <c r="F25">
-        <v>11882387.9621299</v>
+        <v>240535.83592307501</v>
       </c>
       <c r="G25">
-        <v>12196092.297236299</v>
+        <v>1015059.139393</v>
       </c>
       <c r="H25">
-        <v>9872787.5931386407</v>
+        <v>1246237.9999851999</v>
       </c>
       <c r="I25">
-        <v>8382571.10917293</v>
+        <v>102719.22550206901</v>
       </c>
       <c r="J25">
-        <v>14276567.046089901</v>
+        <v>893673.64182132401</v>
       </c>
       <c r="K25">
-        <v>14846283.878945701</v>
+        <v>481501.27305816603</v>
       </c>
       <c r="L25">
-        <v>13913013.930831401</v>
+        <v>693166.89064113796</v>
       </c>
       <c r="M25">
-        <v>5101052.4772358797</v>
+        <v>279664.60373780498</v>
       </c>
       <c r="N25">
-        <v>13333032.7463829</v>
+        <v>933557.40758026903</v>
       </c>
       <c r="O25">
-        <v>16211870.1037497</v>
+        <v>1071927.1127255301</v>
       </c>
       <c r="P25">
-        <v>7952693.4554096796</v>
+        <v>339410.690416503</v>
       </c>
       <c r="Q25">
-        <v>8206783.5681519303</v>
+        <v>898163.31772698602</v>
       </c>
       <c r="R25">
-        <v>11907902.137503801</v>
+        <v>1094889.91755448</v>
       </c>
       <c r="S25">
-        <v>10599315.859708499</v>
+        <v>411386.921964715</v>
       </c>
       <c r="T25">
-        <v>10889689.368411601</v>
+        <v>559546.25391244795</v>
       </c>
       <c r="U25">
-        <v>13000644.874069801</v>
+        <v>1027641.60761908</v>
       </c>
       <c r="V25">
-        <v>9459349.2469979394</v>
+        <v>470508.61470861698</v>
       </c>
       <c r="W25">
-        <v>14325014.497600401</v>
+        <v>866734.52504551003</v>
       </c>
       <c r="X25">
-        <v>7623810.1768588005</v>
+        <v>131507.04406632399</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>13709180.2816754</v>
+        <v>681186.13806206896</v>
       </c>
       <c r="AA25">
-        <v>2327694.5044212202</v>
+        <v>778768.33990256605</v>
       </c>
       <c r="AB25">
-        <v>3463450.1454423098</v>
+        <v>712688.13056974194</v>
       </c>
       <c r="AC25">
-        <v>9571796.7758814804</v>
+        <v>710539.34983704798</v>
       </c>
       <c r="AD25">
-        <v>10166418.2924759</v>
+        <v>744975.37036483095</v>
       </c>
       <c r="AE25">
-        <v>4524140.0486524096</v>
+        <v>515980.58386078</v>
       </c>
       <c r="AF25">
-        <v>7532947.70070777</v>
+        <v>750050.03107214498</v>
       </c>
       <c r="AG25">
-        <v>9136927.8931531105</v>
+        <v>599643.07527997205</v>
       </c>
       <c r="AH25">
-        <v>2350230.7827091701</v>
+        <v>1126451.8413698899</v>
       </c>
       <c r="AI25">
-        <v>6219922.7419916801</v>
+        <v>1090000.4822956901</v>
       </c>
       <c r="AJ25">
-        <v>11096880.478266099</v>
+        <v>465251.78523080202</v>
       </c>
       <c r="AK25">
-        <v>14884202.104677999</v>
+        <v>589351.16710458405</v>
       </c>
       <c r="AL25">
-        <v>6777221.1619551303</v>
+        <v>732456.18297159695</v>
       </c>
       <c r="AM25">
-        <v>5313634.7346462002</v>
+        <v>617795.44370945904</v>
       </c>
       <c r="AN25">
-        <v>8557389.7541125901</v>
+        <v>551595.94322891405</v>
       </c>
       <c r="AO25">
-        <v>12608491.232209699</v>
+        <v>641557.80130180798</v>
       </c>
       <c r="AP25">
-        <v>14086890.530648399</v>
+        <v>1093388.4940341599</v>
       </c>
       <c r="AQ25">
-        <v>4918055.0541081801</v>
+        <v>617666.52020291903</v>
       </c>
       <c r="AR25">
-        <v>9836769.3712692596</v>
+        <v>951735.81510719296</v>
       </c>
       <c r="AS25">
-        <v>15942542.182503</v>
+        <v>250229.53764892</v>
       </c>
       <c r="AT25">
-        <v>10684010.681554601</v>
+        <v>473450.63183516299</v>
       </c>
       <c r="AU25">
-        <v>14920545.775239799</v>
+        <v>545497.97068841802</v>
       </c>
       <c r="AV25">
-        <v>8753283.9171575997</v>
+        <v>692619.43717992096</v>
       </c>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>6546761.7689249702</v>
+        <v>752887.58282906399</v>
       </c>
       <c r="B26">
-        <v>6188787.1006326498</v>
+        <v>1224842.07345398</v>
       </c>
       <c r="C26">
-        <v>9827132.8138722591</v>
+        <v>370170.11655331199</v>
       </c>
       <c r="D26">
-        <v>10032436.882798299</v>
+        <v>935065.95899090404</v>
       </c>
       <c r="E26">
-        <v>4991965.8948735101</v>
+        <v>818763.49720497197</v>
       </c>
       <c r="F26">
-        <v>4103415.0611624802</v>
+        <v>655884.80048456695</v>
       </c>
       <c r="G26">
-        <v>14028742.793635201</v>
+        <v>1310948.5392364201</v>
       </c>
       <c r="H26">
-        <v>15262078.542316699</v>
+        <v>972268.75903908</v>
       </c>
       <c r="I26">
-        <v>17856888.179146498</v>
+        <v>609070.09342909302</v>
       </c>
       <c r="J26">
-        <v>8981552.7361566294</v>
+        <v>291528.31661859102</v>
       </c>
       <c r="K26">
-        <v>11258313.911230899</v>
+        <v>443108.15262941498</v>
       </c>
       <c r="L26">
-        <v>9670453.3142140899</v>
+        <v>865787.43452136999</v>
       </c>
       <c r="M26">
-        <v>12615057.314188</v>
+        <v>866157.49990316597</v>
       </c>
       <c r="N26">
-        <v>8298595.9665432302</v>
+        <v>315491.633128824</v>
       </c>
       <c r="O26">
-        <v>2502924.1634735502</v>
+        <v>391536.52377328102</v>
       </c>
       <c r="P26">
-        <v>13236777.7754215</v>
+        <v>544658.29455207195</v>
       </c>
       <c r="Q26">
-        <v>9751385.6026168093</v>
+        <v>941178.01620603597</v>
       </c>
       <c r="R26">
-        <v>13245342.102918999</v>
+        <v>1373334.72256009</v>
       </c>
       <c r="S26">
-        <v>3166410.41797707</v>
+        <v>727655.81881135702</v>
       </c>
       <c r="T26">
-        <v>5116578.5440782104</v>
+        <v>1229345.6189107699</v>
       </c>
       <c r="U26">
-        <v>4082802.1622313899</v>
+        <v>1216518.0040854299</v>
       </c>
       <c r="V26">
-        <v>13967172.532687301</v>
+        <v>911548.208929613</v>
       </c>
       <c r="W26">
-        <v>6776072.8522256296</v>
+        <v>936326.26866590697</v>
       </c>
       <c r="X26">
-        <v>14158056.0193097</v>
+        <v>681600.89607683301</v>
       </c>
       <c r="Y26">
-        <v>13709180.2816754</v>
+        <v>681186.13806206896</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>11550998.6805011</v>
+        <v>1431027.9414280099</v>
       </c>
       <c r="AB26">
-        <v>16359340.822064901</v>
+        <v>1367809.1265841499</v>
       </c>
       <c r="AC26">
-        <v>12986538.449294999</v>
+        <v>231560.71984216399</v>
       </c>
       <c r="AD26">
-        <v>13378846.3240248</v>
+        <v>233905.80938475399</v>
       </c>
       <c r="AE26">
-        <v>14597735.6495906</v>
+        <v>630014.07822786097</v>
       </c>
       <c r="AF26">
-        <v>7662825.3424081998</v>
+        <v>125472.762000084</v>
       </c>
       <c r="AG26">
-        <v>6981629.1649705498</v>
+        <v>1026495.05830412</v>
       </c>
       <c r="AH26">
-        <v>11360429.569009</v>
+        <v>1232564.79037371</v>
       </c>
       <c r="AI26">
-        <v>8018564.70175019</v>
+        <v>719093.191878582</v>
       </c>
       <c r="AJ26">
-        <v>11170426.340002</v>
+        <v>909075.92603613704</v>
       </c>
       <c r="AK26">
-        <v>11006939.8844928</v>
+        <v>147770.11985830401</v>
       </c>
       <c r="AL26">
-        <v>6954934.5005576201</v>
+        <v>1009441.64492861</v>
       </c>
       <c r="AM26">
-        <v>16359137.7987164</v>
+        <v>870712.27981291804</v>
       </c>
       <c r="AN26">
-        <v>8966034.6849083807</v>
+        <v>859126.30572169495</v>
       </c>
       <c r="AO26">
-        <v>6466311.4706389699</v>
+        <v>695132.93258521601</v>
       </c>
       <c r="AP26">
-        <v>12060653.284417201</v>
+        <v>1274305.2897816801</v>
       </c>
       <c r="AQ26">
-        <v>12660529.193755001</v>
+        <v>900872.12030188402</v>
       </c>
       <c r="AR26">
-        <v>10681652.8962662</v>
+        <v>1094272.2547482799</v>
       </c>
       <c r="AS26">
-        <v>8801587.9834044594</v>
+        <v>916198.04100374004</v>
       </c>
       <c r="AT26">
-        <v>5254095.5385448402</v>
+        <v>1022587.5497854199</v>
       </c>
       <c r="AU26">
-        <v>10612826.425395399</v>
+        <v>1198879.66275032</v>
       </c>
       <c r="AV26">
-        <v>15387415.5139826</v>
+        <v>924057.65913554898</v>
       </c>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>16234151.222166801</v>
+        <v>1016402.70905398</v>
       </c>
       <c r="B27">
-        <v>5986592.4753209101</v>
+        <v>1105709.7986143699</v>
       </c>
       <c r="C27">
-        <v>8853377.9453023393</v>
+        <v>1072920.6226985401</v>
       </c>
       <c r="D27">
-        <v>14476444.602669399</v>
+        <v>505313.90155887901</v>
       </c>
       <c r="E27">
-        <v>7080599.1672427999</v>
+        <v>1457187.0755964301</v>
       </c>
       <c r="F27">
-        <v>10675215.9160654</v>
+        <v>948816.45814496896</v>
       </c>
       <c r="G27">
-        <v>14088148.7848628</v>
+        <v>887306.05227848305</v>
       </c>
       <c r="H27">
-        <v>11230113.822280999</v>
+        <v>1640700.44323783</v>
       </c>
       <c r="I27">
-        <v>10434794.6996284</v>
+        <v>827244.87718525401</v>
       </c>
       <c r="J27">
-        <v>13655384.8605105</v>
+        <v>1583244.1601674701</v>
       </c>
       <c r="K27">
-        <v>16310116.7158143</v>
+        <v>1083638.63815776</v>
       </c>
       <c r="L27">
-        <v>15417187.36069</v>
+        <v>936867.08740968804</v>
       </c>
       <c r="M27">
-        <v>6377710.6337093199</v>
+        <v>778863.56689552602</v>
       </c>
       <c r="N27">
-        <v>12241683.431784499</v>
+        <v>1626336.63397169</v>
       </c>
       <c r="O27">
-        <v>14025443.577613899</v>
+        <v>1819780.41334919</v>
       </c>
       <c r="P27">
-        <v>8060499.8282276504</v>
+        <v>925164.59183822596</v>
       </c>
       <c r="Q27">
-        <v>8725709.2434107792</v>
+        <v>1526286.8166477999</v>
       </c>
       <c r="R27">
-        <v>14181189.1712166</v>
+        <v>952103.70488655998</v>
       </c>
       <c r="S27">
-        <v>8390144.2413108703</v>
+        <v>799369.80671096698</v>
       </c>
       <c r="T27">
-        <v>9902118.7999043595</v>
+        <v>486159.65065788699</v>
       </c>
       <c r="U27">
-        <v>10773962.529311299</v>
+        <v>1036634.34907315</v>
       </c>
       <c r="V27">
-        <v>10124907.5520753</v>
+        <v>974529.32922227704</v>
       </c>
       <c r="W27">
-        <v>12769698.1607951</v>
+        <v>1097848.5864679201</v>
       </c>
       <c r="X27">
-        <v>8079555.1221347703</v>
+        <v>749700.20536683197</v>
       </c>
       <c r="Y27">
-        <v>2327694.5044212202</v>
+        <v>778768.33990256605</v>
       </c>
       <c r="Z27">
-        <v>11550998.6805011</v>
+        <v>1431027.9414280099</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>5122930.3915623697</v>
+        <v>66690.985378110607</v>
       </c>
       <c r="AC27">
-        <v>9830115.8037001509</v>
+        <v>1390695.3489121799</v>
       </c>
       <c r="AD27">
-        <v>10726453.3473041</v>
+        <v>1426571.55416451</v>
       </c>
       <c r="AE27">
-        <v>6462808.5396283297</v>
+        <v>973019.79409767</v>
       </c>
       <c r="AF27">
-        <v>6791956.9757436598</v>
+        <v>1516677.2238781699</v>
       </c>
       <c r="AG27">
-        <v>8567398.9197037704</v>
+        <v>611037.64338986797</v>
       </c>
       <c r="AH27">
-        <v>866788.62136055296</v>
+        <v>1189350.89254242</v>
       </c>
       <c r="AI27">
-        <v>3898041.1562013598</v>
+        <v>1599212.1841762899</v>
       </c>
       <c r="AJ27">
-        <v>12644238.4578494</v>
+        <v>627599.24462321296</v>
       </c>
       <c r="AK27">
-        <v>16036511.1798671</v>
+        <v>1311504.25123733</v>
       </c>
       <c r="AL27">
-        <v>4834820.9558299398</v>
+        <v>1249796.71926545</v>
       </c>
       <c r="AM27">
-        <v>6572780.77296797</v>
+        <v>1203795.3355988199</v>
       </c>
       <c r="AN27">
-        <v>8792892.8941779509</v>
+        <v>778830.99725564895</v>
       </c>
       <c r="AO27">
-        <v>10825009.633233299</v>
+        <v>1332786.3332561799</v>
       </c>
       <c r="AP27">
-        <v>15720369.836162699</v>
+        <v>1578274.9340113599</v>
       </c>
       <c r="AQ27">
-        <v>4445748.53078405</v>
+        <v>1180677.2919974199</v>
       </c>
       <c r="AR27">
-        <v>9153596.7184168603</v>
+        <v>1056091.36945642</v>
       </c>
       <c r="AS27">
-        <v>15651190.9704396</v>
+        <v>528556.70310817205</v>
       </c>
       <c r="AT27">
-        <v>8466814.7481549494</v>
+        <v>830945.12058599002</v>
       </c>
       <c r="AU27">
-        <v>15668828.932604</v>
+        <v>234076.44502494199</v>
       </c>
       <c r="AV27">
-        <v>11009838.743383201</v>
+        <v>871580.11757765198</v>
       </c>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>15064248.570695899</v>
+        <v>951329.35162399698</v>
       </c>
       <c r="B28">
-        <v>10178356.2167348</v>
+        <v>1089702.09817766</v>
       </c>
       <c r="C28">
-        <v>8301364.7295646798</v>
+        <v>1011629.5177542201</v>
       </c>
       <c r="D28">
-        <v>11212574.699551299</v>
+        <v>439614.84073846298</v>
       </c>
       <c r="E28">
-        <v>12187100.9075647</v>
+        <v>1392886.9843907901</v>
       </c>
       <c r="F28">
-        <v>15322067.051452599</v>
+        <v>882297.40457629401</v>
       </c>
       <c r="G28">
-        <v>8971398.3496776596</v>
+        <v>880875.98425446101</v>
       </c>
       <c r="H28">
-        <v>6410285.17108138</v>
+        <v>1602938.98237643</v>
       </c>
       <c r="I28">
-        <v>5374135.08977977</v>
+        <v>762676.73171860003</v>
       </c>
       <c r="J28">
-        <v>11507969.735301699</v>
+        <v>1524510.8840749699</v>
       </c>
       <c r="K28">
-        <v>11447215.660832301</v>
+        <v>1026985.16756235</v>
       </c>
       <c r="L28">
-        <v>13738662.1485822</v>
+        <v>899361.56688690395</v>
       </c>
       <c r="M28">
-        <v>7296204.8852139497</v>
+        <v>714129.342156681</v>
       </c>
       <c r="N28">
-        <v>11221235.103883401</v>
+        <v>1567505.9000184501</v>
       </c>
       <c r="O28">
-        <v>18153257.7229634</v>
+        <v>1757181.3910944599</v>
       </c>
       <c r="P28">
-        <v>5330748.05395287</v>
+        <v>866997.97517594404</v>
       </c>
       <c r="Q28">
-        <v>10724257.649039401</v>
+        <v>1463427.42671591</v>
       </c>
       <c r="R28">
-        <v>10356089.4775647</v>
+        <v>949024.58137237001</v>
       </c>
       <c r="S28">
-        <v>13279951.307322299</v>
+        <v>747695.55130002601</v>
       </c>
       <c r="T28">
-        <v>14281816.509288</v>
+        <v>435739.75717701699</v>
       </c>
       <c r="U28">
-        <v>13492281.972252799</v>
+        <v>1021187.67359448</v>
       </c>
       <c r="V28">
-        <v>6208681.9510180904</v>
+        <v>912619.59216766397</v>
       </c>
       <c r="W28">
-        <v>12679873.286641801</v>
+        <v>1065277.7129500001</v>
       </c>
       <c r="X28">
-        <v>4695887.8690336104</v>
+        <v>686226.94689558295</v>
       </c>
       <c r="Y28">
-        <v>3463450.1454423098</v>
+        <v>712688.13056974194</v>
       </c>
       <c r="Z28">
-        <v>16359340.822064901</v>
+        <v>1367809.1265841499</v>
       </c>
       <c r="AA28">
-        <v>5122930.3915623697</v>
+        <v>66690.985378110607</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>6600417.9232943198</v>
+        <v>1331886.6721546601</v>
       </c>
       <c r="AD28">
-        <v>6937350.0193424895</v>
+        <v>1367820.9815968</v>
       </c>
       <c r="AE28">
-        <v>5726246.4588612998</v>
+        <v>922442.07084504899</v>
       </c>
       <c r="AF28">
-        <v>10931912.335158801</v>
+        <v>1452219.36822693</v>
       </c>
       <c r="AG28">
-        <v>12408423.4052564</v>
+        <v>577251.80563737103</v>
       </c>
       <c r="AH28">
-        <v>5562762.4384570597</v>
+        <v>1172325.02910362</v>
       </c>
       <c r="AI28">
-        <v>8358844.1621352201</v>
+        <v>1552850.83130696</v>
       </c>
       <c r="AJ28">
-        <v>11594900.0511695</v>
+        <v>581622.48601083097</v>
       </c>
       <c r="AK28">
-        <v>11429163.8399406</v>
+        <v>1249828.9382076899</v>
       </c>
       <c r="AL28">
-        <v>9954783.7168323491</v>
+        <v>1190067.69387512</v>
       </c>
       <c r="AM28">
-        <v>1958796.2167754101</v>
+        <v>1141124.25961527</v>
       </c>
       <c r="AN28">
-        <v>11303137.9719659</v>
+        <v>736789.03747839003</v>
       </c>
       <c r="AO28">
-        <v>11805877.047829799</v>
+        <v>1267366.1678140101</v>
       </c>
       <c r="AP28">
-        <v>10731023.000926301</v>
+        <v>1522166.6524676201</v>
       </c>
       <c r="AQ28">
-        <v>4037605.2193778399</v>
+        <v>1118664.75499216</v>
       </c>
       <c r="AR28">
-        <v>7814377.4578879001</v>
+        <v>1032779.28291548</v>
       </c>
       <c r="AS28">
-        <v>12731024.016790301</v>
+        <v>462551.57289774797</v>
       </c>
       <c r="AT28">
-        <v>11566298.179372299</v>
+        <v>771930.06571635895</v>
       </c>
       <c r="AU28">
-        <v>11468449.321055301</v>
+        <v>169216.82578724399</v>
       </c>
       <c r="AV28">
-        <v>7765685.4757822901</v>
+        <v>836892.35742181598</v>
       </c>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>8522076.2434354704</v>
+        <v>886607.36757757002</v>
       </c>
       <c r="B29">
-        <v>10037107.264371401</v>
+        <v>1023187.13877577</v>
       </c>
       <c r="C29">
-        <v>3619285.53492236</v>
+        <v>334856.95983329299</v>
       </c>
       <c r="D29">
-        <v>4882994.3429504205</v>
+        <v>924314.41442552197</v>
       </c>
       <c r="E29">
-        <v>14531363.6680908</v>
+        <v>1027418.51772356</v>
       </c>
       <c r="F29">
-        <v>17078335.767978001</v>
+        <v>761157.85151226597</v>
       </c>
       <c r="G29">
-        <v>6201671.1242319699</v>
+        <v>1136559.5477605299</v>
       </c>
       <c r="H29">
-        <v>3377727.6202672902</v>
+        <v>744166.73725608899</v>
       </c>
       <c r="I29">
-        <v>6164991.5442458903</v>
+        <v>617458.97947991104</v>
       </c>
       <c r="J29">
-        <v>4909126.9855877496</v>
+        <v>192628.88648685001</v>
       </c>
       <c r="K29">
-        <v>6750865.5301805399</v>
+        <v>315550.21844143799</v>
       </c>
       <c r="L29">
-        <v>13578364.9485787</v>
+        <v>691996.66453493002</v>
       </c>
       <c r="M29">
-        <v>13820988.068927901</v>
+        <v>947016.78764645196</v>
       </c>
       <c r="N29">
-        <v>4864471.2068702504</v>
+        <v>235646.120647376</v>
       </c>
       <c r="O29">
-        <v>12197218.202044001</v>
+        <v>478034.979629045</v>
       </c>
       <c r="P29">
-        <v>1771499.9495588299</v>
+        <v>465779.70926286298</v>
       </c>
       <c r="Q29">
-        <v>17167923.827521302</v>
+        <v>1151959.48332509</v>
       </c>
       <c r="R29">
-        <v>10721961.0716024</v>
+        <v>1192357.35409516</v>
       </c>
       <c r="S29">
-        <v>12703637.5381588</v>
+        <v>620002.59960560896</v>
       </c>
       <c r="T29">
-        <v>17912049.569008101</v>
+        <v>1269515.48439249</v>
       </c>
       <c r="U29">
-        <v>8986274.7835197002</v>
+        <v>1022345.17312072</v>
       </c>
       <c r="V29">
-        <v>1146887.06301465</v>
+        <v>1040309.32453318</v>
       </c>
       <c r="W29">
-        <v>6428308.1235956596</v>
+        <v>733211.42449602205</v>
       </c>
       <c r="X29">
-        <v>1956518.3684179401</v>
+        <v>667057.72938076896</v>
       </c>
       <c r="Y29">
-        <v>9571796.7758814804</v>
+        <v>710539.34983704798</v>
       </c>
       <c r="Z29">
-        <v>12986538.449294999</v>
+        <v>231560.71984216399</v>
       </c>
       <c r="AA29">
-        <v>9830115.8037001509</v>
+        <v>1390695.3489121799</v>
       </c>
       <c r="AB29">
-        <v>6600417.9232943198</v>
+        <v>1331886.6721546601</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>1133378.49110758</v>
+        <v>35996.166534020202</v>
       </c>
       <c r="AE29">
-        <v>11998089.290307499</v>
+        <v>481604.13951769302</v>
       </c>
       <c r="AF29">
-        <v>16547807.5615971</v>
+        <v>348237.40672667499</v>
       </c>
       <c r="AG29">
-        <v>18293275.147308301</v>
+        <v>907998.92146956804</v>
       </c>
       <c r="AH29">
-        <v>10665168.5338862</v>
+        <v>1022829.42646886</v>
       </c>
       <c r="AI29">
-        <v>9981094.5875624493</v>
+        <v>498414.76433841197</v>
       </c>
       <c r="AJ29">
-        <v>14504768.439691201</v>
+        <v>809489.56156082603</v>
       </c>
       <c r="AK29">
-        <v>6292148.46188966</v>
+        <v>154729.655749489</v>
       </c>
       <c r="AL29">
-        <v>13120321.815921601</v>
+        <v>1182846.1214024499</v>
       </c>
       <c r="AM29">
-        <v>4687107.9356013397</v>
+        <v>1041656.42846195</v>
       </c>
       <c r="AN29">
-        <v>17865691.104347501</v>
+        <v>723796.54046193999</v>
       </c>
       <c r="AO29">
-        <v>6544347.2630866999</v>
+        <v>891680.30240241298</v>
       </c>
       <c r="AP29">
-        <v>6513867.8168441299</v>
+        <v>1473768.7863016899</v>
       </c>
       <c r="AQ29">
-        <v>5420304.8730968302</v>
+        <v>1067249.9532937401</v>
       </c>
       <c r="AR29">
-        <v>2621502.6945674699</v>
+        <v>896416.76315793104</v>
       </c>
       <c r="AS29">
-        <v>6371361.97071773</v>
+        <v>910884.97654202499</v>
       </c>
       <c r="AT29">
-        <v>8737489.4946730994</v>
+        <v>1124430.2505709999</v>
       </c>
       <c r="AU29">
-        <v>5838781.2762233904</v>
+        <v>1167561.5188683299</v>
       </c>
       <c r="AV29">
-        <v>10852013.024545699</v>
+        <v>759224.67737410998</v>
       </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>8127953.2163598305</v>
+        <v>913546.96433873801</v>
       </c>
       <c r="B30">
-        <v>11125128.544245999</v>
+        <v>1043306.26330576</v>
       </c>
       <c r="C30">
-        <v>4584996.1599563099</v>
+        <v>370216.24441494403</v>
       </c>
       <c r="D30">
-        <v>4295447.2569215801</v>
+        <v>960170.38374255795</v>
       </c>
       <c r="E30">
-        <v>15619469.1484411</v>
+        <v>1041468.4026831799</v>
       </c>
       <c r="F30">
-        <v>17404953.993447699</v>
+        <v>790637.04689011502</v>
       </c>
       <c r="G30">
-        <v>5072132.9299082803</v>
+        <v>1162505.3828276501</v>
       </c>
       <c r="H30">
-        <v>2420143.0105325701</v>
+        <v>738364.53397982195</v>
       </c>
       <c r="I30">
-        <v>5427515.5103482697</v>
+        <v>652503.21256828494</v>
       </c>
       <c r="J30">
-        <v>4695618.1476447396</v>
+        <v>156692.45652276301</v>
       </c>
       <c r="K30">
-        <v>5732400.6701186197</v>
+        <v>350214.56961820298</v>
       </c>
       <c r="L30">
-        <v>12455817.465644</v>
+        <v>719159.93438051397</v>
       </c>
       <c r="M30">
-        <v>13840901.729033399</v>
+        <v>978996.10372480995</v>
       </c>
       <c r="N30">
-        <v>5081672.5107652498</v>
+        <v>199771.83083489799</v>
       </c>
       <c r="O30">
-        <v>12150855.812960999</v>
+        <v>448971.69435373798</v>
       </c>
       <c r="P30">
-        <v>2774528.9057800202</v>
+        <v>501575.93341305101</v>
       </c>
       <c r="Q30">
-        <v>16847529.584082998</v>
+        <v>1165498.8305287999</v>
       </c>
       <c r="R30">
-        <v>9624993.8106245995</v>
+        <v>1217008.75473161</v>
       </c>
       <c r="S30">
-        <v>13606151.5650697</v>
+        <v>654348.50918380497</v>
       </c>
       <c r="T30">
-        <v>18491899.009296801</v>
+        <v>1304185.0870886999</v>
       </c>
       <c r="U30">
-        <v>9569079.5374681093</v>
+        <v>1044431.92527069</v>
       </c>
       <c r="V30">
-        <v>729402.957464115</v>
+        <v>1068162.6252152801</v>
       </c>
       <c r="W30">
-        <v>6621261.5947195003</v>
+        <v>753653.70092028903</v>
       </c>
       <c r="X30">
-        <v>2653825.3824328501</v>
+        <v>702800.42990962602</v>
       </c>
       <c r="Y30">
-        <v>10166418.2924759</v>
+        <v>744975.37036483095</v>
       </c>
       <c r="Z30">
-        <v>13378846.3240248</v>
+        <v>233905.80938475399</v>
       </c>
       <c r="AA30">
-        <v>10726453.3473041</v>
+        <v>1426571.55416451</v>
       </c>
       <c r="AB30">
-        <v>6937350.0193424895</v>
+        <v>1367820.9815968</v>
       </c>
       <c r="AC30">
-        <v>1133378.49110758</v>
+        <v>35996.166534020202</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>11899434.976761101</v>
+        <v>513304.62109855801</v>
       </c>
       <c r="AF30">
-        <v>17517981.9239715</v>
+        <v>343801.61426705698</v>
       </c>
       <c r="AG30">
-        <v>19286684.8029719</v>
+        <v>940989.04488904704</v>
       </c>
       <c r="AH30">
-        <v>11530026.3672352</v>
+        <v>1040412.22924129</v>
       </c>
       <c r="AI30">
-        <v>11113280.8141635</v>
+        <v>486919.75321964797</v>
       </c>
       <c r="AJ30">
-        <v>13442706.5663068</v>
+        <v>843868.402962261</v>
       </c>
       <c r="AK30">
-        <v>5328936.3417595597</v>
+        <v>179261.125207515</v>
       </c>
       <c r="AL30">
-        <v>14249876.978959501</v>
+        <v>1204839.1620653199</v>
       </c>
       <c r="AM30">
-        <v>4978563.56585324</v>
+        <v>1063832.83702343</v>
       </c>
       <c r="AN30">
-        <v>17644771.8650265</v>
+        <v>755778.30772188504</v>
       </c>
       <c r="AO30">
-        <v>7120455.8530169697</v>
+        <v>908617.75708067499</v>
       </c>
       <c r="AP30">
-        <v>5433792.0151279997</v>
+        <v>1490723.28408588</v>
       </c>
       <c r="AQ30">
-        <v>6401762.6670234101</v>
+        <v>1090208.3777866401</v>
       </c>
       <c r="AR30">
-        <v>3591335.7220520801</v>
+        <v>917849.09528387198</v>
       </c>
       <c r="AS30">
-        <v>5819810.4722851999</v>
+        <v>946649.80190655403</v>
       </c>
       <c r="AT30">
-        <v>9629766.4277484994</v>
+        <v>1155056.8091247799</v>
       </c>
       <c r="AU30">
-        <v>4972964.5729879802</v>
+        <v>1203545.13465978</v>
       </c>
       <c r="AV30">
-        <v>10023922.5234068</v>
+        <v>787572.15132639301</v>
       </c>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>17284590.161612999</v>
+        <v>864207.40883816604</v>
       </c>
       <c r="B31">
-        <v>12051492.6241716</v>
+        <v>636231.12822779</v>
       </c>
       <c r="C31">
-        <v>13945883.6552807</v>
+        <v>314954.40298166999</v>
       </c>
       <c r="D31">
-        <v>15232707.5732188</v>
+        <v>592815.23800891498</v>
       </c>
       <c r="E31">
-        <v>10155226.5093462</v>
+        <v>1187346.8565486199</v>
       </c>
       <c r="F31">
-        <v>10700396.601164101</v>
+        <v>707987.87330954999</v>
       </c>
       <c r="G31">
-        <v>10428400.443523301</v>
+        <v>683533.68845164601</v>
       </c>
       <c r="H31">
-        <v>10138249.021014299</v>
+        <v>745487.85965187696</v>
       </c>
       <c r="I31">
-        <v>7209161.3660688903</v>
+        <v>420559.62986207497</v>
       </c>
       <c r="J31">
-        <v>16423113.9579877</v>
+        <v>659829.53886442597</v>
       </c>
       <c r="K31">
-        <v>12983726.789068799</v>
+        <v>187342.33101366501</v>
       </c>
       <c r="L31">
-        <v>9396140.8023251593</v>
+        <v>246018.62724889899</v>
       </c>
       <c r="M31">
-        <v>1983313.9853910001</v>
+        <v>794983.39454823104</v>
       </c>
       <c r="N31">
-        <v>16853897.327909101</v>
+        <v>702336.53772086999</v>
       </c>
       <c r="O31">
-        <v>15788298.0618515</v>
+        <v>958494.15163369803</v>
       </c>
       <c r="P31">
-        <v>11020140.043800799</v>
+        <v>189377.64614039799</v>
       </c>
       <c r="Q31">
-        <v>5174964.7427247604</v>
+        <v>1307989.9509134199</v>
       </c>
       <c r="R31">
-        <v>7880416.2811466902</v>
+        <v>749589.37246580201</v>
       </c>
       <c r="S31">
-        <v>12751980.022288701</v>
+        <v>175617.80362884601</v>
       </c>
       <c r="T31">
-        <v>9601837.1715092696</v>
+        <v>989339.29904672795</v>
       </c>
       <c r="U31">
-        <v>16928861.748532798</v>
+        <v>612265.26222246804</v>
       </c>
       <c r="V31">
-        <v>11231504.8322889</v>
+        <v>978008.74904328003</v>
       </c>
       <c r="W31">
-        <v>18391452.610304099</v>
+        <v>376251.73841834703</v>
       </c>
       <c r="X31">
-        <v>10281447.689234201</v>
+        <v>398129.50252947002</v>
       </c>
       <c r="Y31">
-        <v>4524140.0486524096</v>
+        <v>515980.58386078</v>
       </c>
       <c r="Z31">
-        <v>14597735.6495906</v>
+        <v>630014.07822786097</v>
       </c>
       <c r="AA31">
-        <v>6462808.5396283297</v>
+        <v>973019.79409767</v>
       </c>
       <c r="AB31">
-        <v>5726246.4588612998</v>
+        <v>922442.07084504899</v>
       </c>
       <c r="AC31">
-        <v>11998089.290307499</v>
+        <v>481604.13951769302</v>
       </c>
       <c r="AD31">
-        <v>11899434.976761101</v>
+        <v>513304.62109855801</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>6991149.0668410603</v>
+        <v>752010.60195995297</v>
       </c>
       <c r="AG31">
-        <v>7656834.6773143699</v>
+        <v>430652.13332649099</v>
       </c>
       <c r="AH31">
-        <v>5955909.8877050001</v>
+        <v>667312.67010341794</v>
       </c>
       <c r="AI31">
-        <v>10087250.560650401</v>
+        <v>638299.39295688295</v>
       </c>
       <c r="AJ31">
-        <v>6607663.2728569498</v>
+        <v>351500.980345666</v>
       </c>
       <c r="AK31">
-        <v>13511434.3300297</v>
+        <v>482247.082522629</v>
       </c>
       <c r="AL31">
-        <v>8971556.6952350102</v>
+        <v>1214756.8014831501</v>
       </c>
       <c r="AM31">
-        <v>7423977.5993706696</v>
+        <v>1084220.64492643</v>
       </c>
       <c r="AN31">
-        <v>5882454.8045919798</v>
+        <v>242568.61411373399</v>
       </c>
       <c r="AO31">
-        <v>17121560.211424801</v>
+        <v>1028929.79505559</v>
       </c>
       <c r="AP31">
-        <v>12252344.3330916</v>
+        <v>1563277.5727962099</v>
       </c>
       <c r="AQ31">
-        <v>9106574.7392313592</v>
+        <v>1094094.0678808801</v>
       </c>
       <c r="AR31">
-        <v>13539248.43352</v>
+        <v>503300.50560271402</v>
       </c>
       <c r="AS31">
-        <v>16102727.783740601</v>
+        <v>591942.03342262004</v>
       </c>
       <c r="AT31">
-        <v>14796045.8586806</v>
+        <v>988295.48615337897</v>
       </c>
       <c r="AU31">
-        <v>14183072.8245498</v>
+        <v>774085.13701643702</v>
       </c>
       <c r="AV31">
-        <v>4812186.0585785303</v>
+        <v>295429.97042536602</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>13861105.9552419</v>
+        <v>759585.232864619</v>
       </c>
       <c r="B32">
-        <v>7479212.7701241001</v>
+        <v>1350314.8253699201</v>
       </c>
       <c r="C32">
-        <v>14017759.103637001</v>
+        <v>477358.08027238102</v>
       </c>
       <c r="D32">
-        <v>17673905.179826599</v>
+        <v>1014607.92282026</v>
       </c>
       <c r="E32">
-        <v>3488162.8373210002</v>
+        <v>755178.24029035994</v>
       </c>
       <c r="F32">
-        <v>4397749.5240474101</v>
+        <v>685388.88888783695</v>
       </c>
       <c r="G32">
-        <v>16453374.9895269</v>
+        <v>1434305.17474042</v>
       </c>
       <c r="H32">
-        <v>17048129.820769899</v>
+        <v>1077000.5584795601</v>
       </c>
       <c r="I32">
-        <v>14187535.456280001</v>
+        <v>689544.62709904602</v>
       </c>
       <c r="J32">
-        <v>16553958.135472</v>
+        <v>357987.73842917097</v>
       </c>
       <c r="K32">
-        <v>16703941.278993299</v>
+        <v>564694.70860560902</v>
       </c>
       <c r="L32">
-        <v>9743313.9451316297</v>
+        <v>989810.019522983</v>
       </c>
       <c r="M32">
-        <v>5049720.5150651997</v>
+        <v>903187.21670712798</v>
       </c>
       <c r="N32">
-        <v>15330869.598718701</v>
+        <v>368813.49650221202</v>
       </c>
       <c r="O32">
-        <v>9552236.2983903997</v>
+        <v>338664.13221114001</v>
       </c>
       <c r="P32">
-        <v>14790850.1421453</v>
+        <v>655013.76314854203</v>
       </c>
       <c r="Q32">
-        <v>3552131.8298065802</v>
+        <v>873150.45808309002</v>
       </c>
       <c r="R32">
-        <v>11881401.2399722</v>
+        <v>1497449.8522542501</v>
       </c>
       <c r="S32">
-        <v>6107723.6806443902</v>
+        <v>841212.543070363</v>
       </c>
       <c r="T32">
-        <v>3359063.2716074102</v>
+        <v>1281447.9751482899</v>
       </c>
       <c r="U32">
-        <v>10635595.4248817</v>
+        <v>1341809.6365159701</v>
       </c>
       <c r="V32">
-        <v>16897293.387494698</v>
+        <v>917356.75726619095</v>
       </c>
       <c r="W32">
-        <v>14115977.0042796</v>
+        <v>1061755.55549366</v>
       </c>
       <c r="X32">
-        <v>14869597.036134399</v>
+        <v>768403.42690563796</v>
       </c>
       <c r="Y32">
-        <v>7532947.70070777</v>
+        <v>750050.03107214498</v>
       </c>
       <c r="Z32">
-        <v>7662825.3424081998</v>
+        <v>125472.762000084</v>
       </c>
       <c r="AA32">
-        <v>6791956.9757436598</v>
+        <v>1516677.2238781699</v>
       </c>
       <c r="AB32">
-        <v>10931912.335158801</v>
+        <v>1452219.36822693</v>
       </c>
       <c r="AC32">
-        <v>16547807.5615971</v>
+        <v>348237.40672667499</v>
       </c>
       <c r="AD32">
-        <v>17517981.9239715</v>
+        <v>343801.61426705698</v>
       </c>
       <c r="AE32">
-        <v>6991149.0668410603</v>
+        <v>752010.60195995297</v>
       </c>
       <c r="AF32">
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>1781015.71549513</v>
+        <v>1139864.8152737301</v>
       </c>
       <c r="AH32">
-        <v>5994991.4880535603</v>
+        <v>1357759.83165986</v>
       </c>
       <c r="AI32">
-        <v>6884149.2592348196</v>
+        <v>817534.955345592</v>
       </c>
       <c r="AJ32">
-        <v>8099416.0999331204</v>
+        <v>1018603.22714264</v>
       </c>
       <c r="AK32">
-        <v>17152764.788348</v>
+        <v>271083.802799778</v>
       </c>
       <c r="AL32">
-        <v>3813542.6162705701</v>
+        <v>978709.20007056301</v>
       </c>
       <c r="AM32">
-        <v>12842167.245338799</v>
+        <v>844755.44029613596</v>
       </c>
       <c r="AN32">
-        <v>2994435.9263078701</v>
+        <v>977287.12352531101</v>
       </c>
       <c r="AO32">
-        <v>12821937.4755599</v>
+        <v>648576.43282977794</v>
       </c>
       <c r="AP32">
-        <v>16857771.366603199</v>
+        <v>1215874.3845557999</v>
       </c>
       <c r="AQ32">
-        <v>11140260.2937233</v>
+        <v>878183.10426566401</v>
       </c>
       <c r="AR32">
-        <v>14856177.9105189</v>
+        <v>1219715.6575303201</v>
       </c>
       <c r="AS32">
-        <v>16264666.241260201</v>
+        <v>993869.02809702896</v>
       </c>
       <c r="AT32">
-        <v>9705269.3922829591</v>
+        <v>1043697.02595292</v>
       </c>
       <c r="AU32">
-        <v>17486922.265694</v>
+        <v>1283015.8617157401</v>
       </c>
       <c r="AV32">
-        <v>10408268.226337399</v>
+        <v>1046848.5696957801</v>
       </c>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>12520783.301382501</v>
+        <v>979723.44255132996</v>
       </c>
       <c r="B33">
-        <v>8552290.6177984104</v>
+        <v>554688.27292360098</v>
       </c>
       <c r="C33">
-        <v>15182258.9163971</v>
+        <v>663749.28106387402</v>
       </c>
       <c r="D33">
-        <v>16382250.333674099</v>
+        <v>460404.79965117498</v>
       </c>
       <c r="E33">
-        <v>4109512.2224021801</v>
+        <v>1391740.8611425399</v>
       </c>
       <c r="F33">
-        <v>3105623.55467078</v>
+        <v>840177.38229692704</v>
       </c>
       <c r="G33">
-        <v>15353941.501780201</v>
+        <v>426023.508364807</v>
       </c>
       <c r="H33">
-        <v>17550294.624665901</v>
+        <v>1030417.70748243</v>
       </c>
       <c r="I33">
-        <v>14434835.328980399</v>
+        <v>562564.47102106095</v>
       </c>
       <c r="J33">
-        <v>15846905.689540399</v>
+        <v>1089954.71168742</v>
       </c>
       <c r="K33">
-        <v>14945903.7562185</v>
+        <v>596603.248049377</v>
       </c>
       <c r="L33">
-        <v>8113377.68838879</v>
+        <v>327833.02367654297</v>
       </c>
       <c r="M33">
-        <v>5685034.2643815</v>
+        <v>809398.77382389596</v>
       </c>
       <c r="N33">
-        <v>15246477.332523201</v>
+        <v>1132636.9910923899</v>
       </c>
       <c r="O33">
-        <v>8406344.2683427297</v>
+        <v>1380416.7785469501</v>
       </c>
       <c r="P33">
-        <v>16562644.1860089</v>
+        <v>485517.76122942002</v>
       </c>
       <c r="Q33">
-        <v>2978823.0860815998</v>
+        <v>1497639.0048655099</v>
       </c>
       <c r="R33">
-        <v>10727048.682995901</v>
+        <v>506908.068173623</v>
       </c>
       <c r="S33">
-        <v>6359491.1819674997</v>
+        <v>298890.45760407601</v>
       </c>
       <c r="T33">
-        <v>1983495.54469984</v>
+        <v>813399.27994414803</v>
       </c>
       <c r="U33">
-        <v>10611106.277704</v>
+        <v>492690.63471416099</v>
       </c>
       <c r="V33">
-        <v>18596053.170710199</v>
+        <v>1034982.7137828</v>
       </c>
       <c r="W33">
-        <v>13755081.437415101</v>
+        <v>488026.69348798698</v>
       </c>
       <c r="X33">
-        <v>16634204.672575399</v>
+        <v>480012.32497835398</v>
       </c>
       <c r="Y33">
-        <v>9136927.8931531105</v>
+        <v>599643.07527997205</v>
       </c>
       <c r="Z33">
-        <v>6981629.1649705498</v>
+        <v>1026495.05830412</v>
       </c>
       <c r="AA33">
-        <v>8567398.9197037704</v>
+        <v>611037.64338986797</v>
       </c>
       <c r="AB33">
-        <v>12408423.4052564</v>
+        <v>577251.80563737103</v>
       </c>
       <c r="AC33">
-        <v>18293275.147308301</v>
+        <v>907998.92146956804</v>
       </c>
       <c r="AD33">
-        <v>19286684.8029719</v>
+        <v>940989.04488904704</v>
       </c>
       <c r="AE33">
-        <v>7656834.6773143699</v>
+        <v>430652.13332649099</v>
       </c>
       <c r="AF33">
-        <v>1781015.71549513</v>
+        <v>1139864.8152737301</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>7759553.9547756901</v>
+        <v>629570.866381592</v>
       </c>
       <c r="AI33">
-        <v>8372494.9402291495</v>
+        <v>1008429.11419093</v>
       </c>
       <c r="AJ33">
-        <v>6878657.9849403501</v>
+        <v>137326.93177334199</v>
       </c>
       <c r="AK33">
-        <v>15372055.9761914</v>
+        <v>882710.54382765305</v>
       </c>
       <c r="AL33">
-        <v>5227444.8140513003</v>
+        <v>1316466.17968693</v>
       </c>
       <c r="AM33">
-        <v>14364081.8814159</v>
+        <v>1212238.02419198</v>
       </c>
       <c r="AN33">
-        <v>2196005.03767832</v>
+        <v>192376.00557737099</v>
       </c>
       <c r="AO33">
-        <v>13025703.0627301</v>
+        <v>1236342.5633563299</v>
       </c>
       <c r="AP33">
-        <v>15197487.936182801</v>
+        <v>1679254.8328746101</v>
       </c>
       <c r="AQ33">
-        <v>12917009.941253699</v>
+        <v>1207897.8616581301</v>
       </c>
       <c r="AR33">
-        <v>16142115.4037471</v>
+        <v>470879.80446638598</v>
       </c>
       <c r="AS33">
-        <v>14859475.864057001</v>
+        <v>479273.78078090999</v>
       </c>
       <c r="AT33">
-        <v>10292375.6073773</v>
+        <v>973124.96592735103</v>
       </c>
       <c r="AU33">
-        <v>15744474.594262101</v>
+        <v>476783.40262479801</v>
       </c>
       <c r="AV33">
-        <v>9992626.8811886907</v>
+        <v>260543.44217557699</v>
       </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>16763133.174484299</v>
+        <v>1504227.09060573</v>
       </c>
       <c r="B34">
-        <v>6235310.4555069199</v>
+        <v>85058.755030123299</v>
       </c>
       <c r="C34">
-        <v>9687067.1642203592</v>
+        <v>978249.85535886895</v>
       </c>
       <c r="D34">
-        <v>15343151.241443999</v>
+        <v>1071896.1705374001</v>
       </c>
       <c r="E34">
-        <v>6639412.9560010601</v>
+        <v>1853406.35401308</v>
       </c>
       <c r="F34">
-        <v>10024391.7108879</v>
+        <v>1349655.07660653</v>
       </c>
       <c r="G34">
-        <v>14495042.4939676</v>
+        <v>339289.07342201797</v>
       </c>
       <c r="H34">
-        <v>11853910.3556618</v>
+        <v>644369.065484536</v>
       </c>
       <c r="I34">
-        <v>10715771.7298423</v>
+        <v>1049724.0609446899</v>
       </c>
       <c r="J34">
-        <v>14494575.747909101</v>
+        <v>1134925.2875733899</v>
       </c>
       <c r="K34">
-        <v>16966533.3472852</v>
+        <v>830646.72312046005</v>
       </c>
       <c r="L34">
-        <v>14612931.410955099</v>
+        <v>437576.17240469501</v>
       </c>
       <c r="M34">
-        <v>5646418.5060577104</v>
+        <v>1384404.5092889599</v>
       </c>
       <c r="N34">
-        <v>13034028.2248664</v>
+        <v>1166998.4498485399</v>
       </c>
       <c r="O34">
-        <v>13863340.8990374</v>
+        <v>1465416.85487623</v>
       </c>
       <c r="P34">
-        <v>8899587.4103717301</v>
+        <v>848672.90332998196</v>
       </c>
       <c r="Q34">
-        <v>7864746.9464653796</v>
+        <v>1972894.49830209</v>
       </c>
       <c r="R34">
-        <v>13812601.889399899</v>
+        <v>320722.56952748803</v>
       </c>
       <c r="S34">
-        <v>8253613.3583376501</v>
+        <v>715824.51057428098</v>
       </c>
       <c r="T34">
-        <v>9186126.7369157095</v>
+        <v>1442265.93088032</v>
       </c>
       <c r="U34">
-        <v>11132433.451698599</v>
+        <v>154333.463298185</v>
       </c>
       <c r="V34">
-        <v>10906531.210906601</v>
+        <v>1595496.1920589099</v>
       </c>
       <c r="W34">
-        <v>13444515.2181668</v>
+        <v>299587.90596626501</v>
       </c>
       <c r="X34">
-        <v>8876709.3534940407</v>
+        <v>995084.97083717899</v>
       </c>
       <c r="Y34">
-        <v>2350230.7827091701</v>
+        <v>1126451.8413698899</v>
       </c>
       <c r="Z34">
-        <v>11360429.569009</v>
+        <v>1232564.79037371</v>
       </c>
       <c r="AA34">
-        <v>866788.62136055296</v>
+        <v>1189350.89254242</v>
       </c>
       <c r="AB34">
-        <v>5562762.4384570597</v>
+        <v>1172325.02910362</v>
       </c>
       <c r="AC34">
-        <v>10665168.5338862</v>
+        <v>1022829.42646886</v>
       </c>
       <c r="AD34">
-        <v>11530026.3672352</v>
+        <v>1040412.22924129</v>
       </c>
       <c r="AE34">
-        <v>5955909.8877050001</v>
+        <v>667312.67010341794</v>
       </c>
       <c r="AF34">
-        <v>5994991.4880535603</v>
+        <v>1357759.83165986</v>
       </c>
       <c r="AG34">
-        <v>7759553.9547756901</v>
+        <v>629570.866381592</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>4177315.0914576501</v>
+        <v>789919.54834150802</v>
       </c>
       <c r="AJ34">
-        <v>11889067.868543999</v>
+        <v>712662.89442635095</v>
       </c>
       <c r="AK34">
-        <v>16789619.850152601</v>
+        <v>1093389.0224068901</v>
       </c>
       <c r="AL34">
-        <v>4454400.1072797598</v>
+        <v>1855902.0671435101</v>
       </c>
       <c r="AM34">
-        <v>7174583.05671822</v>
+        <v>1732799.9747810999</v>
       </c>
       <c r="AN34">
-        <v>7926185.3453041101</v>
+        <v>579987.280032982</v>
       </c>
       <c r="AO34">
-        <v>11456292.9797922</v>
+        <v>1694572.0693218401</v>
       </c>
       <c r="AP34">
-        <v>16289196.352784701</v>
+        <v>2212897.4851047201</v>
       </c>
       <c r="AQ34">
-        <v>5303395.4050679402</v>
+        <v>1737965.82182659</v>
       </c>
       <c r="AR34">
-        <v>10013362.931971701</v>
+        <v>174820.80046786199</v>
       </c>
       <c r="AS34">
-        <v>16495756.686924901</v>
+        <v>1085988.4859474399</v>
       </c>
       <c r="AT34">
-        <v>8868965.6390371509</v>
+        <v>1565921.2149672499</v>
       </c>
       <c r="AU34">
-        <v>16495997.0472042</v>
+        <v>1099865.55267026</v>
       </c>
       <c r="AV34">
-        <v>10663535.5569729</v>
+        <v>435491.11996568</v>
       </c>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>12608989.091461301</v>
+        <v>1349415.5114534099</v>
       </c>
       <c r="B35">
-        <v>2088726.3599942499</v>
+        <v>831152.98165332503</v>
       </c>
       <c r="C35">
-        <v>7193972.2194470698</v>
+        <v>732806.32116749999</v>
       </c>
       <c r="D35">
-        <v>12838263.543808701</v>
+        <v>1225397.03527808</v>
       </c>
       <c r="E35">
-        <v>4880926.54706496</v>
+        <v>1525722.39936103</v>
       </c>
       <c r="F35">
-        <v>8844761.4607224595</v>
+        <v>1207983.9520993701</v>
       </c>
       <c r="G35">
-        <v>16113538.571844701</v>
+        <v>1038674.16239012</v>
       </c>
       <c r="H35">
-        <v>12876395.190866601</v>
+        <v>267434.04310317303</v>
       </c>
       <c r="I35">
-        <v>13612116.6869477</v>
+        <v>987349.46519639599</v>
       </c>
       <c r="J35">
-        <v>11424937.8401714</v>
+        <v>476810.33119708201</v>
       </c>
       <c r="K35">
-        <v>15984673.8418412</v>
+        <v>608503.95314668596</v>
       </c>
       <c r="L35">
-        <v>16395560.708443901</v>
+        <v>689163.28293139394</v>
       </c>
       <c r="M35">
-        <v>9359446.7594032809</v>
+        <v>1360324.82194817</v>
       </c>
       <c r="N35">
-        <v>9733711.8455884606</v>
+        <v>487966.06084255001</v>
       </c>
       <c r="O35">
-        <v>10336186.5144029</v>
+        <v>770711.89311705495</v>
       </c>
       <c r="P35">
-        <v>8492241.3783790693</v>
+        <v>761447.75946485996</v>
       </c>
       <c r="Q35">
-        <v>10202012.9703927</v>
+        <v>1650349.2745393501</v>
       </c>
       <c r="R35">
-        <v>17965658.253730498</v>
+        <v>1063867.46351607</v>
       </c>
       <c r="S35">
-        <v>4936740.3379510501</v>
+        <v>813015.80108925595</v>
       </c>
       <c r="T35">
-        <v>8626170.7026861496</v>
+        <v>1615260.6701927599</v>
       </c>
       <c r="U35">
-        <v>6955129.0837903097</v>
+        <v>864206.53388729901</v>
       </c>
       <c r="V35">
-        <v>10856446.2727137</v>
+        <v>1494262.74466928</v>
       </c>
       <c r="W35">
-        <v>9606354.1274424195</v>
+        <v>596840.58839627402</v>
       </c>
       <c r="X35">
-        <v>9048032.6997087691</v>
+        <v>1000237.73337932</v>
       </c>
       <c r="Y35">
-        <v>6219922.7419916801</v>
+        <v>1090000.4822956901</v>
       </c>
       <c r="Z35">
-        <v>8018564.70175019</v>
+        <v>719093.191878582</v>
       </c>
       <c r="AA35">
-        <v>3898041.1562013598</v>
+        <v>1599212.1841762899</v>
       </c>
       <c r="AB35">
-        <v>8358844.1621352201</v>
+        <v>1552850.83130696</v>
       </c>
       <c r="AC35">
-        <v>9981094.5875624493</v>
+        <v>498414.76433841197</v>
       </c>
       <c r="AD35">
-        <v>11113280.8141635</v>
+        <v>486919.75321964797</v>
       </c>
       <c r="AE35">
-        <v>10087250.560650401</v>
+        <v>638299.39295688295</v>
       </c>
       <c r="AF35">
-        <v>6884149.2592348196</v>
+        <v>817534.955345592</v>
       </c>
       <c r="AG35">
-        <v>8372494.9402291495</v>
+        <v>1008429.11419093</v>
       </c>
       <c r="AH35">
-        <v>4177315.0914576501</v>
+        <v>789919.54834150802</v>
       </c>
       <c r="AI35">
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>14885984.4357378</v>
+        <v>971749.53709473298</v>
       </c>
       <c r="AK35">
-        <v>15312961.850869101</v>
+        <v>647547.73141796805</v>
       </c>
       <c r="AL35">
-        <v>3145325.79987555</v>
+        <v>1666881.4940496201</v>
       </c>
       <c r="AM35">
-        <v>9079852.4989246707</v>
+        <v>1525777.42040701</v>
       </c>
       <c r="AN35">
-        <v>9819597.7393686902</v>
+        <v>823829.55586595798</v>
       </c>
       <c r="AO35">
-        <v>7591578.1941847904</v>
+        <v>1388050.8128130301</v>
       </c>
       <c r="AP35">
-        <v>16199119.5373319</v>
+        <v>1969464.6889957699</v>
       </c>
       <c r="AQ35">
-        <v>5436006.1885316297</v>
+        <v>1548305.8619123001</v>
       </c>
       <c r="AR35">
-        <v>7976032.0709931301</v>
+        <v>744325.19537039998</v>
       </c>
       <c r="AS35">
-        <v>13177380.024072601</v>
+        <v>1221501.45601668</v>
       </c>
       <c r="AT35">
-        <v>4710016.5520271398</v>
+        <v>1550541.0078880801</v>
       </c>
       <c r="AU35">
-        <v>14504271.722865099</v>
+        <v>1410355.6420203401</v>
       </c>
       <c r="AV35">
-        <v>14840796.915568501</v>
+        <v>765762.25499075302</v>
       </c>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>10976153.619883601</v>
+        <v>847791.25643026095</v>
       </c>
       <c r="B36">
-        <v>15427482.9207479</v>
+        <v>645591.96065481997</v>
       </c>
       <c r="C36">
-        <v>17887574.2023293</v>
+        <v>541256.10310058203</v>
       </c>
       <c r="D36">
-        <v>12199437.042206099</v>
+        <v>359294.43290770199</v>
       </c>
       <c r="E36">
-        <v>10941812.5401388</v>
+        <v>1255450.66409211</v>
       </c>
       <c r="F36">
-        <v>7869226.4938725503</v>
+        <v>705594.60211439198</v>
       </c>
       <c r="G36">
-        <v>8492584.9655629992</v>
+        <v>551777.35993593303</v>
       </c>
       <c r="H36">
-        <v>11137923.7024188</v>
+        <v>1029501.93390932</v>
       </c>
       <c r="I36">
-        <v>8715027.3637671992</v>
+        <v>425263.19002441398</v>
       </c>
       <c r="J36">
-        <v>13471340.591017799</v>
+        <v>997050.94066623203</v>
       </c>
       <c r="K36">
-        <v>9109448.0652004108</v>
+        <v>494038.02934682003</v>
       </c>
       <c r="L36">
-        <v>2834798.19240337</v>
+        <v>336322.866881961</v>
       </c>
       <c r="M36">
-        <v>6267195.2120081</v>
+        <v>688254.17029489798</v>
       </c>
       <c r="N36">
-        <v>15062416.0388333</v>
+        <v>1040243.16380823</v>
       </c>
       <c r="O36">
-        <v>10256265.134120001</v>
+        <v>1273883.72504899</v>
       </c>
       <c r="P36">
-        <v>15294639.2931062</v>
+        <v>364441.91000374203</v>
       </c>
       <c r="Q36">
-        <v>4684163.9605285702</v>
+        <v>1362330.69357662</v>
       </c>
       <c r="R36">
-        <v>3849618.9712086902</v>
+        <v>632231.21254340699</v>
       </c>
       <c r="S36">
-        <v>12655925.992578501</v>
+        <v>189521.67014907699</v>
       </c>
       <c r="T36">
-        <v>7451723.1767107705</v>
+        <v>740954.47458810499</v>
       </c>
       <c r="U36">
-        <v>14903061.254880199</v>
+        <v>590043.00106086198</v>
       </c>
       <c r="V36">
-        <v>13395274.003396001</v>
+        <v>910656.19077273703</v>
       </c>
       <c r="W36">
-        <v>14531560.845695401</v>
+        <v>517962.31896703702</v>
       </c>
       <c r="X36">
-        <v>14400370.6686175</v>
+        <v>343302.77817369002</v>
       </c>
       <c r="Y36">
-        <v>11096880.478266099</v>
+        <v>465251.78523080202</v>
       </c>
       <c r="Z36">
-        <v>11170426.340002</v>
+        <v>909075.92603613704</v>
       </c>
       <c r="AA36">
-        <v>12644238.4578494</v>
+        <v>627599.24462321296</v>
       </c>
       <c r="AB36">
-        <v>11594900.0511695</v>
+        <v>581622.48601083097</v>
       </c>
       <c r="AC36">
-        <v>14504768.439691201</v>
+        <v>809489.56156082603</v>
       </c>
       <c r="AD36">
-        <v>13442706.5663068</v>
+        <v>843868.402962261</v>
       </c>
       <c r="AE36">
-        <v>6607663.2728569498</v>
+        <v>351500.980345666</v>
       </c>
       <c r="AF36">
-        <v>8099416.0999331204</v>
+        <v>1018603.22714264</v>
       </c>
       <c r="AG36">
-        <v>6878657.9849403501</v>
+        <v>137326.93177334199</v>
       </c>
       <c r="AH36">
-        <v>11889067.868543999</v>
+        <v>712662.89442635095</v>
       </c>
       <c r="AI36">
-        <v>14885984.4357378</v>
+        <v>971749.53709473298</v>
       </c>
       <c r="AJ36">
         <v>0</v>
       </c>
       <c r="AK36">
-        <v>9770065.9938330594</v>
+        <v>768615.84026915603</v>
       </c>
       <c r="AL36">
-        <v>11912680.8095592</v>
+        <v>1188506.3847381</v>
       </c>
       <c r="AM36">
-        <v>12437866.2315678</v>
+        <v>1080761.09251645</v>
       </c>
       <c r="AN36">
-        <v>5110637.2035029503</v>
+        <v>162225.950205314</v>
       </c>
       <c r="AO36">
-        <v>16273463.236330099</v>
+        <v>1099644.29557311</v>
       </c>
       <c r="AP36">
-        <v>8912212.6379700508</v>
+        <v>1551234.5717158299</v>
       </c>
       <c r="AQ36">
-        <v>15550813.154996499</v>
+        <v>1077866.6716159</v>
       </c>
       <c r="AR36">
-        <v>16981709.799081199</v>
+        <v>542753.93411136302</v>
       </c>
       <c r="AS36">
-        <v>11516920.9043996</v>
+        <v>373523.87835060002</v>
       </c>
       <c r="AT36">
-        <v>16371397.5376285</v>
+        <v>860372.57261857204</v>
       </c>
       <c r="AU36">
-        <v>10553807.578971701</v>
+        <v>448967.981215098</v>
       </c>
       <c r="AV36">
-        <v>4231415.9919042503</v>
+        <v>292861.41693538299</v>
       </c>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4484892.0527599398</v>
+        <v>734404.71251734695</v>
       </c>
       <c r="B37">
-        <v>13964232.327062299</v>
+        <v>1082393.6327803901</v>
       </c>
       <c r="C37">
-        <v>8224837.5099664396</v>
+        <v>239017.89252004001</v>
       </c>
       <c r="D37">
-        <v>2482585.1859381902</v>
+        <v>825605.32458420401</v>
       </c>
       <c r="E37">
-        <v>15997687.3819847</v>
+        <v>879881.21062237502</v>
       </c>
       <c r="F37">
-        <v>13154290.7923516</v>
+        <v>613856.56235459598</v>
       </c>
       <c r="G37">
-        <v>3148600.9150755201</v>
+        <v>1163478.3169749801</v>
       </c>
       <c r="H37">
-        <v>5023488.2841017097</v>
+        <v>884166.02484180895</v>
       </c>
       <c r="I37">
-        <v>6857390.0357883004</v>
+        <v>504900.57857242197</v>
       </c>
       <c r="J37">
-        <v>3956970.0176886399</v>
+        <v>308987.998736971</v>
       </c>
       <c r="K37">
-        <v>675512.61449054501</v>
+        <v>295437.10819863097</v>
       </c>
       <c r="L37">
-        <v>7626828.0897760596</v>
+        <v>718732.343943313</v>
       </c>
       <c r="M37">
-        <v>14934240.3323987</v>
+        <v>808001.26061054994</v>
       </c>
       <c r="N37">
-        <v>5648470.1802872801</v>
+        <v>346632.03641447797</v>
       </c>
       <c r="O37">
-        <v>8646045.8379121404</v>
+        <v>511045.58631312998</v>
       </c>
       <c r="P37">
-        <v>8057269.8356290096</v>
+        <v>405588.17666260101</v>
       </c>
       <c r="Q37">
-        <v>14418179.424474301</v>
+        <v>1004982.83010062</v>
       </c>
       <c r="R37">
-        <v>6445386.7526882598</v>
+        <v>1226369.35692264</v>
       </c>
       <c r="S37">
-        <v>13649998.193140799</v>
+        <v>584418.87258284399</v>
       </c>
       <c r="T37">
-        <v>14027868.945372799</v>
+        <v>1147762.9117654699</v>
       </c>
       <c r="U37">
-        <v>9493696.7925499994</v>
+        <v>1071959.17480824</v>
       </c>
       <c r="V37">
-        <v>5912743.9148226297</v>
+        <v>889418.91303537996</v>
       </c>
       <c r="W37">
-        <v>6134710.4901359696</v>
+        <v>795373.45218892395</v>
       </c>
       <c r="X37">
-        <v>7962956.82555624</v>
+        <v>567697.78060591104</v>
       </c>
       <c r="Y37">
-        <v>14884202.104677999</v>
+        <v>589351.16710458405</v>
       </c>
       <c r="Z37">
-        <v>11006939.8844928</v>
+        <v>147770.11985830401</v>
       </c>
       <c r="AA37">
-        <v>16036511.1798671</v>
+        <v>1311504.25123733</v>
       </c>
       <c r="AB37">
-        <v>11429163.8399406</v>
+        <v>1249828.9382076899</v>
       </c>
       <c r="AC37">
-        <v>6292148.46188966</v>
+        <v>154729.655749489</v>
       </c>
       <c r="AD37">
-        <v>5328936.3417595597</v>
+        <v>179261.125207515</v>
       </c>
       <c r="AE37">
-        <v>13511434.3300297</v>
+        <v>482247.082522629</v>
       </c>
       <c r="AF37">
-        <v>17152764.788348</v>
+        <v>271083.802799778</v>
       </c>
       <c r="AG37">
-        <v>15372055.9761914</v>
+        <v>882710.54382765305</v>
       </c>
       <c r="AH37">
-        <v>16789619.850152601</v>
+        <v>1093389.0224068901</v>
       </c>
       <c r="AI37">
-        <v>15312961.850869101</v>
+        <v>647547.73141796805</v>
       </c>
       <c r="AJ37">
-        <v>9770065.9938330594</v>
+        <v>768615.84026915603</v>
       </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>17513288.844720099</v>
+        <v>1028160.6543295</v>
       </c>
       <c r="AM37">
-        <v>9672415.9582921695</v>
+        <v>886954.28660440899</v>
       </c>
       <c r="AN37">
-        <v>14659815.242435999</v>
+        <v>712518.02259255794</v>
       </c>
       <c r="AO37">
-        <v>8018085.6050751703</v>
+        <v>740503.08448196203</v>
       </c>
       <c r="AP37">
-        <v>1263180.0342530899</v>
+        <v>1322071.7550025</v>
       </c>
       <c r="AQ37">
-        <v>11709372.4366592</v>
+        <v>912531.41886424401</v>
       </c>
       <c r="AR37">
-        <v>7582115.6280986601</v>
+        <v>950968.56701033399</v>
       </c>
       <c r="AS37">
-        <v>2602335.9635508098</v>
+        <v>809105.61071506003</v>
       </c>
       <c r="AT37">
-        <v>11237701.646273101</v>
+        <v>979995.04525754997</v>
       </c>
       <c r="AU37">
-        <v>823287.76745799102</v>
+        <v>1082091.0187438601</v>
       </c>
       <c r="AV37">
-        <v>8941544.5465428401</v>
+        <v>776376.74388248299</v>
       </c>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>13227381.789160499</v>
+        <v>352110.680914091</v>
       </c>
       <c r="B38">
-        <v>3784840.8634137399</v>
+        <v>1804904.33299636</v>
       </c>
       <c r="C38">
-        <v>10204272.6139639</v>
+        <v>958580.91564357595</v>
       </c>
       <c r="D38">
-        <v>15269980.625085801</v>
+        <v>883773.89907051902</v>
       </c>
       <c r="E38">
-        <v>2256458.0098268702</v>
+        <v>324503.75162644399</v>
       </c>
       <c r="F38">
-        <v>6122856.0816326002</v>
+        <v>508001.984068666</v>
       </c>
       <c r="G38">
-        <v>18920853.389211301</v>
+        <v>1740097.8448048299</v>
       </c>
       <c r="H38">
-        <v>15759042.8962713</v>
+        <v>1878647.3697563801</v>
       </c>
       <c r="I38">
-        <v>15159473.349698801</v>
+        <v>806516.42116938101</v>
       </c>
       <c r="J38">
-        <v>13737375.3150078</v>
+        <v>1300303.86313244</v>
       </c>
       <c r="K38">
-        <v>18034479.478781901</v>
+        <v>1111926.7763922999</v>
       </c>
       <c r="L38">
-        <v>13293897.4002616</v>
+        <v>1419479.6493214101</v>
       </c>
       <c r="M38">
-        <v>7525286.6844581198</v>
+        <v>516698.66823373298</v>
       </c>
       <c r="N38">
-        <v>12103804.920816001</v>
+        <v>1324716.3107136199</v>
       </c>
       <c r="O38">
-        <v>9446204.2493037395</v>
+        <v>1291023.0965807301</v>
       </c>
       <c r="P38">
-        <v>11569769.6763604</v>
+        <v>1025414.3768280901</v>
       </c>
       <c r="Q38">
-        <v>7300805.9342117002</v>
+        <v>318714.28953701898</v>
       </c>
       <c r="R38">
-        <v>15650967.7832174</v>
+        <v>1820676.2717534101</v>
       </c>
       <c r="S38">
-        <v>4002890.6589732501</v>
+        <v>1140271.1133873099</v>
       </c>
       <c r="T38">
-        <v>5659475.7774915202</v>
+        <v>782216.81994805299</v>
       </c>
       <c r="U38">
-        <v>8020022.7326222798</v>
+        <v>1760091.89547471</v>
       </c>
       <c r="V38">
-        <v>13944547.145517301</v>
+        <v>289276.00503038598</v>
       </c>
       <c r="W38">
-        <v>11420819.493114499</v>
+        <v>1584894.43982259</v>
       </c>
       <c r="X38">
-        <v>12022175.491926299</v>
+        <v>863669.40168278897</v>
       </c>
       <c r="Y38">
-        <v>6777221.1619551303</v>
+        <v>732456.18297159695</v>
       </c>
       <c r="Z38">
-        <v>6954934.5005576201</v>
+        <v>1009441.64492861</v>
       </c>
       <c r="AA38">
-        <v>4834820.9558299398</v>
+        <v>1249796.71926545</v>
       </c>
       <c r="AB38">
-        <v>9954783.7168323491</v>
+        <v>1190067.69387512</v>
       </c>
       <c r="AC38">
-        <v>13120321.815921601</v>
+        <v>1182846.1214024499</v>
       </c>
       <c r="AD38">
-        <v>14249876.978959501</v>
+        <v>1204839.1620653199</v>
       </c>
       <c r="AE38">
-        <v>8971556.6952350102</v>
+        <v>1214756.8014831501</v>
       </c>
       <c r="AF38">
-        <v>3813542.6162705701</v>
+        <v>978709.20007056301</v>
       </c>
       <c r="AG38">
-        <v>5227444.8140513003</v>
+        <v>1316466.17968693</v>
       </c>
       <c r="AH38">
-        <v>4454400.1072797598</v>
+        <v>1855902.0671435101</v>
       </c>
       <c r="AI38">
-        <v>3145325.79987555</v>
+        <v>1666881.4940496201</v>
       </c>
       <c r="AJ38">
-        <v>11912680.8095592</v>
+        <v>1188506.3847381</v>
       </c>
       <c r="AK38">
-        <v>17513288.844720099</v>
+        <v>1028160.6543295</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>11315783.7711717</v>
+        <v>141292.746657904</v>
       </c>
       <c r="AN38">
-        <v>6803845.50348139</v>
+        <v>1284000.65113966</v>
       </c>
       <c r="AO38">
-        <v>9622484.5321373194</v>
+        <v>340667.869352518</v>
       </c>
       <c r="AP38">
-        <v>18776411.9514517</v>
+        <v>362819.04382143501</v>
       </c>
       <c r="AQ38">
-        <v>8206906.7006804701</v>
+        <v>121472.12402902399</v>
       </c>
       <c r="AR38">
-        <v>11057295.4462808</v>
+        <v>1681667.87968996</v>
       </c>
       <c r="AS38">
-        <v>14911099.9285229</v>
+        <v>858839.13602507999</v>
       </c>
       <c r="AT38">
-        <v>6370492.1146744899</v>
+        <v>419183.77729974297</v>
       </c>
       <c r="AU38">
-        <v>16768009.0677121</v>
+        <v>1072427.91102974</v>
       </c>
       <c r="AV38">
-        <v>13516095.241739601</v>
+        <v>1424126.50306134</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>13105750.795531699</v>
+        <v>233089.07526294299</v>
       </c>
       <c r="B39">
-        <v>10519153.985291401</v>
+        <v>1684643.6137709201</v>
       </c>
       <c r="C39">
-        <v>6906969.6834695498</v>
+        <v>820557.64209922601</v>
       </c>
       <c r="D39">
-        <v>9258486.9032300208</v>
+        <v>797733.24220334506</v>
       </c>
       <c r="E39">
-        <v>13564223.295354901</v>
+        <v>272836.91385143599</v>
       </c>
       <c r="F39">
-        <v>17176037.841809001</v>
+        <v>383594.28296404902</v>
       </c>
       <c r="G39">
-        <v>7613753.88347222</v>
+        <v>1632083.81786787</v>
       </c>
       <c r="H39">
-        <v>4679340.9724203302</v>
+        <v>1738910.4777897401</v>
       </c>
       <c r="I39">
-        <v>4577880.3506255802</v>
+        <v>683728.90262761398</v>
       </c>
       <c r="J39">
-        <v>9576725.6592962798</v>
+        <v>1161026.77937867</v>
       </c>
       <c r="K39">
-        <v>9792220.9170021396</v>
+        <v>975048.11006583495</v>
       </c>
       <c r="L39">
-        <v>13858587.948796701</v>
+        <v>1295398.7915139401</v>
       </c>
       <c r="M39">
-        <v>9147809.2905979604</v>
+        <v>437301.40081111499</v>
       </c>
       <c r="N39">
-        <v>9443824.3196906894</v>
+        <v>1186181.96379958</v>
       </c>
       <c r="O39">
-        <v>16779238.052556001</v>
+        <v>1163244.2052299001</v>
       </c>
       <c r="P39">
-        <v>3625988.9696328598</v>
+        <v>894943.61513925204</v>
       </c>
       <c r="Q39">
-        <v>12558239.7670548</v>
+        <v>322595.99493034999</v>
       </c>
       <c r="R39">
-        <v>10160169.289752699</v>
+        <v>1712173.1151563399</v>
       </c>
       <c r="S39">
-        <v>13894379.749780901</v>
+        <v>1018970.01229884</v>
       </c>
       <c r="T39">
-        <v>16201183.189191399</v>
+        <v>759685.41150658403</v>
       </c>
       <c r="U39">
-        <v>12555587.2802031</v>
+        <v>1642247.3379462501</v>
       </c>
       <c r="V39">
-        <v>4249986.3069324</v>
+        <v>231334.79746182301</v>
       </c>
       <c r="W39">
-        <v>10968293.409692099</v>
+        <v>1456945.3981548799</v>
       </c>
       <c r="X39">
-        <v>2858818.0238764999</v>
+        <v>747230.21252842597</v>
       </c>
       <c r="Y39">
-        <v>5313634.7346462002</v>
+        <v>617795.44370945904</v>
       </c>
       <c r="Z39">
-        <v>16359137.7987164</v>
+        <v>870712.27981291804</v>
       </c>
       <c r="AA39">
-        <v>6572780.77296797</v>
+        <v>1203795.3355988199</v>
       </c>
       <c r="AB39">
-        <v>1958796.2167754101</v>
+        <v>1141124.25961527</v>
       </c>
       <c r="AC39">
-        <v>4687107.9356013397</v>
+        <v>1041656.42846195</v>
       </c>
       <c r="AD39">
-        <v>4978563.56585324</v>
+        <v>1063832.83702343</v>
       </c>
       <c r="AE39">
-        <v>7423977.5993706696</v>
+        <v>1084220.64492643</v>
       </c>
       <c r="AF39">
-        <v>12842167.245338799</v>
+        <v>844755.44029613596</v>
       </c>
       <c r="AG39">
-        <v>14364081.8814159</v>
+        <v>1212238.02419198</v>
       </c>
       <c r="AH39">
-        <v>7174583.05671822</v>
+        <v>1732799.9747810999</v>
       </c>
       <c r="AI39">
-        <v>9079852.4989246707</v>
+        <v>1525777.42040701</v>
       </c>
       <c r="AJ39">
-        <v>12437866.2315678</v>
+        <v>1080761.09251645</v>
       </c>
       <c r="AK39">
-        <v>9672415.9582921695</v>
+        <v>886954.28660440899</v>
       </c>
       <c r="AL39">
-        <v>11315783.7711717</v>
+        <v>141292.746657904</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>13189558.754381901</v>
+        <v>1166483.6344658199</v>
       </c>
       <c r="AO39">
-        <v>10462272.740743199</v>
+        <v>227241.20355823799</v>
       </c>
       <c r="AP39">
-        <v>9150904.6179791894</v>
+        <v>480270.89925515599</v>
       </c>
       <c r="AQ39">
-        <v>3836759.5948315002</v>
+        <v>39372.597145682099</v>
       </c>
       <c r="AR39">
-        <v>6240978.9017217103</v>
+        <v>1559311.15022917</v>
       </c>
       <c r="AS39">
-        <v>10779796.9610631</v>
+        <v>771616.36205878796</v>
       </c>
       <c r="AT39">
-        <v>11106370.3031571</v>
+        <v>393407.41078248702</v>
       </c>
       <c r="AU39">
-        <v>9614113.4130601194</v>
+        <v>1009926.50654292</v>
       </c>
       <c r="AV39">
-        <v>8251254.4097974896</v>
+        <v>1304131.34623273</v>
       </c>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>13490148.0964543</v>
+        <v>934704.71283354796</v>
       </c>
       <c r="B40">
-        <v>10450100.2868795</v>
+        <v>522313.16904774902</v>
       </c>
       <c r="C40">
-        <v>17002778.360410899</v>
+        <v>510685.52852668602</v>
       </c>
       <c r="D40">
-        <v>16735701.8124534</v>
+        <v>506418.711372016</v>
       </c>
       <c r="E40">
-        <v>6180933.3164182398</v>
+        <v>1314474.19304988</v>
       </c>
       <c r="F40">
-        <v>4884779.8996665804</v>
+        <v>783490.93614981999</v>
       </c>
       <c r="G40">
-        <v>13508328.540708</v>
+        <v>487830.99170436402</v>
       </c>
       <c r="H40">
-        <v>15361182.9784941</v>
+        <v>868769.87239185302</v>
       </c>
       <c r="I40">
-        <v>12263031.391211599</v>
+        <v>485197.65724390798</v>
       </c>
       <c r="J40">
-        <v>17139255.217730999</v>
+        <v>902060.76207653095</v>
       </c>
       <c r="K40">
-        <v>14050868.9042159</v>
+        <v>419250.14650635899</v>
       </c>
       <c r="L40">
-        <v>7037281.5828900896</v>
+        <v>175197.15498274501</v>
       </c>
       <c r="M40">
-        <v>4045892.6219923701</v>
+        <v>804435.38109236397</v>
       </c>
       <c r="N40">
-        <v>17234210.6718117</v>
+        <v>944412.20618959598</v>
       </c>
       <c r="O40">
-        <v>9940465.8453623094</v>
+        <v>1199735.33837296</v>
       </c>
       <c r="P40">
-        <v>16497563.8676122</v>
+        <v>337921.05592473701</v>
       </c>
       <c r="Q40">
-        <v>799158.80561164895</v>
+        <v>1428059.8034153499</v>
       </c>
       <c r="R40">
-        <v>8892047.4884948302</v>
+        <v>563231.15920716699</v>
       </c>
       <c r="S40">
-        <v>8547407.1297407001</v>
+        <v>156554.633180184</v>
       </c>
       <c r="T40">
-        <v>3851902.8636380201</v>
+        <v>897413.30799037404</v>
       </c>
       <c r="U40">
-        <v>12773702.6952498</v>
+        <v>476143.10980874201</v>
       </c>
       <c r="V40">
-        <v>17064568.075871501</v>
+        <v>1017433.10583951</v>
       </c>
       <c r="W40">
-        <v>15671560.073760999</v>
+        <v>359001.697642226</v>
       </c>
       <c r="X40">
-        <v>15996987.4323867</v>
+        <v>420345.26826188498</v>
       </c>
       <c r="Y40">
-        <v>8557389.7541125901</v>
+        <v>551595.94322891405</v>
       </c>
       <c r="Z40">
-        <v>8966034.6849083807</v>
+        <v>859126.30572169495</v>
       </c>
       <c r="AA40">
-        <v>8792892.8941779509</v>
+        <v>778830.99725564895</v>
       </c>
       <c r="AB40">
-        <v>11303137.9719659</v>
+        <v>736789.03747839003</v>
       </c>
       <c r="AC40">
-        <v>17865691.104347501</v>
+        <v>723796.54046193999</v>
       </c>
       <c r="AD40">
-        <v>17644771.8650265</v>
+        <v>755778.30772188504</v>
       </c>
       <c r="AE40">
-        <v>5882454.8045919798</v>
+        <v>242568.61411373399</v>
       </c>
       <c r="AF40">
-        <v>2994435.9263078701</v>
+        <v>977287.12352531101</v>
       </c>
       <c r="AG40">
-        <v>2196005.03767832</v>
+        <v>192376.00557737099</v>
       </c>
       <c r="AH40">
-        <v>7926185.3453041101</v>
+        <v>579987.280032982</v>
       </c>
       <c r="AI40">
-        <v>9819597.7393686902</v>
+        <v>823829.55586595798</v>
       </c>
       <c r="AJ40">
-        <v>5110637.2035029503</v>
+        <v>162225.950205314</v>
       </c>
       <c r="AK40">
-        <v>14659815.242435999</v>
+        <v>712518.02259255794</v>
       </c>
       <c r="AL40">
-        <v>6803845.50348139</v>
+        <v>1284000.65113966</v>
       </c>
       <c r="AM40">
-        <v>13189558.754381901</v>
+        <v>1166483.6344658199</v>
       </c>
       <c r="AN40">
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>15208716.872087101</v>
+        <v>1155789.2439350199</v>
       </c>
       <c r="AP40">
-        <v>13982635.561586799</v>
+        <v>1644332.4875499599</v>
       </c>
       <c r="AQ40">
-        <v>13191890.425296299</v>
+        <v>1168390.68419261</v>
       </c>
       <c r="AR40">
-        <v>17759235.448963199</v>
+        <v>405635.87163863803</v>
       </c>
       <c r="AS40">
-        <v>15414807.493817801</v>
+        <v>516613.75210336398</v>
       </c>
       <c r="AT40">
-        <v>12445185.6073038</v>
+        <v>986684.39007073501</v>
       </c>
       <c r="AU40">
-        <v>15337501.676254001</v>
+        <v>610216.31437147502</v>
       </c>
       <c r="AV40">
-        <v>7807502.62969252</v>
+        <v>145023.05260240901</v>
       </c>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5425050.6347125201</v>
+        <v>317480.30968575901</v>
       </c>
       <c r="B41">
-        <v>5948864.3553647902</v>
+        <v>1656255.1479602</v>
       </c>
       <c r="C41">
-        <v>3559496.2716129902</v>
+        <v>731924.12474557303</v>
       </c>
       <c r="D41">
-        <v>5647743.8184023304</v>
+        <v>875611.81573232997</v>
       </c>
       <c r="E41">
-        <v>9335301.6502779704</v>
+        <v>159190.18918394999</v>
       </c>
       <c r="F41">
-        <v>10534353.9493313</v>
+        <v>407255.58214848902</v>
       </c>
       <c r="G41">
-        <v>10573347.6070533</v>
+        <v>1639071.1931393</v>
       </c>
       <c r="H41">
-        <v>9428929.3665598594</v>
+        <v>1619129.0859894201</v>
       </c>
       <c r="I41">
-        <v>12533060.778073801</v>
+        <v>676544.44257444504</v>
       </c>
       <c r="J41">
-        <v>4114963.2755076699</v>
+        <v>985989.61297417898</v>
       </c>
       <c r="K41">
-        <v>8670046.8492399603</v>
+        <v>889281.52829022997</v>
       </c>
       <c r="L41">
-        <v>13482912.4679772</v>
+        <v>1260399.4436435001</v>
       </c>
       <c r="M41">
-        <v>16949441.4005646</v>
+        <v>555535.011685248</v>
       </c>
       <c r="N41">
-        <v>2536870.5407230901</v>
+        <v>1006286.00125271</v>
       </c>
       <c r="O41">
-        <v>6422932.4847609904</v>
+        <v>952020.86900644505</v>
       </c>
       <c r="P41">
-        <v>6899820.3989293696</v>
+        <v>846149.22014626605</v>
       </c>
       <c r="Q41">
-        <v>16002340.040780099</v>
+        <v>279490.710285938</v>
       </c>
       <c r="R41">
-        <v>14383600.3103854</v>
+        <v>1716857.0635878299</v>
       </c>
       <c r="S41">
-        <v>6764371.6455241702</v>
+        <v>1000569.38706018</v>
       </c>
       <c r="T41">
-        <v>11445697.7052924</v>
+        <v>927690.73612227396</v>
       </c>
       <c r="U41">
-        <v>2453650.8546506702</v>
+        <v>1621855.29386825</v>
       </c>
       <c r="V41">
-        <v>7597296.4608309697</v>
+        <v>410740.97208031802</v>
       </c>
       <c r="W41">
-        <v>2021135.3570016101</v>
+        <v>1404817.9347198401</v>
       </c>
       <c r="X41">
-        <v>7782549.3426670097</v>
+        <v>756370.24612967705</v>
       </c>
       <c r="Y41">
-        <v>12608491.232209699</v>
+        <v>641557.80130180798</v>
       </c>
       <c r="Z41">
-        <v>6466311.4706389699</v>
+        <v>695132.93258521601</v>
       </c>
       <c r="AA41">
-        <v>10825009.633233299</v>
+        <v>1332786.3332561799</v>
       </c>
       <c r="AB41">
-        <v>11805877.047829799</v>
+        <v>1267366.1678140101</v>
       </c>
       <c r="AC41">
-        <v>6544347.2630866999</v>
+        <v>891680.30240241298</v>
       </c>
       <c r="AD41">
-        <v>7120455.8530169697</v>
+        <v>908617.75708067499</v>
       </c>
       <c r="AE41">
-        <v>17121560.211424801</v>
+        <v>1028929.79505559</v>
       </c>
       <c r="AF41">
-        <v>12821937.4755599</v>
+        <v>648576.43282977794</v>
       </c>
       <c r="AG41">
-        <v>13025703.0627301</v>
+        <v>1236342.5633563299</v>
       </c>
       <c r="AH41">
-        <v>11456292.9797922</v>
+        <v>1694572.0693218401</v>
       </c>
       <c r="AI41">
-        <v>7591578.1941847904</v>
+        <v>1388050.8128130301</v>
       </c>
       <c r="AJ41">
-        <v>16273463.236330099</v>
+        <v>1099644.29557311</v>
       </c>
       <c r="AK41">
-        <v>8018085.6050751703</v>
+        <v>740503.08448196203</v>
       </c>
       <c r="AL41">
-        <v>9622484.5321373194</v>
+        <v>340667.869352518</v>
       </c>
       <c r="AM41">
-        <v>10462272.740743199</v>
+        <v>227241.20355823799</v>
       </c>
       <c r="AN41">
-        <v>15208716.872087101</v>
+        <v>1155789.2439350199</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>9212449.0937212203</v>
+        <v>582152.95238585502</v>
       </c>
       <c r="AQ41">
-        <v>8090162.6897069998</v>
+        <v>266403.89082053403</v>
       </c>
       <c r="AR41">
-        <v>4271381.9216634398</v>
+        <v>1525769.9075817801</v>
       </c>
       <c r="AS41">
-        <v>5605301.8141032299</v>
+        <v>848578.36835971905</v>
       </c>
       <c r="AT41">
-        <v>3253027.7868891899</v>
+        <v>578159.50125340605</v>
       </c>
       <c r="AU41">
-        <v>7206855.4524790701</v>
+        <v>1119749.0444523101</v>
       </c>
       <c r="AV41">
-        <v>16761831.8082352</v>
+        <v>1282592.4311197901</v>
       </c>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>5634861.0638670297</v>
+        <v>709764.76295650704</v>
       </c>
       <c r="B42">
-        <v>15127205.878699699</v>
+        <v>2163944.9247919298</v>
       </c>
       <c r="C42">
-        <v>9005147.5223043598</v>
+        <v>1289868.5825427901</v>
       </c>
       <c r="D42">
-        <v>3585434.1706132502</v>
+        <v>1243242.0299757901</v>
       </c>
       <c r="E42">
-        <v>17010029.410553999</v>
+        <v>461162.19467659399</v>
       </c>
       <c r="F42">
-        <v>13600442.101570699</v>
+        <v>863294.59479698597</v>
       </c>
       <c r="G42">
-        <v>1980822.42839755</v>
+        <v>2102880.7348523899</v>
       </c>
       <c r="H42">
-        <v>4492991.1617840501</v>
+        <v>2196398.5209908099</v>
       </c>
       <c r="I42">
-        <v>5797645.6686595296</v>
+        <v>1163412.4912016301</v>
       </c>
       <c r="J42">
-        <v>5108504.3063014103</v>
+        <v>1563383.57200107</v>
       </c>
       <c r="K42">
-        <v>806163.37347634195</v>
+        <v>1446482.8016658199</v>
       </c>
       <c r="L42">
-        <v>7117689.5820592297</v>
+        <v>1775585.0255706699</v>
       </c>
       <c r="M42">
-        <v>13690851.5763673</v>
+        <v>876574.72643536504</v>
       </c>
       <c r="N42">
-        <v>6774289.9575581905</v>
+        <v>1581071.80459412</v>
       </c>
       <c r="O42">
-        <v>9617662.8975953609</v>
+        <v>1488524.19180111</v>
       </c>
       <c r="P42">
-        <v>8205247.3329354199</v>
+        <v>1374237.30725766</v>
       </c>
       <c r="Q42">
-        <v>13593718.7209254</v>
+        <v>351093.12717559998</v>
       </c>
       <c r="R42">
-        <v>5355416.2657951498</v>
+        <v>2183437.58145562</v>
       </c>
       <c r="S42">
-        <v>14857815.259067399</v>
+        <v>1498420.8588890701</v>
       </c>
       <c r="T42">
-        <v>14290616.1790145</v>
+        <v>1096155.66201707</v>
       </c>
       <c r="U42">
-        <v>10756478.007072</v>
+        <v>2120447.9165542498</v>
       </c>
       <c r="V42">
-        <v>5887590.6298060203</v>
+        <v>648176.27140786999</v>
       </c>
       <c r="W42">
-        <v>7373071.9053820902</v>
+        <v>1936863.49681645</v>
       </c>
       <c r="X42">
-        <v>7922482.3012408596</v>
+        <v>1224132.2540305399</v>
       </c>
       <c r="Y42">
-        <v>14086890.530648399</v>
+        <v>1093388.4940341599</v>
       </c>
       <c r="Z42">
-        <v>12060653.284417201</v>
+        <v>1274305.2897816801</v>
       </c>
       <c r="AA42">
-        <v>15720369.836162699</v>
+        <v>1578274.9340113599</v>
       </c>
       <c r="AB42">
-        <v>10731023.000926301</v>
+        <v>1522166.6524676201</v>
       </c>
       <c r="AC42">
-        <v>6513867.8168441299</v>
+        <v>1473768.7863016899</v>
       </c>
       <c r="AD42">
-        <v>5433792.0151279997</v>
+        <v>1490723.28408588</v>
       </c>
       <c r="AE42">
-        <v>12252344.3330916</v>
+        <v>1563277.5727962099</v>
       </c>
       <c r="AF42">
-        <v>16857771.366603199</v>
+        <v>1215874.3845557999</v>
       </c>
       <c r="AG42">
-        <v>15197487.936182801</v>
+        <v>1679254.8328746101</v>
       </c>
       <c r="AH42">
-        <v>16289196.352784701</v>
+        <v>2212897.4851047201</v>
       </c>
       <c r="AI42">
-        <v>16199119.5373319</v>
+        <v>1969464.6889957699</v>
       </c>
       <c r="AJ42">
-        <v>8912212.6379700508</v>
+        <v>1551234.5717158299</v>
       </c>
       <c r="AK42">
-        <v>1263180.0342530899</v>
+        <v>1322071.7550025</v>
       </c>
       <c r="AL42">
-        <v>18776411.9514517</v>
+        <v>362819.04382143501</v>
       </c>
       <c r="AM42">
-        <v>9150904.6179791894</v>
+        <v>480270.89925515599</v>
       </c>
       <c r="AN42">
-        <v>13982635.561586799</v>
+        <v>1644332.4875499599</v>
       </c>
       <c r="AO42">
-        <v>9212449.0937212203</v>
+        <v>582152.95238585502</v>
       </c>
       <c r="AP42">
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>11779536.319915701</v>
+        <v>475944.58583123097</v>
       </c>
       <c r="AR42">
-        <v>8242601.9024712201</v>
+        <v>2039232.29778169</v>
       </c>
       <c r="AS42">
-        <v>3865487.7504158299</v>
+        <v>1218812.2212080499</v>
       </c>
       <c r="AT42">
-        <v>12454111.8519095</v>
+        <v>754989.18471629405</v>
       </c>
       <c r="AU42">
-        <v>2022229.5274022201</v>
+        <v>1417413.4027315599</v>
       </c>
       <c r="AV42">
-        <v>7695827.34820271</v>
+        <v>1783221.38931778</v>
       </c>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12885679.714406701</v>
+        <v>233923.751762097</v>
       </c>
       <c r="B43">
-        <v>6686791.5505967196</v>
+        <v>1688199.2760038699</v>
       </c>
       <c r="C43">
-        <v>4968947.6507116901</v>
+        <v>837368.50584814604</v>
       </c>
       <c r="D43">
-        <v>10062740.040996</v>
+        <v>785801.93323044397</v>
       </c>
       <c r="E43">
-        <v>10264233.271791499</v>
+        <v>307785.658502904</v>
       </c>
       <c r="F43">
-        <v>14256527.4991623</v>
+        <v>388638.32882532099</v>
       </c>
       <c r="G43">
-        <v>10832099.9670121</v>
+        <v>1629612.0141637099</v>
       </c>
       <c r="H43">
-        <v>7562806.4587446405</v>
+        <v>1758067.41642465</v>
       </c>
       <c r="I43">
-        <v>8387705.52829237</v>
+        <v>688242.03147762106</v>
       </c>
       <c r="J43">
-        <v>9478742.7280161493</v>
+        <v>1190419.7266714899</v>
       </c>
       <c r="K43">
-        <v>12133939.132628901</v>
+        <v>990500.46650175995</v>
       </c>
       <c r="L43">
-        <v>17672371.760973699</v>
+        <v>1301039.54023227</v>
       </c>
       <c r="M43">
-        <v>10015528.2117971</v>
+        <v>421687.19278374</v>
       </c>
       <c r="N43">
-        <v>8415036.0593088605</v>
+        <v>1216337.6923051099</v>
       </c>
       <c r="O43">
-        <v>14129423.767084001</v>
+        <v>1198782.80200224</v>
       </c>
       <c r="P43">
-        <v>3652180.5427312502</v>
+        <v>904719.91344972304</v>
       </c>
       <c r="Q43">
-        <v>13006818.091395</v>
+        <v>348394.411645238</v>
       </c>
       <c r="R43">
-        <v>13996523.5888159</v>
+        <v>1709947.95872971</v>
       </c>
       <c r="S43">
-        <v>10073269.6450043</v>
+        <v>1022868.1522909499</v>
       </c>
       <c r="T43">
-        <v>13859156.026665701</v>
+        <v>730601.89317835495</v>
       </c>
       <c r="U43">
-        <v>9472696.1230081897</v>
+        <v>1644503.3339100699</v>
       </c>
       <c r="V43">
-        <v>5894265.2260829099</v>
+        <v>206156.409803224</v>
       </c>
       <c r="W43">
-        <v>9503774.9566627499</v>
+        <v>1465072.70053913</v>
       </c>
       <c r="X43">
-        <v>3860505.9762010998</v>
+        <v>748232.35258460802</v>
       </c>
       <c r="Y43">
-        <v>4918055.0541081801</v>
+        <v>617666.52020291903</v>
       </c>
       <c r="Z43">
-        <v>12660529.193755001</v>
+        <v>900872.12030188402</v>
       </c>
       <c r="AA43">
-        <v>4445748.53078405</v>
+        <v>1180677.2919974199</v>
       </c>
       <c r="AB43">
-        <v>4037605.2193778399</v>
+        <v>1118664.75499216</v>
       </c>
       <c r="AC43">
-        <v>5420304.8730968302</v>
+        <v>1067249.9532937401</v>
       </c>
       <c r="AD43">
-        <v>6401762.6670234101</v>
+        <v>1090208.3777866401</v>
       </c>
       <c r="AE43">
-        <v>9106574.7392313592</v>
+        <v>1094094.0678808801</v>
       </c>
       <c r="AF43">
-        <v>11140260.2937233</v>
+        <v>878183.10426566401</v>
       </c>
       <c r="AG43">
-        <v>12917009.941253699</v>
+        <v>1207897.8616581301</v>
       </c>
       <c r="AH43">
-        <v>5303395.4050679402</v>
+        <v>1737965.82182659</v>
       </c>
       <c r="AI43">
-        <v>5436006.1885316297</v>
+        <v>1548305.8619123001</v>
       </c>
       <c r="AJ43">
-        <v>15550813.154996499</v>
+        <v>1077866.6716159</v>
       </c>
       <c r="AK43">
-        <v>11709372.4366592</v>
+        <v>912531.41886424401</v>
       </c>
       <c r="AL43">
-        <v>8206906.7006804701</v>
+        <v>121472.12402902399</v>
       </c>
       <c r="AM43">
-        <v>3836759.5948315002</v>
+        <v>39372.597145682099</v>
       </c>
       <c r="AN43">
-        <v>13191890.425296299</v>
+        <v>1168390.68419261</v>
       </c>
       <c r="AO43">
-        <v>8090162.6897069998</v>
+        <v>266403.89082053403</v>
       </c>
       <c r="AP43">
-        <v>11779536.319915701</v>
+        <v>475944.58583123097</v>
       </c>
       <c r="AQ43">
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>4944920.6552237803</v>
+        <v>1564010.1466576499</v>
       </c>
       <c r="AS43">
-        <v>11377208.802727699</v>
+        <v>760053.20575852704</v>
       </c>
       <c r="AT43">
-        <v>7554818.1266782098</v>
+        <v>363154.56797758199</v>
       </c>
       <c r="AU43">
-        <v>11241975.6310721</v>
+        <v>990910.46395421203</v>
       </c>
       <c r="AV43">
-        <v>11777469.7866305</v>
+        <v>1307429.6446136001</v>
       </c>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7979671.1556611098</v>
+        <v>1330182.02642473</v>
       </c>
       <c r="B44">
-        <v>7589831.3441473497</v>
+        <v>133284.90082025001</v>
       </c>
       <c r="C44">
-        <v>999860.96993021795</v>
+        <v>817485.06415910297</v>
       </c>
       <c r="D44">
-        <v>5386990.5542693902</v>
+        <v>901841.85135163798</v>
       </c>
       <c r="E44">
-        <v>12054428.1189606</v>
+        <v>1684837.0084830199</v>
       </c>
       <c r="F44">
-        <v>14611092.2204949</v>
+        <v>1175938.3962456</v>
       </c>
       <c r="G44">
-        <v>8490547.5753135793</v>
+        <v>295961.26584082103</v>
       </c>
       <c r="H44">
-        <v>5977454.4781273603</v>
+        <v>658153.10204184195</v>
       </c>
       <c r="I44">
-        <v>8754795.0648991093</v>
+        <v>875846.54194187105</v>
       </c>
       <c r="J44">
-        <v>4553416.2930384502</v>
+        <v>1027621.4005749699</v>
       </c>
       <c r="K44">
-        <v>8194890.8084856402</v>
+        <v>675541.16155520803</v>
       </c>
       <c r="L44">
-        <v>15191248.072058501</v>
+        <v>265660.27042667801</v>
       </c>
       <c r="M44">
-        <v>14877041.7179945</v>
+        <v>1209888.3780764299</v>
       </c>
       <c r="N44">
-        <v>3544898.8899106402</v>
+        <v>1063142.2712965</v>
       </c>
       <c r="O44">
-        <v>10560934.1934695</v>
+        <v>1356380.9475599199</v>
       </c>
       <c r="P44">
-        <v>2633770.5592703898</v>
+        <v>679740.26126368204</v>
       </c>
       <c r="Q44">
-        <v>17877427.185970299</v>
+        <v>1803347.3318439701</v>
       </c>
       <c r="R44">
-        <v>13132125.186543001</v>
+        <v>321339.66120366799</v>
       </c>
       <c r="S44">
-        <v>10082487.393058799</v>
+        <v>541416.18703210098</v>
       </c>
       <c r="T44">
-        <v>15303536.799138101</v>
+        <v>1278430.0115757899</v>
       </c>
       <c r="U44">
-        <v>6599240.3529589903</v>
+        <v>128173.645079371</v>
       </c>
       <c r="V44">
-        <v>3768301.5244070799</v>
+        <v>1420676.93994041</v>
       </c>
       <c r="W44">
-        <v>4880868.7645903397</v>
+        <v>166051.58614273201</v>
       </c>
       <c r="X44">
-        <v>3511869.9280773099</v>
+        <v>820336.238457812</v>
       </c>
       <c r="Y44">
-        <v>9836769.3712692596</v>
+        <v>951735.81510719296</v>
       </c>
       <c r="Z44">
-        <v>10681652.8962662</v>
+        <v>1094272.2547482799</v>
       </c>
       <c r="AA44">
-        <v>9153596.7184168603</v>
+        <v>1056091.36945642</v>
       </c>
       <c r="AB44">
-        <v>7814377.4578879001</v>
+        <v>1032779.28291548</v>
       </c>
       <c r="AC44">
-        <v>2621502.6945674699</v>
+        <v>896416.76315793104</v>
       </c>
       <c r="AD44">
-        <v>3591335.7220520801</v>
+        <v>917849.09528387198</v>
       </c>
       <c r="AE44">
-        <v>13539248.43352</v>
+        <v>503300.50560271402</v>
       </c>
       <c r="AF44">
-        <v>14856177.9105189</v>
+        <v>1219715.6575303201</v>
       </c>
       <c r="AG44">
-        <v>16142115.4037471</v>
+        <v>470879.80446638598</v>
       </c>
       <c r="AH44">
-        <v>10013362.931971701</v>
+        <v>174820.80046786199</v>
       </c>
       <c r="AI44">
-        <v>7976032.0709931301</v>
+        <v>744325.19537039998</v>
       </c>
       <c r="AJ44">
-        <v>16981709.799081199</v>
+        <v>542753.93411136302</v>
       </c>
       <c r="AK44">
-        <v>7582115.6280986601</v>
+        <v>950968.56701033399</v>
       </c>
       <c r="AL44">
-        <v>11057295.4462808</v>
+        <v>1681667.87968996</v>
       </c>
       <c r="AM44">
-        <v>6240978.9017217103</v>
+        <v>1559311.15022917</v>
       </c>
       <c r="AN44">
-        <v>17759235.448963199</v>
+        <v>405635.87163863803</v>
       </c>
       <c r="AO44">
-        <v>4271381.9216634398</v>
+        <v>1525769.9075817801</v>
       </c>
       <c r="AP44">
-        <v>8242601.9024712201</v>
+        <v>2039232.29778169</v>
       </c>
       <c r="AQ44">
-        <v>4944920.6552237803</v>
+        <v>1564010.1466576499</v>
       </c>
       <c r="AR44">
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>6511943.8492725799</v>
+        <v>915022.12612128595</v>
       </c>
       <c r="AT44">
-        <v>6117666.2254930604</v>
+        <v>1392117.1255892401</v>
       </c>
       <c r="AU44">
-        <v>6884219.9855532199</v>
+        <v>946834.35764684004</v>
       </c>
       <c r="AV44">
-        <v>13453203.0073753</v>
+        <v>260866.78599767599</v>
       </c>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2403574.66404439</v>
+        <v>549556.07929547597</v>
       </c>
       <c r="B45">
-        <v>11510581.7786017</v>
+        <v>1018952.6496619</v>
       </c>
       <c r="C45">
-        <v>6809920.2281368999</v>
+        <v>577824.30698099604</v>
       </c>
       <c r="D45">
-        <v>1524424.8440679801</v>
+        <v>27033.447518168701</v>
       </c>
       <c r="E45">
-        <v>13646715.727562301</v>
+        <v>990604.05885173799</v>
       </c>
       <c r="F45">
-        <v>11893499.953883</v>
+        <v>444107.693782705</v>
       </c>
       <c r="G45">
-        <v>5681110.5598772299</v>
+        <v>903650.24009039905</v>
       </c>
       <c r="H45">
-        <v>6648787.3605955299</v>
+        <v>1335069.21459139</v>
       </c>
       <c r="I45">
-        <v>9147062.2707223091</v>
+        <v>307148.00294713501</v>
       </c>
       <c r="J45">
-        <v>2002284.9268448499</v>
+        <v>1101280.52501522</v>
       </c>
       <c r="K45">
-        <v>3176147.7766798702</v>
+        <v>632831.81572082895</v>
       </c>
       <c r="L45">
-        <v>8881623.9272918794</v>
+        <v>687759.84420075105</v>
       </c>
       <c r="M45">
-        <v>17442263.665530901</v>
+        <v>342323.99383405002</v>
       </c>
       <c r="N45">
-        <v>3553480.8183240201</v>
+        <v>1143100.8359412299</v>
       </c>
       <c r="O45">
-        <v>6725745.5707259905</v>
+        <v>1307617.34837712</v>
       </c>
       <c r="P45">
-        <v>8022726.6009285999</v>
+        <v>468450.67788074398</v>
       </c>
       <c r="Q45">
-        <v>15601648.589687699</v>
+        <v>1080551.4772604101</v>
       </c>
       <c r="R45">
-        <v>8778384.7227527108</v>
+        <v>984365.99820135406</v>
       </c>
       <c r="S45">
-        <v>11124556.6396548</v>
+        <v>431411.44094792899</v>
       </c>
       <c r="T45">
-        <v>12976503.2462343</v>
+        <v>397536.85863048403</v>
       </c>
       <c r="U45">
-        <v>6892935.0364369797</v>
+        <v>962310.86171994905</v>
       </c>
       <c r="V45">
-        <v>6541997.0974755501</v>
+        <v>570672.65355325001</v>
       </c>
       <c r="W45">
-        <v>3625138.9657492698</v>
+        <v>872595.75722240203</v>
       </c>
       <c r="X45">
-        <v>8319038.1864469303</v>
+        <v>243875.66602040001</v>
       </c>
       <c r="Y45">
-        <v>15942542.182503</v>
+        <v>250229.53764892</v>
       </c>
       <c r="Z45">
-        <v>8801587.9834044594</v>
+        <v>916198.04100374004</v>
       </c>
       <c r="AA45">
-        <v>15651190.9704396</v>
+        <v>528556.70310817205</v>
       </c>
       <c r="AB45">
-        <v>12731024.016790301</v>
+        <v>462551.57289774797</v>
       </c>
       <c r="AC45">
-        <v>6371361.97071773</v>
+        <v>910884.97654202499</v>
       </c>
       <c r="AD45">
-        <v>5819810.4722851999</v>
+        <v>946649.80190655403</v>
       </c>
       <c r="AE45">
-        <v>16102727.783740601</v>
+        <v>591942.03342262004</v>
       </c>
       <c r="AF45">
-        <v>16264666.241260201</v>
+        <v>993869.02809702896</v>
       </c>
       <c r="AG45">
-        <v>14859475.864057001</v>
+        <v>479273.78078090999</v>
       </c>
       <c r="AH45">
-        <v>16495756.686924901</v>
+        <v>1085988.4859474399</v>
       </c>
       <c r="AI45">
-        <v>13177380.024072601</v>
+        <v>1221501.45601668</v>
       </c>
       <c r="AJ45">
-        <v>11516920.9043996</v>
+        <v>373523.87835060002</v>
       </c>
       <c r="AK45">
-        <v>2602335.9635508098</v>
+        <v>809105.61071506003</v>
       </c>
       <c r="AL45">
-        <v>14911099.9285229</v>
+        <v>858839.13602507999</v>
       </c>
       <c r="AM45">
-        <v>10779796.9610631</v>
+        <v>771616.36205878796</v>
       </c>
       <c r="AN45">
-        <v>15414807.493817801</v>
+        <v>516613.75210336398</v>
       </c>
       <c r="AO45">
-        <v>5605301.8141032299</v>
+        <v>848578.36835971905</v>
       </c>
       <c r="AP45">
-        <v>3865487.7504158299</v>
+        <v>1218812.2212080499</v>
       </c>
       <c r="AQ45">
-        <v>11377208.802727699</v>
+        <v>760053.20575852704</v>
       </c>
       <c r="AR45">
-        <v>6511943.8492725799</v>
+        <v>915022.12612128595</v>
       </c>
       <c r="AS45">
         <v>0</v>
       </c>
       <c r="AT45">
-        <v>8729977.3276858106</v>
+        <v>494231.650613114</v>
       </c>
       <c r="AU45">
-        <v>1926676.58567661</v>
+        <v>295360.49148628098</v>
       </c>
       <c r="AV45">
-        <v>11506577.283276601</v>
+        <v>659266.59827131999</v>
       </c>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>7901992.7402714901</v>
+        <v>295686.865609659</v>
       </c>
       <c r="B46">
-        <v>2791545.80256083</v>
+        <v>1503584.28299143</v>
       </c>
       <c r="C46">
-        <v>5125245.5720070396</v>
+        <v>820019.97916146996</v>
       </c>
       <c r="D46">
-        <v>8900479.8305984996</v>
+        <v>514829.642567623</v>
       </c>
       <c r="E46">
-        <v>6283532.7521688798</v>
+        <v>664405.58654234698</v>
       </c>
       <c r="F46">
-        <v>8594992.1067232806</v>
+        <v>367896.48931544297</v>
       </c>
       <c r="G46">
-        <v>13787580.8442153</v>
+        <v>1397881.69383538</v>
       </c>
       <c r="H46">
-        <v>12049676.319416201</v>
+        <v>1718233.2388128201</v>
       </c>
       <c r="I46">
-        <v>14833596.5232217</v>
+        <v>573648.20021016395</v>
       </c>
       <c r="J46">
-        <v>7367656.9084648304</v>
+        <v>1286672.8292940201</v>
       </c>
       <c r="K46">
-        <v>11872964.5296894</v>
+        <v>945849.82471744705</v>
       </c>
       <c r="L46">
-        <v>14695251.210670499</v>
+        <v>1146042.4413051601</v>
       </c>
       <c r="M46">
-        <v>13818554.477031199</v>
+        <v>193823.243783212</v>
       </c>
       <c r="N46">
-        <v>5764305.0802717302</v>
+        <v>1321206.1954773699</v>
       </c>
       <c r="O46">
-        <v>6654738.7170238104</v>
+        <v>1382107.8714918301</v>
       </c>
       <c r="P46">
-        <v>8290216.7442103401</v>
+        <v>812402.830927826</v>
       </c>
       <c r="Q46">
-        <v>13162912.822406201</v>
+        <v>710915.85148936196</v>
       </c>
       <c r="R46">
-        <v>17322610.841577299</v>
+        <v>1478590.29450473</v>
       </c>
       <c r="S46">
-        <v>3978621.6350571802</v>
+        <v>866952.04787588795</v>
       </c>
       <c r="T46">
-        <v>9187474.5969731007</v>
+        <v>367752.90553761099</v>
       </c>
       <c r="U46">
-        <v>2317029.5160042602</v>
+        <v>1450047.7343354099</v>
       </c>
       <c r="V46">
-        <v>9884184.8979086503</v>
+        <v>168075.66768227</v>
       </c>
       <c r="W46">
-        <v>5113932.3015594697</v>
+        <v>1326379.7114452799</v>
       </c>
       <c r="X46">
-        <v>9203966.0129254591</v>
+        <v>592446.63141215197</v>
       </c>
       <c r="Y46">
-        <v>10684010.681554601</v>
+        <v>473450.63183516299</v>
       </c>
       <c r="Z46">
-        <v>5254095.5385448402</v>
+        <v>1022587.5497854199</v>
       </c>
       <c r="AA46">
-        <v>8466814.7481549494</v>
+        <v>830945.12058599002</v>
       </c>
       <c r="AB46">
-        <v>11566298.179372299</v>
+        <v>771930.06571635895</v>
       </c>
       <c r="AC46">
-        <v>8737489.4946730994</v>
+        <v>1124430.2505709999</v>
       </c>
       <c r="AD46">
-        <v>9629766.4277484994</v>
+        <v>1155056.8091247799</v>
       </c>
       <c r="AE46">
-        <v>14796045.8586806</v>
+        <v>988295.48615337897</v>
       </c>
       <c r="AF46">
-        <v>9705269.3922829591</v>
+        <v>1043697.02595292</v>
       </c>
       <c r="AG46">
-        <v>10292375.6073773</v>
+        <v>973124.96592735103</v>
       </c>
       <c r="AH46">
-        <v>8868965.6390371509</v>
+        <v>1565921.2149672499</v>
       </c>
       <c r="AI46">
-        <v>4710016.5520271398</v>
+        <v>1550541.0078880801</v>
       </c>
       <c r="AJ46">
-        <v>16371397.5376285</v>
+        <v>860372.57261857204</v>
       </c>
       <c r="AK46">
-        <v>11237701.646273101</v>
+        <v>979995.04525754997</v>
       </c>
       <c r="AL46">
-        <v>6370492.1146744899</v>
+        <v>419183.77729974297</v>
       </c>
       <c r="AM46">
-        <v>11106370.3031571</v>
+        <v>393407.41078248702</v>
       </c>
       <c r="AN46">
-        <v>12445185.6073038</v>
+        <v>986684.39007073501</v>
       </c>
       <c r="AO46">
-        <v>3253027.7868891899</v>
+        <v>578159.50125340605</v>
       </c>
       <c r="AP46">
-        <v>12454111.8519095</v>
+        <v>754989.18471629405</v>
       </c>
       <c r="AQ46">
-        <v>7554818.1266782098</v>
+        <v>363154.56797758199</v>
       </c>
       <c r="AR46">
-        <v>6117666.2254930604</v>
+        <v>1392117.1255892401</v>
       </c>
       <c r="AS46">
-        <v>8729977.3276858106</v>
+        <v>494231.650613114</v>
       </c>
       <c r="AT46">
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>10437796.877851499</v>
+        <v>662523.436844468</v>
       </c>
       <c r="AV46">
-        <v>19331675.018755499</v>
+        <v>1131701.200154</v>
       </c>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4072440.9657594999</v>
+        <v>807387.56264993304</v>
       </c>
       <c r="B47">
-        <v>13148093.605406901</v>
+        <v>1020912.82686576</v>
       </c>
       <c r="C47">
-        <v>7474994.7326899199</v>
+        <v>844419.24679415603</v>
       </c>
       <c r="D47">
-        <v>1666264.3027530699</v>
+        <v>271553.13833226397</v>
       </c>
       <c r="E47">
-        <v>15543631.8220284</v>
+        <v>1251880.79999161</v>
       </c>
       <c r="F47">
-        <v>13202073.6271681</v>
+        <v>725754.80701535405</v>
       </c>
       <c r="G47">
-        <v>3755802.3209867501</v>
+        <v>840271.26996230194</v>
       </c>
       <c r="H47">
-        <v>5092776.8594402401</v>
+        <v>1478468.19622215</v>
       </c>
       <c r="I47">
-        <v>7287246.0386749199</v>
+        <v>593479.37030974706</v>
       </c>
       <c r="J47">
-        <v>3134199.9846398602</v>
+        <v>1360137.99451526</v>
       </c>
       <c r="K47">
-        <v>1496880.2047967999</v>
+        <v>866491.97526941902</v>
       </c>
       <c r="L47">
-        <v>8307445.97090887</v>
+        <v>780966.385940162</v>
       </c>
       <c r="M47">
-        <v>15711183.5427333</v>
+        <v>574592.07589552295</v>
       </c>
       <c r="N47">
-        <v>4825188.1936111096</v>
+        <v>1402972.0381823201</v>
       </c>
       <c r="O47">
-        <v>8366927.69623248</v>
+        <v>1588582.91911129</v>
       </c>
       <c r="P47">
-        <v>7609013.3099883404</v>
+        <v>704408.79043633095</v>
       </c>
       <c r="Q47">
-        <v>15164861.0110496</v>
+        <v>1329830.6927811599</v>
       </c>
       <c r="R47">
-        <v>7268613.68127649</v>
+        <v>915277.90616749797</v>
       </c>
       <c r="S47">
-        <v>13051056.7084186</v>
+        <v>598472.72613771097</v>
       </c>
       <c r="T47">
-        <v>14172771.649419</v>
+        <v>379112.85273730301</v>
       </c>
       <c r="U47">
-        <v>8765578.9320737291</v>
+        <v>954911.26324349095</v>
       </c>
       <c r="V47">
-        <v>5618091.5353325997</v>
+        <v>787136.91484102397</v>
       </c>
       <c r="W47">
-        <v>5351063.6311282096</v>
+        <v>956465.07295912004</v>
       </c>
       <c r="X47">
-        <v>7626360.5811272003</v>
+        <v>517283.59490592201</v>
       </c>
       <c r="Y47">
-        <v>14920545.775239799</v>
+        <v>545497.97068841802</v>
       </c>
       <c r="Z47">
-        <v>10612826.425395399</v>
+        <v>1198879.66275032</v>
       </c>
       <c r="AA47">
-        <v>15668828.932604</v>
+        <v>234076.44502494199</v>
       </c>
       <c r="AB47">
-        <v>11468449.321055301</v>
+        <v>169216.82578724399</v>
       </c>
       <c r="AC47">
-        <v>5838781.2762233904</v>
+        <v>1167561.5188683299</v>
       </c>
       <c r="AD47">
-        <v>4972964.5729879802</v>
+        <v>1203545.13465978</v>
       </c>
       <c r="AE47">
-        <v>14183072.8245498</v>
+        <v>774085.13701643702</v>
       </c>
       <c r="AF47">
-        <v>17486922.265694</v>
+        <v>1283015.8617157401</v>
       </c>
       <c r="AG47">
-        <v>15744474.594262101</v>
+        <v>476783.40262479801</v>
       </c>
       <c r="AH47">
-        <v>16495997.0472042</v>
+        <v>1099865.55267026</v>
       </c>
       <c r="AI47">
-        <v>14504271.722865099</v>
+        <v>1410355.6420203401</v>
       </c>
       <c r="AJ47">
-        <v>10553807.578971701</v>
+        <v>448967.981215098</v>
       </c>
       <c r="AK47">
-        <v>823287.76745799102</v>
+        <v>1082091.0187438601</v>
       </c>
       <c r="AL47">
-        <v>16768009.0677121</v>
+        <v>1072427.91102974</v>
       </c>
       <c r="AM47">
-        <v>9614113.4130601194</v>
+        <v>1009926.50654292</v>
       </c>
       <c r="AN47">
-        <v>15337501.676254001</v>
+        <v>610216.31437147502</v>
       </c>
       <c r="AO47">
-        <v>7206855.4524790701</v>
+        <v>1119749.0444523101</v>
       </c>
       <c r="AP47">
-        <v>2022229.5274022201</v>
+        <v>1417413.4027315599</v>
       </c>
       <c r="AQ47">
-        <v>11241975.6310721</v>
+        <v>990910.46395421203</v>
       </c>
       <c r="AR47">
-        <v>6884219.9855532199</v>
+        <v>946834.35764684004</v>
       </c>
       <c r="AS47">
-        <v>1926676.58567661</v>
+        <v>295360.49148628098</v>
       </c>
       <c r="AT47">
-        <v>10437796.877851499</v>
+        <v>662523.436844468</v>
       </c>
       <c r="AU47">
         <v>0</v>
       </c>
       <c r="AV47">
-        <v>9717198.7644183096</v>
+        <v>726386.23807358299</v>
       </c>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>12542904.010066699</v>
+        <v>1073512.4701020501</v>
       </c>
       <c r="B48">
-        <v>16860792.595873199</v>
+        <v>380797.07141910202</v>
       </c>
       <c r="C48">
-        <v>14428411.763114501</v>
+        <v>602454.41291616799</v>
       </c>
       <c r="D48">
-        <v>11179338.1670417</v>
+        <v>647820.16531063104</v>
       </c>
       <c r="E48">
-        <v>13883898.906929599</v>
+        <v>1441731.7858567501</v>
       </c>
       <c r="F48">
-        <v>11905082.226278</v>
+        <v>920557.66169622703</v>
       </c>
       <c r="G48">
-        <v>6198222.5634201998</v>
+        <v>388121.91555242502</v>
       </c>
       <c r="H48">
-        <v>7611179.57875532</v>
+        <v>770486.14974067803</v>
       </c>
       <c r="I48">
-        <v>4698703.8905510502</v>
+        <v>620617.92935454298</v>
       </c>
       <c r="J48">
-        <v>12702729.613393201</v>
+        <v>922181.71887404204</v>
       </c>
       <c r="K48">
-        <v>8333497.2626861297</v>
+        <v>482565.27447113598</v>
       </c>
       <c r="L48">
-        <v>5976531.0825358396</v>
+        <v>77792.525840058399</v>
       </c>
       <c r="M48">
-        <v>5995191.2720060796</v>
+        <v>949022.16056999797</v>
       </c>
       <c r="N48">
-        <v>14225801.008071</v>
+        <v>962624.88196361798</v>
       </c>
       <c r="O48">
-        <v>14013940.7901826</v>
+        <v>1236541.04596099</v>
       </c>
       <c r="P48">
-        <v>11170445.5290471</v>
+        <v>444128.14599213598</v>
       </c>
       <c r="Q48">
-        <v>7055969.6497127898</v>
+        <v>1557707.72469273</v>
       </c>
       <c r="R48">
-        <v>3171754.8201721702</v>
+        <v>455479.93776768999</v>
       </c>
       <c r="S48">
-        <v>16352030.1217902</v>
+        <v>285444.042292025</v>
       </c>
       <c r="T48">
-        <v>11240126.038205599</v>
+        <v>1033813.41998316</v>
       </c>
       <c r="U48">
-        <v>18209014.650068499</v>
+        <v>339817.63072788803</v>
       </c>
       <c r="V48">
-        <v>9711090.6641269997</v>
+        <v>1160497.5813957499</v>
       </c>
       <c r="W48">
-        <v>15067784.344481301</v>
+        <v>230136.67787909601</v>
       </c>
       <c r="X48">
-        <v>10248540.1178433</v>
+        <v>561112.40002996905</v>
       </c>
       <c r="Y48">
-        <v>8753283.9171575997</v>
+        <v>692619.43717992096</v>
       </c>
       <c r="Z48">
-        <v>15387415.5139826</v>
+        <v>924057.65913554898</v>
       </c>
       <c r="AA48">
-        <v>11009838.743383201</v>
+        <v>871580.11757765198</v>
       </c>
       <c r="AB48">
-        <v>7765685.4757822901</v>
+        <v>836892.35742181598</v>
       </c>
       <c r="AC48">
-        <v>10852013.024545699</v>
+        <v>759224.67737410998</v>
       </c>
       <c r="AD48">
-        <v>10023922.5234068</v>
+        <v>787572.15132639301</v>
       </c>
       <c r="AE48">
-        <v>4812186.0585785303</v>
+        <v>295429.97042536602</v>
       </c>
       <c r="AF48">
-        <v>10408268.226337399</v>
+        <v>1046848.5696957801</v>
       </c>
       <c r="AG48">
-        <v>9992626.8811886907</v>
+        <v>260543.44217557699</v>
       </c>
       <c r="AH48">
-        <v>10663535.5569729</v>
+        <v>435491.11996568</v>
       </c>
       <c r="AI48">
-        <v>14840796.915568501</v>
+        <v>765762.25499075302</v>
       </c>
       <c r="AJ48">
-        <v>4231415.9919042503</v>
+        <v>292861.41693538299</v>
       </c>
       <c r="AK48">
-        <v>8941544.5465428401</v>
+        <v>776376.74388248299</v>
       </c>
       <c r="AL48">
-        <v>13516095.241739601</v>
+        <v>1424126.50306134</v>
       </c>
       <c r="AM48">
-        <v>8251254.4097974896</v>
+        <v>1304131.34623273</v>
       </c>
       <c r="AN48">
-        <v>7807502.62969252</v>
+        <v>145023.05260240901</v>
       </c>
       <c r="AO48">
-        <v>16761831.8082352</v>
+        <v>1282592.4311197901</v>
       </c>
       <c r="AP48">
-        <v>7695827.34820271</v>
+        <v>1783221.38931778</v>
       </c>
       <c r="AQ48">
-        <v>11777469.7866305</v>
+        <v>1307429.6446136001</v>
       </c>
       <c r="AR48">
-        <v>13453203.0073753</v>
+        <v>260866.78599767599</v>
       </c>
       <c r="AS48">
-        <v>11506577.283276601</v>
+        <v>659266.59827131999</v>
       </c>
       <c r="AT48">
-        <v>19331675.018755499</v>
+        <v>1131701.200154</v>
       </c>
       <c r="AU48">
-        <v>9717198.7644183096</v>
+        <v>726386.23807358299</v>
       </c>
       <c r="AV48">
         <v>0</v>
